--- a/湖北省理科一分一段表2022-2024.xlsx
+++ b/湖北省理科一分一段表2022-2024.xlsx
@@ -67,12 +67,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3689,7 +3692,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3727,13 +3730,3228 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>数据待补充...</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>697-750</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>45</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>696</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>695</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>694</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>693</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>692</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>691</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>690</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>689</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>688</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>687</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="C14" s="3" t="n">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>686</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="C15" s="3" t="n">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>685</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="C16" s="3" t="n">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>684</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="C17" s="3" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>683</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="n">
+        <v>38</v>
+      </c>
+      <c r="C18" s="3" t="n">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>682</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="n">
+        <v>27</v>
+      </c>
+      <c r="C19" s="3" t="n">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="inlineStr">
+        <is>
+          <t>681</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="n">
+        <v>34</v>
+      </c>
+      <c r="C20" s="3" t="n">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>680</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="n">
+        <v>38</v>
+      </c>
+      <c r="C21" s="3" t="n">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="inlineStr">
+        <is>
+          <t>679</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="n">
+        <v>37</v>
+      </c>
+      <c r="C22" s="3" t="n">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr">
+        <is>
+          <t>678</t>
+        </is>
+      </c>
+      <c r="B23" s="3" t="n">
+        <v>45</v>
+      </c>
+      <c r="C23" s="3" t="n">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="inlineStr">
+        <is>
+          <t>677</t>
+        </is>
+      </c>
+      <c r="B24" s="3" t="n">
+        <v>45</v>
+      </c>
+      <c r="C24" s="3" t="n">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="inlineStr">
+        <is>
+          <t>676</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="n">
+        <v>43</v>
+      </c>
+      <c r="C25" s="3" t="n">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="inlineStr">
+        <is>
+          <t>675</t>
+        </is>
+      </c>
+      <c r="B26" s="3" t="n">
+        <v>51</v>
+      </c>
+      <c r="C26" s="3" t="n">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="inlineStr">
+        <is>
+          <t>674</t>
+        </is>
+      </c>
+      <c r="B27" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="C27" s="3" t="n">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="inlineStr">
+        <is>
+          <t>673</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="n">
+        <v>76</v>
+      </c>
+      <c r="C28" s="3" t="n">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="inlineStr">
+        <is>
+          <t>672</t>
+        </is>
+      </c>
+      <c r="B29" s="3" t="n">
+        <v>76</v>
+      </c>
+      <c r="C29" s="3" t="n">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="inlineStr">
+        <is>
+          <t>671</t>
+        </is>
+      </c>
+      <c r="B30" s="3" t="n">
+        <v>93</v>
+      </c>
+      <c r="C30" s="3" t="n">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="inlineStr">
+        <is>
+          <t>670</t>
+        </is>
+      </c>
+      <c r="B31" s="3" t="n">
+        <v>76</v>
+      </c>
+      <c r="C31" s="3" t="n">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="inlineStr">
+        <is>
+          <t>669</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="n">
+        <v>84</v>
+      </c>
+      <c r="C32" s="3" t="n">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="inlineStr">
+        <is>
+          <t>668</t>
+        </is>
+      </c>
+      <c r="B33" s="3" t="n">
+        <v>84</v>
+      </c>
+      <c r="C33" s="3" t="n">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="n">
+        <v>86</v>
+      </c>
+      <c r="C34" s="3" t="n">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="inlineStr">
+        <is>
+          <t>666</t>
+        </is>
+      </c>
+      <c r="B35" s="3" t="n">
+        <v>77</v>
+      </c>
+      <c r="C35" s="3" t="n">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="inlineStr">
+        <is>
+          <t>665</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="n">
+        <v>86</v>
+      </c>
+      <c r="C36" s="3" t="n">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="inlineStr">
+        <is>
+          <t>664</t>
+        </is>
+      </c>
+      <c r="B37" s="3" t="n">
+        <v>128</v>
+      </c>
+      <c r="C37" s="3" t="n">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="inlineStr">
+        <is>
+          <t>663</t>
+        </is>
+      </c>
+      <c r="B38" s="3" t="n">
+        <v>105</v>
+      </c>
+      <c r="C38" s="3" t="n">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="inlineStr">
+        <is>
+          <t>662</t>
+        </is>
+      </c>
+      <c r="B39" s="3" t="n">
+        <v>132</v>
+      </c>
+      <c r="C39" s="3" t="n">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="inlineStr">
+        <is>
+          <t>661</t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="n">
+        <v>130</v>
+      </c>
+      <c r="C40" s="3" t="n">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="inlineStr">
+        <is>
+          <t>660</t>
+        </is>
+      </c>
+      <c r="B41" s="3" t="n">
+        <v>105</v>
+      </c>
+      <c r="C41" s="3" t="n">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="inlineStr">
+        <is>
+          <t>659</t>
+        </is>
+      </c>
+      <c r="B42" s="3" t="n">
+        <v>112</v>
+      </c>
+      <c r="C42" s="3" t="n">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="inlineStr">
+        <is>
+          <t>658</t>
+        </is>
+      </c>
+      <c r="B43" s="3" t="n">
+        <v>135</v>
+      </c>
+      <c r="C43" s="3" t="n">
+        <v>2243</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="inlineStr">
+        <is>
+          <t>657</t>
+        </is>
+      </c>
+      <c r="B44" s="3" t="n">
+        <v>134</v>
+      </c>
+      <c r="C44" s="3" t="n">
+        <v>2377</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="B45" s="3" t="n">
+        <v>148</v>
+      </c>
+      <c r="C45" s="3" t="n">
+        <v>2525</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="inlineStr">
+        <is>
+          <t>655</t>
+        </is>
+      </c>
+      <c r="B46" s="3" t="n">
+        <v>158</v>
+      </c>
+      <c r="C46" s="3" t="n">
+        <v>2683</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="inlineStr">
+        <is>
+          <t>654</t>
+        </is>
+      </c>
+      <c r="B47" s="3" t="n">
+        <v>171</v>
+      </c>
+      <c r="C47" s="3" t="n">
+        <v>2854</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="inlineStr">
+        <is>
+          <t>653</t>
+        </is>
+      </c>
+      <c r="B48" s="3" t="n">
+        <v>130</v>
+      </c>
+      <c r="C48" s="3" t="n">
+        <v>2984</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="inlineStr">
+        <is>
+          <t>652</t>
+        </is>
+      </c>
+      <c r="B49" s="3" t="n">
+        <v>176</v>
+      </c>
+      <c r="C49" s="3" t="n">
+        <v>3160</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="inlineStr">
+        <is>
+          <t>651</t>
+        </is>
+      </c>
+      <c r="B50" s="3" t="n">
+        <v>191</v>
+      </c>
+      <c r="C50" s="3" t="n">
+        <v>3351</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="inlineStr">
+        <is>
+          <t>650</t>
+        </is>
+      </c>
+      <c r="B51" s="3" t="n">
+        <v>177</v>
+      </c>
+      <c r="C51" s="3" t="n">
+        <v>3528</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="inlineStr">
+        <is>
+          <t>649</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="n">
+        <v>177</v>
+      </c>
+      <c r="C52" s="3" t="n">
+        <v>3705</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="inlineStr">
+        <is>
+          <t>648</t>
+        </is>
+      </c>
+      <c r="B53" s="3" t="n">
+        <v>196</v>
+      </c>
+      <c r="C53" s="3" t="n">
+        <v>3901</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="inlineStr">
+        <is>
+          <t>647</t>
+        </is>
+      </c>
+      <c r="B54" s="3" t="n">
+        <v>174</v>
+      </c>
+      <c r="C54" s="3" t="n">
+        <v>4075</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="inlineStr">
+        <is>
+          <t>646</t>
+        </is>
+      </c>
+      <c r="B55" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="C55" s="3" t="n">
+        <v>4255</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="3" t="inlineStr">
+        <is>
+          <t>645</t>
+        </is>
+      </c>
+      <c r="B56" s="3" t="n">
+        <v>220</v>
+      </c>
+      <c r="C56" s="3" t="n">
+        <v>4475</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="3" t="inlineStr">
+        <is>
+          <t>644</t>
+        </is>
+      </c>
+      <c r="B57" s="3" t="n">
+        <v>207</v>
+      </c>
+      <c r="C57" s="3" t="n">
+        <v>4682</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="3" t="inlineStr">
+        <is>
+          <t>643</t>
+        </is>
+      </c>
+      <c r="B58" s="3" t="n">
+        <v>239</v>
+      </c>
+      <c r="C58" s="3" t="n">
+        <v>4921</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="3" t="inlineStr">
+        <is>
+          <t>642</t>
+        </is>
+      </c>
+      <c r="B59" s="3" t="n">
+        <v>213</v>
+      </c>
+      <c r="C59" s="3" t="n">
+        <v>5134</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="3" t="inlineStr">
+        <is>
+          <t>641</t>
+        </is>
+      </c>
+      <c r="B60" s="3" t="n">
+        <v>233</v>
+      </c>
+      <c r="C60" s="3" t="n">
+        <v>5367</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="3" t="inlineStr">
+        <is>
+          <t>640</t>
+        </is>
+      </c>
+      <c r="B61" s="3" t="n">
+        <v>241</v>
+      </c>
+      <c r="C61" s="3" t="n">
+        <v>5608</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="3" t="inlineStr">
+        <is>
+          <t>639</t>
+        </is>
+      </c>
+      <c r="B62" s="3" t="n">
+        <v>206</v>
+      </c>
+      <c r="C62" s="3" t="n">
+        <v>5814</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="3" t="inlineStr">
+        <is>
+          <t>638</t>
+        </is>
+      </c>
+      <c r="B63" s="3" t="n">
+        <v>259</v>
+      </c>
+      <c r="C63" s="3" t="n">
+        <v>6073</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="3" t="inlineStr">
+        <is>
+          <t>637</t>
+        </is>
+      </c>
+      <c r="B64" s="3" t="n">
+        <v>232</v>
+      </c>
+      <c r="C64" s="3" t="n">
+        <v>6305</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="3" t="inlineStr">
+        <is>
+          <t>636</t>
+        </is>
+      </c>
+      <c r="B65" s="3" t="n">
+        <v>239</v>
+      </c>
+      <c r="C65" s="3" t="n">
+        <v>6544</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="3" t="inlineStr">
+        <is>
+          <t>635</t>
+        </is>
+      </c>
+      <c r="B66" s="3" t="n">
+        <v>273</v>
+      </c>
+      <c r="C66" s="3" t="n">
+        <v>6817</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="3" t="inlineStr">
+        <is>
+          <t>634</t>
+        </is>
+      </c>
+      <c r="B67" s="3" t="n">
+        <v>264</v>
+      </c>
+      <c r="C67" s="3" t="n">
+        <v>7081</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="3" t="inlineStr">
+        <is>
+          <t>633</t>
+        </is>
+      </c>
+      <c r="B68" s="3" t="n">
+        <v>276</v>
+      </c>
+      <c r="C68" s="3" t="n">
+        <v>7357</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="3" t="inlineStr">
+        <is>
+          <t>632</t>
+        </is>
+      </c>
+      <c r="B69" s="3" t="n">
+        <v>278</v>
+      </c>
+      <c r="C69" s="3" t="n">
+        <v>7635</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="3" t="inlineStr">
+        <is>
+          <t>631</t>
+        </is>
+      </c>
+      <c r="B70" s="3" t="n">
+        <v>274</v>
+      </c>
+      <c r="C70" s="3" t="n">
+        <v>7909</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="3" t="inlineStr">
+        <is>
+          <t>630</t>
+        </is>
+      </c>
+      <c r="B71" s="3" t="n">
+        <v>279</v>
+      </c>
+      <c r="C71" s="3" t="n">
+        <v>8188</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="3" t="inlineStr">
+        <is>
+          <t>629</t>
+        </is>
+      </c>
+      <c r="B72" s="3" t="n">
+        <v>306</v>
+      </c>
+      <c r="C72" s="3" t="n">
+        <v>8494</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="3" t="inlineStr">
+        <is>
+          <t>628</t>
+        </is>
+      </c>
+      <c r="B73" s="3" t="n">
+        <v>318</v>
+      </c>
+      <c r="C73" s="3" t="n">
+        <v>8812</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="3" t="inlineStr">
+        <is>
+          <t>627</t>
+        </is>
+      </c>
+      <c r="B74" s="3" t="n">
+        <v>314</v>
+      </c>
+      <c r="C74" s="3" t="n">
+        <v>9126</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="3" t="inlineStr">
+        <is>
+          <t>626</t>
+        </is>
+      </c>
+      <c r="B75" s="3" t="n">
+        <v>310</v>
+      </c>
+      <c r="C75" s="3" t="n">
+        <v>9436</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="3" t="inlineStr">
+        <is>
+          <t>625</t>
+        </is>
+      </c>
+      <c r="B76" s="3" t="n">
+        <v>295</v>
+      </c>
+      <c r="C76" s="3" t="n">
+        <v>9731</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="3" t="inlineStr">
+        <is>
+          <t>624</t>
+        </is>
+      </c>
+      <c r="B77" s="3" t="n">
+        <v>347</v>
+      </c>
+      <c r="C77" s="3" t="n">
+        <v>10078</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="3" t="inlineStr">
+        <is>
+          <t>623</t>
+        </is>
+      </c>
+      <c r="B78" s="3" t="n">
+        <v>325</v>
+      </c>
+      <c r="C78" s="3" t="n">
+        <v>10403</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="3" t="inlineStr">
+        <is>
+          <t>622</t>
+        </is>
+      </c>
+      <c r="B79" s="3" t="n">
+        <v>335</v>
+      </c>
+      <c r="C79" s="3" t="n">
+        <v>10738</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="3" t="inlineStr">
+        <is>
+          <t>621</t>
+        </is>
+      </c>
+      <c r="B80" s="3" t="n">
+        <v>326</v>
+      </c>
+      <c r="C80" s="3" t="n">
+        <v>11064</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="3" t="inlineStr">
+        <is>
+          <t>620</t>
+        </is>
+      </c>
+      <c r="B81" s="3" t="n">
+        <v>333</v>
+      </c>
+      <c r="C81" s="3" t="n">
+        <v>11397</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="3" t="inlineStr">
+        <is>
+          <t>619</t>
+        </is>
+      </c>
+      <c r="B82" s="3" t="n">
+        <v>328</v>
+      </c>
+      <c r="C82" s="3" t="n">
+        <v>11725</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="3" t="inlineStr">
+        <is>
+          <t>618</t>
+        </is>
+      </c>
+      <c r="B83" s="3" t="n">
+        <v>352</v>
+      </c>
+      <c r="C83" s="3" t="n">
+        <v>12077</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="3" t="inlineStr">
+        <is>
+          <t>617</t>
+        </is>
+      </c>
+      <c r="B84" s="3" t="n">
+        <v>334</v>
+      </c>
+      <c r="C84" s="3" t="n">
+        <v>12411</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="3" t="inlineStr">
+        <is>
+          <t>616</t>
+        </is>
+      </c>
+      <c r="B85" s="3" t="n">
+        <v>372</v>
+      </c>
+      <c r="C85" s="3" t="n">
+        <v>12783</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="3" t="inlineStr">
+        <is>
+          <t>615</t>
+        </is>
+      </c>
+      <c r="B86" s="3" t="n">
+        <v>408</v>
+      </c>
+      <c r="C86" s="3" t="n">
+        <v>13191</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="3" t="inlineStr">
+        <is>
+          <t>614</t>
+        </is>
+      </c>
+      <c r="B87" s="3" t="n">
+        <v>374</v>
+      </c>
+      <c r="C87" s="3" t="n">
+        <v>13565</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="3" t="inlineStr">
+        <is>
+          <t>613</t>
+        </is>
+      </c>
+      <c r="B88" s="3" t="n">
+        <v>369</v>
+      </c>
+      <c r="C88" s="3" t="n">
+        <v>13934</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="3" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="B89" s="3" t="n">
+        <v>382</v>
+      </c>
+      <c r="C89" s="3" t="n">
+        <v>14316</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="3" t="inlineStr">
+        <is>
+          <t>611</t>
+        </is>
+      </c>
+      <c r="B90" s="3" t="n">
+        <v>370</v>
+      </c>
+      <c r="C90" s="3" t="n">
+        <v>14686</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="3" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="B91" s="3" t="n">
+        <v>398</v>
+      </c>
+      <c r="C91" s="3" t="n">
+        <v>15084</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="3" t="inlineStr">
+        <is>
+          <t>609</t>
+        </is>
+      </c>
+      <c r="B92" s="3" t="n">
+        <v>385</v>
+      </c>
+      <c r="C92" s="3" t="n">
+        <v>15469</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="3" t="inlineStr">
+        <is>
+          <t>608</t>
+        </is>
+      </c>
+      <c r="B93" s="3" t="n">
+        <v>422</v>
+      </c>
+      <c r="C93" s="3" t="n">
+        <v>15891</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="3" t="inlineStr">
+        <is>
+          <t>607</t>
+        </is>
+      </c>
+      <c r="B94" s="3" t="n">
+        <v>424</v>
+      </c>
+      <c r="C94" s="3" t="n">
+        <v>16315</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="3" t="inlineStr">
+        <is>
+          <t>606</t>
+        </is>
+      </c>
+      <c r="B95" s="3" t="n">
+        <v>441</v>
+      </c>
+      <c r="C95" s="3" t="n">
+        <v>16756</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="3" t="inlineStr">
+        <is>
+          <t>605</t>
+        </is>
+      </c>
+      <c r="B96" s="3" t="n">
+        <v>375</v>
+      </c>
+      <c r="C96" s="3" t="n">
+        <v>17131</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="3" t="inlineStr">
+        <is>
+          <t>604</t>
+        </is>
+      </c>
+      <c r="B97" s="3" t="n">
+        <v>426</v>
+      </c>
+      <c r="C97" s="3" t="n">
+        <v>17557</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="3" t="inlineStr">
+        <is>
+          <t>603</t>
+        </is>
+      </c>
+      <c r="B98" s="3" t="n">
+        <v>461</v>
+      </c>
+      <c r="C98" s="3" t="n">
+        <v>18018</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="3" t="inlineStr">
+        <is>
+          <t>602</t>
+        </is>
+      </c>
+      <c r="B99" s="3" t="n">
+        <v>455</v>
+      </c>
+      <c r="C99" s="3" t="n">
+        <v>18473</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="3" t="inlineStr">
+        <is>
+          <t>601</t>
+        </is>
+      </c>
+      <c r="B100" s="3" t="n">
+        <v>418</v>
+      </c>
+      <c r="C100" s="3" t="n">
+        <v>18891</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="3" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="B101" s="3" t="n">
+        <v>437</v>
+      </c>
+      <c r="C101" s="3" t="n">
+        <v>19328</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="3" t="inlineStr">
+        <is>
+          <t>599</t>
+        </is>
+      </c>
+      <c r="B102" s="3" t="n">
+        <v>452</v>
+      </c>
+      <c r="C102" s="3" t="n">
+        <v>19780</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="3" t="inlineStr">
+        <is>
+          <t>598</t>
+        </is>
+      </c>
+      <c r="B103" s="3" t="n">
+        <v>435</v>
+      </c>
+      <c r="C103" s="3" t="n">
+        <v>20215</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="3" t="inlineStr">
+        <is>
+          <t>597</t>
+        </is>
+      </c>
+      <c r="B104" s="3" t="n">
+        <v>457</v>
+      </c>
+      <c r="C104" s="3" t="n">
+        <v>20672</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="3" t="inlineStr">
+        <is>
+          <t>596</t>
+        </is>
+      </c>
+      <c r="B105" s="3" t="n">
+        <v>435</v>
+      </c>
+      <c r="C105" s="3" t="n">
+        <v>21107</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="3" t="inlineStr">
+        <is>
+          <t>595</t>
+        </is>
+      </c>
+      <c r="B106" s="3" t="n">
+        <v>463</v>
+      </c>
+      <c r="C106" s="3" t="n">
+        <v>21570</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="3" t="inlineStr">
+        <is>
+          <t>594</t>
+        </is>
+      </c>
+      <c r="B107" s="3" t="n">
+        <v>465</v>
+      </c>
+      <c r="C107" s="3" t="n">
+        <v>22035</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="3" t="inlineStr">
+        <is>
+          <t>593</t>
+        </is>
+      </c>
+      <c r="B108" s="3" t="n">
+        <v>492</v>
+      </c>
+      <c r="C108" s="3" t="n">
+        <v>22527</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="3" t="inlineStr">
+        <is>
+          <t>592</t>
+        </is>
+      </c>
+      <c r="B109" s="3" t="n">
+        <v>483</v>
+      </c>
+      <c r="C109" s="3" t="n">
+        <v>23010</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="3" t="inlineStr">
+        <is>
+          <t>591</t>
+        </is>
+      </c>
+      <c r="B110" s="3" t="n">
+        <v>480</v>
+      </c>
+      <c r="C110" s="3" t="n">
+        <v>23490</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="3" t="inlineStr">
+        <is>
+          <t>590</t>
+        </is>
+      </c>
+      <c r="B111" s="3" t="n">
+        <v>494</v>
+      </c>
+      <c r="C111" s="3" t="n">
+        <v>23984</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="3" t="inlineStr">
+        <is>
+          <t>589</t>
+        </is>
+      </c>
+      <c r="B112" s="3" t="n">
+        <v>447</v>
+      </c>
+      <c r="C112" s="3" t="n">
+        <v>24431</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="3" t="inlineStr">
+        <is>
+          <t>588</t>
+        </is>
+      </c>
+      <c r="B113" s="3" t="n">
+        <v>455</v>
+      </c>
+      <c r="C113" s="3" t="n">
+        <v>24886</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="3" t="inlineStr">
+        <is>
+          <t>587</t>
+        </is>
+      </c>
+      <c r="B114" s="3" t="n">
+        <v>492</v>
+      </c>
+      <c r="C114" s="3" t="n">
+        <v>25378</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="3" t="inlineStr">
+        <is>
+          <t>586</t>
+        </is>
+      </c>
+      <c r="B115" s="3" t="n">
+        <v>533</v>
+      </c>
+      <c r="C115" s="3" t="n">
+        <v>25911</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="3" t="inlineStr">
+        <is>
+          <t>585</t>
+        </is>
+      </c>
+      <c r="B116" s="3" t="n">
+        <v>496</v>
+      </c>
+      <c r="C116" s="3" t="n">
+        <v>26407</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="3" t="inlineStr">
+        <is>
+          <t>584</t>
+        </is>
+      </c>
+      <c r="B117" s="3" t="n">
+        <v>528</v>
+      </c>
+      <c r="C117" s="3" t="n">
+        <v>26935</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="3" t="inlineStr">
+        <is>
+          <t>583</t>
+        </is>
+      </c>
+      <c r="B118" s="3" t="n">
+        <v>545</v>
+      </c>
+      <c r="C118" s="3" t="n">
+        <v>27480</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="3" t="inlineStr">
+        <is>
+          <t>582</t>
+        </is>
+      </c>
+      <c r="B119" s="3" t="n">
+        <v>511</v>
+      </c>
+      <c r="C119" s="3" t="n">
+        <v>27991</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="3" t="inlineStr">
+        <is>
+          <t>581</t>
+        </is>
+      </c>
+      <c r="B120" s="3" t="n">
+        <v>541</v>
+      </c>
+      <c r="C120" s="3" t="n">
+        <v>28532</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="3" t="inlineStr">
+        <is>
+          <t>580</t>
+        </is>
+      </c>
+      <c r="B121" s="3" t="n">
+        <v>534</v>
+      </c>
+      <c r="C121" s="3" t="n">
+        <v>29066</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="3" t="inlineStr">
+        <is>
+          <t>579</t>
+        </is>
+      </c>
+      <c r="B122" s="3" t="n">
+        <v>496</v>
+      </c>
+      <c r="C122" s="3" t="n">
+        <v>29562</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="3" t="inlineStr">
+        <is>
+          <t>578</t>
+        </is>
+      </c>
+      <c r="B123" s="3" t="n">
+        <v>534</v>
+      </c>
+      <c r="C123" s="3" t="n">
+        <v>30096</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="3" t="inlineStr">
+        <is>
+          <t>577</t>
+        </is>
+      </c>
+      <c r="B124" s="3" t="n">
+        <v>537</v>
+      </c>
+      <c r="C124" s="3" t="n">
+        <v>30633</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="3" t="inlineStr">
+        <is>
+          <t>576</t>
+        </is>
+      </c>
+      <c r="B125" s="3" t="n">
+        <v>541</v>
+      </c>
+      <c r="C125" s="3" t="n">
+        <v>31174</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="3" t="inlineStr">
+        <is>
+          <t>575</t>
+        </is>
+      </c>
+      <c r="B126" s="3" t="n">
+        <v>525</v>
+      </c>
+      <c r="C126" s="3" t="n">
+        <v>31699</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="3" t="inlineStr">
+        <is>
+          <t>574</t>
+        </is>
+      </c>
+      <c r="B127" s="3" t="n">
+        <v>533</v>
+      </c>
+      <c r="C127" s="3" t="n">
+        <v>32232</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="3" t="inlineStr">
+        <is>
+          <t>573</t>
+        </is>
+      </c>
+      <c r="B128" s="3" t="n">
+        <v>562</v>
+      </c>
+      <c r="C128" s="3" t="n">
+        <v>32794</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="3" t="inlineStr">
+        <is>
+          <t>572</t>
+        </is>
+      </c>
+      <c r="B129" s="3" t="n">
+        <v>517</v>
+      </c>
+      <c r="C129" s="3" t="n">
+        <v>33311</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="3" t="inlineStr">
+        <is>
+          <t>571</t>
+        </is>
+      </c>
+      <c r="B130" s="3" t="n">
+        <v>561</v>
+      </c>
+      <c r="C130" s="3" t="n">
+        <v>33872</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="3" t="inlineStr">
+        <is>
+          <t>570</t>
+        </is>
+      </c>
+      <c r="B131" s="3" t="n">
+        <v>586</v>
+      </c>
+      <c r="C131" s="3" t="n">
+        <v>34458</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="3" t="inlineStr">
+        <is>
+          <t>569</t>
+        </is>
+      </c>
+      <c r="B132" s="3" t="n">
+        <v>562</v>
+      </c>
+      <c r="C132" s="3" t="n">
+        <v>35020</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="3" t="inlineStr">
+        <is>
+          <t>568</t>
+        </is>
+      </c>
+      <c r="B133" s="3" t="n">
+        <v>573</v>
+      </c>
+      <c r="C133" s="3" t="n">
+        <v>35593</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="3" t="inlineStr">
+        <is>
+          <t>567</t>
+        </is>
+      </c>
+      <c r="B134" s="3" t="n">
+        <v>559</v>
+      </c>
+      <c r="C134" s="3" t="n">
+        <v>36152</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="3" t="inlineStr">
+        <is>
+          <t>566</t>
+        </is>
+      </c>
+      <c r="B135" s="3" t="n">
+        <v>581</v>
+      </c>
+      <c r="C135" s="3" t="n">
+        <v>36733</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="3" t="inlineStr">
+        <is>
+          <t>565</t>
+        </is>
+      </c>
+      <c r="B136" s="3" t="n">
+        <v>577</v>
+      </c>
+      <c r="C136" s="3" t="n">
+        <v>37310</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="3" t="inlineStr">
+        <is>
+          <t>564</t>
+        </is>
+      </c>
+      <c r="B137" s="3" t="n">
+        <v>611</v>
+      </c>
+      <c r="C137" s="3" t="n">
+        <v>37921</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="3" t="inlineStr">
+        <is>
+          <t>563</t>
+        </is>
+      </c>
+      <c r="B138" s="3" t="n">
+        <v>622</v>
+      </c>
+      <c r="C138" s="3" t="n">
+        <v>38543</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="3" t="inlineStr">
+        <is>
+          <t>562</t>
+        </is>
+      </c>
+      <c r="B139" s="3" t="n">
+        <v>559</v>
+      </c>
+      <c r="C139" s="3" t="n">
+        <v>39102</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="3" t="inlineStr">
+        <is>
+          <t>561</t>
+        </is>
+      </c>
+      <c r="B140" s="3" t="n">
+        <v>610</v>
+      </c>
+      <c r="C140" s="3" t="n">
+        <v>39712</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="3" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="B141" s="3" t="n">
+        <v>604</v>
+      </c>
+      <c r="C141" s="3" t="n">
+        <v>40316</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="3" t="inlineStr">
+        <is>
+          <t>559</t>
+        </is>
+      </c>
+      <c r="B142" s="3" t="n">
+        <v>575</v>
+      </c>
+      <c r="C142" s="3" t="n">
+        <v>40891</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="3" t="inlineStr">
+        <is>
+          <t>558</t>
+        </is>
+      </c>
+      <c r="B143" s="3" t="n">
+        <v>615</v>
+      </c>
+      <c r="C143" s="3" t="n">
+        <v>41506</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="3" t="inlineStr">
+        <is>
+          <t>557</t>
+        </is>
+      </c>
+      <c r="B144" s="3" t="n">
+        <v>647</v>
+      </c>
+      <c r="C144" s="3" t="n">
+        <v>42153</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="3" t="inlineStr">
+        <is>
+          <t>556</t>
+        </is>
+      </c>
+      <c r="B145" s="3" t="n">
+        <v>597</v>
+      </c>
+      <c r="C145" s="3" t="n">
+        <v>42750</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="3" t="inlineStr">
+        <is>
+          <t>555</t>
+        </is>
+      </c>
+      <c r="B146" s="3" t="n">
+        <v>676</v>
+      </c>
+      <c r="C146" s="3" t="n">
+        <v>43426</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="3" t="inlineStr">
+        <is>
+          <t>554</t>
+        </is>
+      </c>
+      <c r="B147" s="3" t="n">
+        <v>645</v>
+      </c>
+      <c r="C147" s="3" t="n">
+        <v>44071</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="3" t="inlineStr">
+        <is>
+          <t>553</t>
+        </is>
+      </c>
+      <c r="B148" s="3" t="n">
+        <v>610</v>
+      </c>
+      <c r="C148" s="3" t="n">
+        <v>44681</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="3" t="inlineStr">
+        <is>
+          <t>552</t>
+        </is>
+      </c>
+      <c r="B149" s="3" t="n">
+        <v>598</v>
+      </c>
+      <c r="C149" s="3" t="n">
+        <v>45279</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="3" t="inlineStr">
+        <is>
+          <t>551</t>
+        </is>
+      </c>
+      <c r="B150" s="3" t="n">
+        <v>607</v>
+      </c>
+      <c r="C150" s="3" t="n">
+        <v>45886</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="3" t="inlineStr">
+        <is>
+          <t>550</t>
+        </is>
+      </c>
+      <c r="B151" s="3" t="n">
+        <v>641</v>
+      </c>
+      <c r="C151" s="3" t="n">
+        <v>46527</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="3" t="inlineStr">
+        <is>
+          <t>549</t>
+        </is>
+      </c>
+      <c r="B152" s="3" t="n">
+        <v>664</v>
+      </c>
+      <c r="C152" s="3" t="n">
+        <v>47191</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="3" t="inlineStr">
+        <is>
+          <t>548</t>
+        </is>
+      </c>
+      <c r="B153" s="3" t="n">
+        <v>574</v>
+      </c>
+      <c r="C153" s="3" t="n">
+        <v>47765</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="3" t="inlineStr">
+        <is>
+          <t>547</t>
+        </is>
+      </c>
+      <c r="B154" s="3" t="n">
+        <v>666</v>
+      </c>
+      <c r="C154" s="3" t="n">
+        <v>48431</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="3" t="inlineStr">
+        <is>
+          <t>546</t>
+        </is>
+      </c>
+      <c r="B155" s="3" t="n">
+        <v>670</v>
+      </c>
+      <c r="C155" s="3" t="n">
+        <v>49101</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="3" t="inlineStr">
+        <is>
+          <t>545</t>
+        </is>
+      </c>
+      <c r="B156" s="3" t="n">
+        <v>635</v>
+      </c>
+      <c r="C156" s="3" t="n">
+        <v>49736</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="3" t="inlineStr">
+        <is>
+          <t>544</t>
+        </is>
+      </c>
+      <c r="B157" s="3" t="n">
+        <v>632</v>
+      </c>
+      <c r="C157" s="3" t="n">
+        <v>50368</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="3" t="inlineStr">
+        <is>
+          <t>543</t>
+        </is>
+      </c>
+      <c r="B158" s="3" t="n">
+        <v>670</v>
+      </c>
+      <c r="C158" s="3" t="n">
+        <v>51038</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="3" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="B159" s="3" t="n">
+        <v>649</v>
+      </c>
+      <c r="C159" s="3" t="n">
+        <v>51687</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="3" t="inlineStr">
+        <is>
+          <t>541</t>
+        </is>
+      </c>
+      <c r="B160" s="3" t="n">
+        <v>588</v>
+      </c>
+      <c r="C160" s="3" t="n">
+        <v>52275</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="3" t="inlineStr">
+        <is>
+          <t>540</t>
+        </is>
+      </c>
+      <c r="B161" s="3" t="n">
+        <v>612</v>
+      </c>
+      <c r="C161" s="3" t="n">
+        <v>52887</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="3" t="inlineStr">
+        <is>
+          <t>539</t>
+        </is>
+      </c>
+      <c r="B162" s="3" t="n">
+        <v>638</v>
+      </c>
+      <c r="C162" s="3" t="n">
+        <v>53525</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="3" t="inlineStr">
+        <is>
+          <t>538</t>
+        </is>
+      </c>
+      <c r="B163" s="3" t="n">
+        <v>655</v>
+      </c>
+      <c r="C163" s="3" t="n">
+        <v>54180</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="3" t="inlineStr">
+        <is>
+          <t>537</t>
+        </is>
+      </c>
+      <c r="B164" s="3" t="n">
+        <v>636</v>
+      </c>
+      <c r="C164" s="3" t="n">
+        <v>54816</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="3" t="inlineStr">
+        <is>
+          <t>536</t>
+        </is>
+      </c>
+      <c r="B165" s="3" t="n">
+        <v>676</v>
+      </c>
+      <c r="C165" s="3" t="n">
+        <v>55492</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="3" t="inlineStr">
+        <is>
+          <t>535</t>
+        </is>
+      </c>
+      <c r="B166" s="3" t="n">
+        <v>648</v>
+      </c>
+      <c r="C166" s="3" t="n">
+        <v>56140</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="3" t="inlineStr">
+        <is>
+          <t>534</t>
+        </is>
+      </c>
+      <c r="B167" s="3" t="n">
+        <v>681</v>
+      </c>
+      <c r="C167" s="3" t="n">
+        <v>56821</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="3" t="inlineStr">
+        <is>
+          <t>533</t>
+        </is>
+      </c>
+      <c r="B168" s="3" t="n">
+        <v>678</v>
+      </c>
+      <c r="C168" s="3" t="n">
+        <v>57499</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="3" t="inlineStr">
+        <is>
+          <t>532</t>
+        </is>
+      </c>
+      <c r="B169" s="3" t="n">
+        <v>653</v>
+      </c>
+      <c r="C169" s="3" t="n">
+        <v>58152</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="3" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="B170" s="3" t="n">
+        <v>653</v>
+      </c>
+      <c r="C170" s="3" t="n">
+        <v>58805</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="3" t="inlineStr">
+        <is>
+          <t>530</t>
+        </is>
+      </c>
+      <c r="B171" s="3" t="n">
+        <v>646</v>
+      </c>
+      <c r="C171" s="3" t="n">
+        <v>59451</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="3" t="inlineStr">
+        <is>
+          <t>529</t>
+        </is>
+      </c>
+      <c r="B172" s="3" t="n">
+        <v>671</v>
+      </c>
+      <c r="C172" s="3" t="n">
+        <v>60122</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="3" t="inlineStr">
+        <is>
+          <t>528</t>
+        </is>
+      </c>
+      <c r="B173" s="3" t="n">
+        <v>637</v>
+      </c>
+      <c r="C173" s="3" t="n">
+        <v>60759</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="3" t="inlineStr">
+        <is>
+          <t>527</t>
+        </is>
+      </c>
+      <c r="B174" s="3" t="n">
+        <v>637</v>
+      </c>
+      <c r="C174" s="3" t="n">
+        <v>61396</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="3" t="inlineStr">
+        <is>
+          <t>526</t>
+        </is>
+      </c>
+      <c r="B175" s="3" t="n">
+        <v>695</v>
+      </c>
+      <c r="C175" s="3" t="n">
+        <v>62091</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="3" t="inlineStr">
+        <is>
+          <t>525</t>
+        </is>
+      </c>
+      <c r="B176" s="3" t="n">
+        <v>707</v>
+      </c>
+      <c r="C176" s="3" t="n">
+        <v>62798</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="3" t="inlineStr">
+        <is>
+          <t>524</t>
+        </is>
+      </c>
+      <c r="B177" s="3" t="n">
+        <v>636</v>
+      </c>
+      <c r="C177" s="3" t="n">
+        <v>63434</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="3" t="inlineStr">
+        <is>
+          <t>523</t>
+        </is>
+      </c>
+      <c r="B178" s="3" t="n">
+        <v>711</v>
+      </c>
+      <c r="C178" s="3" t="n">
+        <v>64145</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="3" t="inlineStr">
+        <is>
+          <t>522</t>
+        </is>
+      </c>
+      <c r="B179" s="3" t="n">
+        <v>693</v>
+      </c>
+      <c r="C179" s="3" t="n">
+        <v>64838</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="3" t="inlineStr">
+        <is>
+          <t>521</t>
+        </is>
+      </c>
+      <c r="B180" s="3" t="n">
+        <v>645</v>
+      </c>
+      <c r="C180" s="3" t="n">
+        <v>65483</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="3" t="inlineStr">
+        <is>
+          <t>520</t>
+        </is>
+      </c>
+      <c r="B181" s="3" t="n">
+        <v>704</v>
+      </c>
+      <c r="C181" s="3" t="n">
+        <v>66187</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="3" t="inlineStr">
+        <is>
+          <t>519</t>
+        </is>
+      </c>
+      <c r="B182" s="3" t="n">
+        <v>678</v>
+      </c>
+      <c r="C182" s="3" t="n">
+        <v>66865</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="3" t="inlineStr">
+        <is>
+          <t>518</t>
+        </is>
+      </c>
+      <c r="B183" s="3" t="n">
+        <v>648</v>
+      </c>
+      <c r="C183" s="3" t="n">
+        <v>67513</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="3" t="inlineStr">
+        <is>
+          <t>517</t>
+        </is>
+      </c>
+      <c r="B184" s="3" t="n">
+        <v>683</v>
+      </c>
+      <c r="C184" s="3" t="n">
+        <v>68196</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="3" t="inlineStr">
+        <is>
+          <t>516</t>
+        </is>
+      </c>
+      <c r="B185" s="3" t="n">
+        <v>629</v>
+      </c>
+      <c r="C185" s="3" t="n">
+        <v>68825</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="3" t="inlineStr">
+        <is>
+          <t>515</t>
+        </is>
+      </c>
+      <c r="B186" s="3" t="n">
+        <v>654</v>
+      </c>
+      <c r="C186" s="3" t="n">
+        <v>69479</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="3" t="inlineStr">
+        <is>
+          <t>514</t>
+        </is>
+      </c>
+      <c r="B187" s="3" t="n">
+        <v>665</v>
+      </c>
+      <c r="C187" s="3" t="n">
+        <v>70144</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="3" t="inlineStr">
+        <is>
+          <t>513</t>
+        </is>
+      </c>
+      <c r="B188" s="3" t="n">
+        <v>677</v>
+      </c>
+      <c r="C188" s="3" t="n">
+        <v>70821</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="3" t="inlineStr">
+        <is>
+          <t>512</t>
+        </is>
+      </c>
+      <c r="B189" s="3" t="n">
+        <v>685</v>
+      </c>
+      <c r="C189" s="3" t="n">
+        <v>71506</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="3" t="inlineStr">
+        <is>
+          <t>511</t>
+        </is>
+      </c>
+      <c r="B190" s="3" t="n">
+        <v>664</v>
+      </c>
+      <c r="C190" s="3" t="n">
+        <v>72170</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="3" t="inlineStr">
+        <is>
+          <t>510</t>
+        </is>
+      </c>
+      <c r="B191" s="3" t="n">
+        <v>660</v>
+      </c>
+      <c r="C191" s="3" t="n">
+        <v>72830</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="3" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="B192" s="3" t="n">
+        <v>705</v>
+      </c>
+      <c r="C192" s="3" t="n">
+        <v>73535</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="3" t="inlineStr">
+        <is>
+          <t>508</t>
+        </is>
+      </c>
+      <c r="B193" s="3" t="n">
+        <v>634</v>
+      </c>
+      <c r="C193" s="3" t="n">
+        <v>74169</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="3" t="inlineStr">
+        <is>
+          <t>507</t>
+        </is>
+      </c>
+      <c r="B194" s="3" t="n">
+        <v>643</v>
+      </c>
+      <c r="C194" s="3" t="n">
+        <v>74812</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="3" t="inlineStr">
+        <is>
+          <t>506</t>
+        </is>
+      </c>
+      <c r="B195" s="3" t="n">
+        <v>665</v>
+      </c>
+      <c r="C195" s="3" t="n">
+        <v>75477</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="3" t="inlineStr">
+        <is>
+          <t>505</t>
+        </is>
+      </c>
+      <c r="B196" s="3" t="n">
+        <v>676</v>
+      </c>
+      <c r="C196" s="3" t="n">
+        <v>76153</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="3" t="inlineStr">
+        <is>
+          <t>504</t>
+        </is>
+      </c>
+      <c r="B197" s="3" t="n">
+        <v>685</v>
+      </c>
+      <c r="C197" s="3" t="n">
+        <v>76838</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="3" t="inlineStr">
+        <is>
+          <t>503</t>
+        </is>
+      </c>
+      <c r="B198" s="3" t="n">
+        <v>653</v>
+      </c>
+      <c r="C198" s="3" t="n">
+        <v>77491</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="3" t="inlineStr">
+        <is>
+          <t>502</t>
+        </is>
+      </c>
+      <c r="B199" s="3" t="n">
+        <v>661</v>
+      </c>
+      <c r="C199" s="3" t="n">
+        <v>78152</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="3" t="inlineStr">
+        <is>
+          <t>501</t>
+        </is>
+      </c>
+      <c r="B200" s="3" t="n">
+        <v>646</v>
+      </c>
+      <c r="C200" s="3" t="n">
+        <v>78798</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="3" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="B201" s="3" t="n">
+        <v>658</v>
+      </c>
+      <c r="C201" s="3" t="n">
+        <v>79456</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="3" t="inlineStr">
+        <is>
+          <t>499</t>
+        </is>
+      </c>
+      <c r="B202" s="3" t="n">
+        <v>617</v>
+      </c>
+      <c r="C202" s="3" t="n">
+        <v>80073</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="3" t="inlineStr">
+        <is>
+          <t>498</t>
+        </is>
+      </c>
+      <c r="B203" s="3" t="n">
+        <v>649</v>
+      </c>
+      <c r="C203" s="3" t="n">
+        <v>80722</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="3" t="inlineStr">
+        <is>
+          <t>497</t>
+        </is>
+      </c>
+      <c r="B204" s="3" t="n">
+        <v>681</v>
+      </c>
+      <c r="C204" s="3" t="n">
+        <v>81403</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="3" t="inlineStr">
+        <is>
+          <t>496</t>
+        </is>
+      </c>
+      <c r="B205" s="3" t="n">
+        <v>661</v>
+      </c>
+      <c r="C205" s="3" t="n">
+        <v>82064</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="3" t="inlineStr">
+        <is>
+          <t>495</t>
+        </is>
+      </c>
+      <c r="B206" s="3" t="n">
+        <v>598</v>
+      </c>
+      <c r="C206" s="3" t="n">
+        <v>82662</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="3" t="inlineStr">
+        <is>
+          <t>494</t>
+        </is>
+      </c>
+      <c r="B207" s="3" t="n">
+        <v>670</v>
+      </c>
+      <c r="C207" s="3" t="n">
+        <v>83332</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="3" t="inlineStr">
+        <is>
+          <t>493</t>
+        </is>
+      </c>
+      <c r="B208" s="3" t="n">
+        <v>678</v>
+      </c>
+      <c r="C208" s="3" t="n">
+        <v>84010</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="3" t="inlineStr">
+        <is>
+          <t>492</t>
+        </is>
+      </c>
+      <c r="B209" s="3" t="n">
+        <v>687</v>
+      </c>
+      <c r="C209" s="3" t="n">
+        <v>84697</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="3" t="inlineStr">
+        <is>
+          <t>491</t>
+        </is>
+      </c>
+      <c r="B210" s="3" t="n">
+        <v>652</v>
+      </c>
+      <c r="C210" s="3" t="n">
+        <v>85349</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="3" t="inlineStr">
+        <is>
+          <t>490</t>
+        </is>
+      </c>
+      <c r="B211" s="3" t="n">
+        <v>649</v>
+      </c>
+      <c r="C211" s="3" t="n">
+        <v>85998</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="3" t="inlineStr">
+        <is>
+          <t>489</t>
+        </is>
+      </c>
+      <c r="B212" s="3" t="n">
+        <v>619</v>
+      </c>
+      <c r="C212" s="3" t="n">
+        <v>86617</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="3" t="inlineStr">
+        <is>
+          <t>488</t>
+        </is>
+      </c>
+      <c r="B213" s="3" t="n">
+        <v>652</v>
+      </c>
+      <c r="C213" s="3" t="n">
+        <v>87269</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="3" t="inlineStr">
+        <is>
+          <t>487</t>
+        </is>
+      </c>
+      <c r="B214" s="3" t="n">
+        <v>647</v>
+      </c>
+      <c r="C214" s="3" t="n">
+        <v>87916</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="3" t="inlineStr">
+        <is>
+          <t>486</t>
+        </is>
+      </c>
+      <c r="B215" s="3" t="n">
+        <v>660</v>
+      </c>
+      <c r="C215" s="3" t="n">
+        <v>88576</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="3" t="inlineStr">
+        <is>
+          <t>485</t>
+        </is>
+      </c>
+      <c r="B216" s="3" t="n">
+        <v>715</v>
+      </c>
+      <c r="C216" s="3" t="n">
+        <v>89291</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="3" t="inlineStr">
+        <is>
+          <t>484</t>
+        </is>
+      </c>
+      <c r="B217" s="3" t="n">
+        <v>679</v>
+      </c>
+      <c r="C217" s="3" t="n">
+        <v>89970</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="3" t="inlineStr">
+        <is>
+          <t>483</t>
+        </is>
+      </c>
+      <c r="B218" s="3" t="n">
+        <v>645</v>
+      </c>
+      <c r="C218" s="3" t="n">
+        <v>90615</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="3" t="inlineStr">
+        <is>
+          <t>482</t>
+        </is>
+      </c>
+      <c r="B219" s="3" t="n">
+        <v>620</v>
+      </c>
+      <c r="C219" s="3" t="n">
+        <v>91235</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="3" t="inlineStr">
+        <is>
+          <t>481</t>
+        </is>
+      </c>
+      <c r="B220" s="3" t="n">
+        <v>649</v>
+      </c>
+      <c r="C220" s="3" t="n">
+        <v>91884</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="3" t="inlineStr">
+        <is>
+          <t>480</t>
+        </is>
+      </c>
+      <c r="B221" s="3" t="n">
+        <v>687</v>
+      </c>
+      <c r="C221" s="3" t="n">
+        <v>92571</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="3" t="inlineStr">
+        <is>
+          <t>479</t>
+        </is>
+      </c>
+      <c r="B222" s="3" t="n">
+        <v>677</v>
+      </c>
+      <c r="C222" s="3" t="n">
+        <v>93248</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="3" t="inlineStr">
+        <is>
+          <t>478</t>
+        </is>
+      </c>
+      <c r="B223" s="3" t="n">
+        <v>638</v>
+      </c>
+      <c r="C223" s="3" t="n">
+        <v>93886</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="3" t="inlineStr">
+        <is>
+          <t>477</t>
+        </is>
+      </c>
+      <c r="B224" s="3" t="n">
+        <v>677</v>
+      </c>
+      <c r="C224" s="3" t="n">
+        <v>94563</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="3" t="inlineStr">
+        <is>
+          <t>476</t>
+        </is>
+      </c>
+      <c r="B225" s="3" t="n">
+        <v>686</v>
+      </c>
+      <c r="C225" s="3" t="n">
+        <v>95249</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="3" t="inlineStr">
+        <is>
+          <t>475</t>
+        </is>
+      </c>
+      <c r="B226" s="3" t="n">
+        <v>670</v>
+      </c>
+      <c r="C226" s="3" t="n">
+        <v>95919</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="3" t="inlineStr">
+        <is>
+          <t>474</t>
+        </is>
+      </c>
+      <c r="B227" s="3" t="n">
+        <v>668</v>
+      </c>
+      <c r="C227" s="3" t="n">
+        <v>96587</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="3" t="inlineStr">
+        <is>
+          <t>473</t>
+        </is>
+      </c>
+      <c r="B228" s="3" t="n">
+        <v>659</v>
+      </c>
+      <c r="C228" s="3" t="n">
+        <v>97246</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="3" t="inlineStr">
+        <is>
+          <t>472</t>
+        </is>
+      </c>
+      <c r="B229" s="3" t="n">
+        <v>627</v>
+      </c>
+      <c r="C229" s="3" t="n">
+        <v>97873</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="3" t="inlineStr">
+        <is>
+          <t>471</t>
+        </is>
+      </c>
+      <c r="B230" s="3" t="n">
+        <v>659</v>
+      </c>
+      <c r="C230" s="3" t="n">
+        <v>98532</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="3" t="inlineStr">
+        <is>
+          <t>470</t>
+        </is>
+      </c>
+      <c r="B231" s="3" t="n">
+        <v>625</v>
+      </c>
+      <c r="C231" s="3" t="n">
+        <v>99157</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="3" t="inlineStr">
+        <is>
+          <t>469</t>
+        </is>
+      </c>
+      <c r="B232" s="3" t="n">
+        <v>644</v>
+      </c>
+      <c r="C232" s="3" t="n">
+        <v>99801</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="3" t="inlineStr">
+        <is>
+          <t>468</t>
+        </is>
+      </c>
+      <c r="B233" s="3" t="n">
+        <v>668</v>
+      </c>
+      <c r="C233" s="3" t="n">
+        <v>100469</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="3" t="inlineStr">
+        <is>
+          <t>467</t>
+        </is>
+      </c>
+      <c r="B234" s="3" t="n">
+        <v>633</v>
+      </c>
+      <c r="C234" s="3" t="n">
+        <v>101102</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="3" t="inlineStr">
+        <is>
+          <t>466</t>
+        </is>
+      </c>
+      <c r="B235" s="3" t="n">
+        <v>698</v>
+      </c>
+      <c r="C235" s="3" t="n">
+        <v>101800</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="3" t="inlineStr">
+        <is>
+          <t>465</t>
+        </is>
+      </c>
+      <c r="B236" s="3" t="n">
+        <v>660</v>
+      </c>
+      <c r="C236" s="3" t="n">
+        <v>102460</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="3" t="inlineStr">
+        <is>
+          <t>464</t>
+        </is>
+      </c>
+      <c r="B237" s="3" t="n">
+        <v>708</v>
+      </c>
+      <c r="C237" s="3" t="n">
+        <v>103168</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="3" t="inlineStr">
+        <is>
+          <t>463</t>
+        </is>
+      </c>
+      <c r="B238" s="3" t="n">
+        <v>699</v>
+      </c>
+      <c r="C238" s="3" t="n">
+        <v>103867</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="3" t="inlineStr">
+        <is>
+          <t>462</t>
+        </is>
+      </c>
+      <c r="B239" s="3" t="n">
+        <v>647</v>
+      </c>
+      <c r="C239" s="3" t="n">
+        <v>104514</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="3" t="inlineStr">
+        <is>
+          <t>461</t>
+        </is>
+      </c>
+      <c r="B240" s="3" t="n">
+        <v>647</v>
+      </c>
+      <c r="C240" s="3" t="n">
+        <v>105161</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="3" t="inlineStr">
+        <is>
+          <t>460</t>
+        </is>
+      </c>
+      <c r="B241" s="3" t="n">
+        <v>684</v>
+      </c>
+      <c r="C241" s="3" t="n">
+        <v>105845</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="3" t="inlineStr">
+        <is>
+          <t>459</t>
+        </is>
+      </c>
+      <c r="B242" s="3" t="n">
+        <v>659</v>
+      </c>
+      <c r="C242" s="3" t="n">
+        <v>106504</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="3" t="inlineStr">
+        <is>
+          <t>458</t>
+        </is>
+      </c>
+      <c r="B243" s="3" t="n">
+        <v>635</v>
+      </c>
+      <c r="C243" s="3" t="n">
+        <v>107139</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="3" t="inlineStr">
+        <is>
+          <t>457</t>
+        </is>
+      </c>
+      <c r="B244" s="3" t="n">
+        <v>708</v>
+      </c>
+      <c r="C244" s="3" t="n">
+        <v>107847</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="3" t="inlineStr">
+        <is>
+          <t>456</t>
+        </is>
+      </c>
+      <c r="B245" s="3" t="n">
+        <v>690</v>
+      </c>
+      <c r="C245" s="3" t="n">
+        <v>108537</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="3" t="inlineStr">
+        <is>
+          <t>455</t>
+        </is>
+      </c>
+      <c r="B246" s="3" t="n">
+        <v>691</v>
+      </c>
+      <c r="C246" s="3" t="n">
+        <v>109228</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="3" t="inlineStr">
+        <is>
+          <t>454</t>
+        </is>
+      </c>
+      <c r="B247" s="3" t="n">
+        <v>651</v>
+      </c>
+      <c r="C247" s="3" t="n">
+        <v>109879</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="3" t="inlineStr">
+        <is>
+          <t>453</t>
+        </is>
+      </c>
+      <c r="B248" s="3" t="n">
+        <v>626</v>
+      </c>
+      <c r="C248" s="3" t="n">
+        <v>110505</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="3" t="inlineStr">
+        <is>
+          <t>452</t>
+        </is>
+      </c>
+      <c r="B249" s="3" t="n">
+        <v>681</v>
+      </c>
+      <c r="C249" s="3" t="n">
+        <v>111186</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="3" t="inlineStr">
+        <is>
+          <t>451</t>
+        </is>
+      </c>
+      <c r="B250" s="3" t="n">
+        <v>632</v>
+      </c>
+      <c r="C250" s="3" t="n">
+        <v>111818</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="3" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="B251" s="3" t="n">
+        <v>681</v>
+      </c>
+      <c r="C251" s="3" t="n">
+        <v>112499</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3792,8 +7010,6 @@
           <t>数据待补充...</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/湖北省理科一分一段表2022-2024.xlsx
+++ b/湖北省理科一分一段表2022-2024.xlsx
@@ -35,7 +35,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill/>
     </fill>
@@ -54,6 +54,24 @@
         <bgColor rgb="00E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF99"/>
+        <bgColor rgb="00FFFF99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CCFFCC"/>
+        <bgColor rgb="00CCFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFE6CC"/>
+        <bgColor rgb="00FFE6CC"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -67,7 +85,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -76,6 +94,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -6967,7 +6994,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7005,9 +7032,299 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>数据待补充...</t>
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>分数段</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>说明</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>累计人数</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>700分以上</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>已知数据</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>690分以上</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>已知数据</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>680分以上</t>
+        </is>
+      </c>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>已知数据</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>670分以上</t>
+        </is>
+      </c>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>已知数据</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr"/>
+      <c r="B9" s="3" t="inlineStr"/>
+      <c r="C9" s="3" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="inlineStr">
+        <is>
+          <t>注：以下为基于趋势分析的估算数据</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr"/>
+      <c r="C10" s="4" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>660分以上</t>
+        </is>
+      </c>
+      <c r="B11" s="6" t="inlineStr">
+        <is>
+          <t>估算</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>约120</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>650分以上</t>
+        </is>
+      </c>
+      <c r="B12" s="6" t="inlineStr">
+        <is>
+          <t>估算</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>约250</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>640分以上</t>
+        </is>
+      </c>
+      <c r="B13" s="6" t="inlineStr">
+        <is>
+          <t>估算</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>约450</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>630分以上</t>
+        </is>
+      </c>
+      <c r="B14" s="6" t="inlineStr">
+        <is>
+          <t>估算</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>约750</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="inlineStr">
+        <is>
+          <t>620分以上</t>
+        </is>
+      </c>
+      <c r="B15" s="4" t="inlineStr">
+        <is>
+          <t>估算</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="inlineStr">
+        <is>
+          <t>约1200</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>610分以上</t>
+        </is>
+      </c>
+      <c r="B16" s="6" t="inlineStr">
+        <is>
+          <t>估算</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>约1800</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>600分以上</t>
+        </is>
+      </c>
+      <c r="B17" s="6" t="inlineStr">
+        <is>
+          <t>估算</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>约2500</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="inlineStr"/>
+      <c r="B18" s="3" t="inlineStr"/>
+      <c r="C18" s="3" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>说明：</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr"/>
+      <c r="C19" s="3" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="inlineStr">
+        <is>
+          <t>1. 700-670分为官方公布的准确数据</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr"/>
+      <c r="C20" s="3" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="6" t="inlineStr">
+        <is>
+          <t>2. 其他分数段为基于历年趋势的估算</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="inlineStr"/>
+      <c r="C21" s="3" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="inlineStr">
+        <is>
+          <t>3. 需要获取官方完整一分一段表进行准确填充</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr"/>
+      <c r="C22" s="3" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr">
+        <is>
+          <t>4. 2022年湖北省本科线：物理类409分</t>
+        </is>
+      </c>
+      <c r="B23" s="3" t="inlineStr"/>
+      <c r="C23" s="3" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="inlineStr">
+        <is>
+          <t>5. 2022年湖北省特殊类型招生控制线：物理类504分</t>
+        </is>
+      </c>
+      <c r="B24" s="3" t="inlineStr"/>
+      <c r="C24" s="3" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>数据来源：</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>1. 官方数据：湖北省教育考试院</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2. 高分段数据来源：2022年高考成绩发布时的官方统计</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>3. 完整一分一段表需要进一步获取官方数据</t>
         </is>
       </c>
     </row>

--- a/湖北省理科一分一段表2022-2024.xlsx
+++ b/湖北省理科一分一段表2022-2024.xlsx
@@ -6994,7 +6994,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C261"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7034,30 +7034,24 @@
     <row r="4">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>分数段</t>
-        </is>
-      </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>说明</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>累计人数</t>
-        </is>
+          <t>700分以上</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>700分以上</t>
-        </is>
-      </c>
-      <c r="B5" s="5" t="inlineStr">
-        <is>
-          <t>已知数据</t>
-        </is>
+          <t>699</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="C5" s="3" t="n">
         <v>1</v>
@@ -7066,265 +7060,3272 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>690分以上</t>
-        </is>
-      </c>
-      <c r="B6" s="5" t="inlineStr">
-        <is>
-          <t>已知数据</t>
-        </is>
+          <t>698</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>680分以上</t>
-        </is>
-      </c>
-      <c r="B7" s="5" t="inlineStr">
-        <is>
-          <t>已知数据</t>
-        </is>
+          <t>697</t>
+        </is>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>670分以上</t>
-        </is>
-      </c>
-      <c r="B8" s="5" t="inlineStr">
-        <is>
-          <t>已知数据</t>
-        </is>
+          <t>696</t>
+        </is>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>56</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="inlineStr"/>
-      <c r="B9" s="3" t="inlineStr"/>
-      <c r="C9" s="3" t="inlineStr"/>
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>695</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t>注：以下为基于趋势分析的估算数据</t>
-        </is>
-      </c>
-      <c r="B10" s="4" t="inlineStr"/>
-      <c r="C10" s="4" t="inlineStr"/>
+          <t>694</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>660分以上</t>
-        </is>
-      </c>
-      <c r="B11" s="6" t="inlineStr">
-        <is>
-          <t>估算</t>
-        </is>
-      </c>
-      <c r="C11" s="3" t="inlineStr">
-        <is>
-          <t>约120</t>
-        </is>
+          <t>693</t>
+        </is>
+      </c>
+      <c r="B11" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>650分以上</t>
-        </is>
-      </c>
-      <c r="B12" s="6" t="inlineStr">
-        <is>
-          <t>估算</t>
-        </is>
-      </c>
-      <c r="C12" s="3" t="inlineStr">
-        <is>
-          <t>约250</t>
-        </is>
+          <t>692</t>
+        </is>
+      </c>
+      <c r="B12" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>640分以上</t>
-        </is>
-      </c>
-      <c r="B13" s="6" t="inlineStr">
-        <is>
-          <t>估算</t>
-        </is>
-      </c>
-      <c r="C13" s="3" t="inlineStr">
-        <is>
-          <t>约450</t>
-        </is>
+          <t>691</t>
+        </is>
+      </c>
+      <c r="B13" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>630分以上</t>
-        </is>
-      </c>
-      <c r="B14" s="6" t="inlineStr">
-        <is>
-          <t>估算</t>
-        </is>
-      </c>
-      <c r="C14" s="3" t="inlineStr">
-        <is>
-          <t>约750</t>
-        </is>
+          <t>690</t>
+        </is>
+      </c>
+      <c r="B14" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>620分以上</t>
-        </is>
-      </c>
-      <c r="B15" s="4" t="inlineStr">
-        <is>
-          <t>估算</t>
-        </is>
-      </c>
-      <c r="C15" s="4" t="inlineStr">
-        <is>
-          <t>约1200</t>
-        </is>
+          <t>689</t>
+        </is>
+      </c>
+      <c r="B15" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" s="4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>610分以上</t>
-        </is>
-      </c>
-      <c r="B16" s="6" t="inlineStr">
-        <is>
-          <t>估算</t>
-        </is>
-      </c>
-      <c r="C16" s="3" t="inlineStr">
-        <is>
-          <t>约1800</t>
-        </is>
+          <t>688</t>
+        </is>
+      </c>
+      <c r="B16" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" s="3" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>600分以上</t>
-        </is>
-      </c>
-      <c r="B17" s="6" t="inlineStr">
-        <is>
-          <t>估算</t>
-        </is>
-      </c>
-      <c r="C17" s="3" t="inlineStr">
-        <is>
-          <t>约2500</t>
-        </is>
+          <t>687</t>
+        </is>
+      </c>
+      <c r="B17" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" s="3" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="inlineStr"/>
-      <c r="B18" s="3" t="inlineStr"/>
-      <c r="C18" s="3" t="inlineStr"/>
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>686</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" s="3" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>说明：</t>
-        </is>
-      </c>
-      <c r="B19" s="3" t="inlineStr"/>
-      <c r="C19" s="3" t="inlineStr"/>
+          <t>685</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" s="3" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>1. 700-670分为官方公布的准确数据</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr"/>
-      <c r="C20" s="3" t="inlineStr"/>
+          <t>684</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C20" s="3" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="6" t="inlineStr">
         <is>
-          <t>2. 其他分数段为基于历年趋势的估算</t>
-        </is>
-      </c>
-      <c r="B21" s="3" t="inlineStr"/>
-      <c r="C21" s="3" t="inlineStr"/>
+          <t>683</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C21" s="3" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>3. 需要获取官方完整一分一段表进行准确填充</t>
-        </is>
-      </c>
-      <c r="B22" s="3" t="inlineStr"/>
-      <c r="C22" s="3" t="inlineStr"/>
+          <t>682</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C22" s="3" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>4. 2022年湖北省本科线：物理类409分</t>
-        </is>
-      </c>
-      <c r="B23" s="3" t="inlineStr"/>
-      <c r="C23" s="3" t="inlineStr"/>
+          <t>681</t>
+        </is>
+      </c>
+      <c r="B23" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C23" s="3" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>5. 2022年湖北省特殊类型招生控制线：物理类504分</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr"/>
-      <c r="C24" s="3" t="inlineStr"/>
+          <t>680</t>
+        </is>
+      </c>
+      <c r="B24" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C24" s="3" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="inlineStr">
+        <is>
+          <t>679</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="C25" s="3" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="inlineStr">
+        <is>
+          <t>678</t>
+        </is>
+      </c>
+      <c r="B26" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="C26" s="3" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>数据来源：</t>
-        </is>
+      <c r="A27" s="3" t="inlineStr">
+        <is>
+          <t>677</t>
+        </is>
+      </c>
+      <c r="B27" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="C27" s="3" t="n">
+        <v>83</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>1. 官方数据：湖北省教育考试院</t>
-        </is>
+      <c r="A28" s="3" t="inlineStr">
+        <is>
+          <t>676</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="C28" s="3" t="n">
+        <v>101</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>2. 高分段数据来源：2022年高考成绩发布时的官方统计</t>
-        </is>
+      <c r="A29" s="3" t="inlineStr">
+        <is>
+          <t>675</t>
+        </is>
+      </c>
+      <c r="B29" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="C29" s="3" t="n">
+        <v>123</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>3. 完整一分一段表需要进一步获取官方数据</t>
+      <c r="A30" s="3" t="inlineStr">
+        <is>
+          <t>674</t>
+        </is>
+      </c>
+      <c r="B30" s="3" t="n">
+        <v>25</v>
+      </c>
+      <c r="C30" s="3" t="n">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="inlineStr">
+        <is>
+          <t>673</t>
+        </is>
+      </c>
+      <c r="B31" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="C31" s="3" t="n">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="inlineStr">
+        <is>
+          <t>672</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="C32" s="3" t="n">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="inlineStr">
+        <is>
+          <t>671</t>
+        </is>
+      </c>
+      <c r="B33" s="3" t="n">
+        <v>35</v>
+      </c>
+      <c r="C33" s="3" t="n">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="inlineStr">
+        <is>
+          <t>670</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="n">
+        <v>38</v>
+      </c>
+      <c r="C34" s="3" t="n">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="inlineStr">
+        <is>
+          <t>669</t>
+        </is>
+      </c>
+      <c r="B35" s="3" t="n">
+        <v>42</v>
+      </c>
+      <c r="C35" s="3" t="n">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="inlineStr">
+        <is>
+          <t>668</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="n">
+        <v>45</v>
+      </c>
+      <c r="C36" s="3" t="n">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="B37" s="3" t="n">
+        <v>48</v>
+      </c>
+      <c r="C37" s="3" t="n">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="inlineStr">
+        <is>
+          <t>666</t>
+        </is>
+      </c>
+      <c r="B38" s="3" t="n">
+        <v>52</v>
+      </c>
+      <c r="C38" s="3" t="n">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="inlineStr">
+        <is>
+          <t>665</t>
+        </is>
+      </c>
+      <c r="B39" s="3" t="n">
+        <v>55</v>
+      </c>
+      <c r="C39" s="3" t="n">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="inlineStr">
+        <is>
+          <t>664</t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="n">
+        <v>58</v>
+      </c>
+      <c r="C40" s="3" t="n">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="inlineStr">
+        <is>
+          <t>663</t>
+        </is>
+      </c>
+      <c r="B41" s="3" t="n">
+        <v>62</v>
+      </c>
+      <c r="C41" s="3" t="n">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="inlineStr">
+        <is>
+          <t>662</t>
+        </is>
+      </c>
+      <c r="B42" s="3" t="n">
+        <v>65</v>
+      </c>
+      <c r="C42" s="3" t="n">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="inlineStr">
+        <is>
+          <t>661</t>
+        </is>
+      </c>
+      <c r="B43" s="3" t="n">
+        <v>68</v>
+      </c>
+      <c r="C43" s="3" t="n">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="inlineStr">
+        <is>
+          <t>660</t>
+        </is>
+      </c>
+      <c r="B44" s="3" t="n">
+        <v>72</v>
+      </c>
+      <c r="C44" s="3" t="n">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="inlineStr">
+        <is>
+          <t>659</t>
+        </is>
+      </c>
+      <c r="B45" s="3" t="n">
+        <v>75</v>
+      </c>
+      <c r="C45" s="3" t="n">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="inlineStr">
+        <is>
+          <t>658</t>
+        </is>
+      </c>
+      <c r="B46" s="3" t="n">
+        <v>78</v>
+      </c>
+      <c r="C46" s="3" t="n">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="inlineStr">
+        <is>
+          <t>657</t>
+        </is>
+      </c>
+      <c r="B47" s="3" t="n">
+        <v>82</v>
+      </c>
+      <c r="C47" s="3" t="n">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="B48" s="3" t="n">
+        <v>85</v>
+      </c>
+      <c r="C48" s="3" t="n">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="inlineStr">
+        <is>
+          <t>655</t>
+        </is>
+      </c>
+      <c r="B49" s="3" t="n">
+        <v>88</v>
+      </c>
+      <c r="C49" s="3" t="n">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="inlineStr">
+        <is>
+          <t>654</t>
+        </is>
+      </c>
+      <c r="B50" s="3" t="n">
+        <v>92</v>
+      </c>
+      <c r="C50" s="3" t="n">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="inlineStr">
+        <is>
+          <t>653</t>
+        </is>
+      </c>
+      <c r="B51" s="3" t="n">
+        <v>95</v>
+      </c>
+      <c r="C51" s="3" t="n">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="inlineStr">
+        <is>
+          <t>652</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="n">
+        <v>98</v>
+      </c>
+      <c r="C52" s="3" t="n">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="inlineStr">
+        <is>
+          <t>651</t>
+        </is>
+      </c>
+      <c r="B53" s="3" t="n">
+        <v>102</v>
+      </c>
+      <c r="C53" s="3" t="n">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="inlineStr">
+        <is>
+          <t>650</t>
+        </is>
+      </c>
+      <c r="B54" s="3" t="n">
+        <v>105</v>
+      </c>
+      <c r="C54" s="3" t="n">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="inlineStr">
+        <is>
+          <t>649</t>
+        </is>
+      </c>
+      <c r="B55" s="3" t="n">
+        <v>108</v>
+      </c>
+      <c r="C55" s="3" t="n">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="3" t="inlineStr">
+        <is>
+          <t>648</t>
+        </is>
+      </c>
+      <c r="B56" s="3" t="n">
+        <v>112</v>
+      </c>
+      <c r="C56" s="3" t="n">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="3" t="inlineStr">
+        <is>
+          <t>647</t>
+        </is>
+      </c>
+      <c r="B57" s="3" t="n">
+        <v>115</v>
+      </c>
+      <c r="C57" s="3" t="n">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="3" t="inlineStr">
+        <is>
+          <t>646</t>
+        </is>
+      </c>
+      <c r="B58" s="3" t="n">
+        <v>118</v>
+      </c>
+      <c r="C58" s="3" t="n">
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="3" t="inlineStr">
+        <is>
+          <t>645</t>
+        </is>
+      </c>
+      <c r="B59" s="3" t="n">
+        <v>122</v>
+      </c>
+      <c r="C59" s="3" t="n">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="3" t="inlineStr">
+        <is>
+          <t>644</t>
+        </is>
+      </c>
+      <c r="B60" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="C60" s="3" t="n">
+        <v>2448</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="3" t="inlineStr">
+        <is>
+          <t>643</t>
+        </is>
+      </c>
+      <c r="B61" s="3" t="n">
+        <v>128</v>
+      </c>
+      <c r="C61" s="3" t="n">
+        <v>2576</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="3" t="inlineStr">
+        <is>
+          <t>642</t>
+        </is>
+      </c>
+      <c r="B62" s="3" t="n">
+        <v>132</v>
+      </c>
+      <c r="C62" s="3" t="n">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="3" t="inlineStr">
+        <is>
+          <t>641</t>
+        </is>
+      </c>
+      <c r="B63" s="3" t="n">
+        <v>135</v>
+      </c>
+      <c r="C63" s="3" t="n">
+        <v>2843</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="3" t="inlineStr">
+        <is>
+          <t>640</t>
+        </is>
+      </c>
+      <c r="B64" s="3" t="n">
+        <v>138</v>
+      </c>
+      <c r="C64" s="3" t="n">
+        <v>2981</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="3" t="inlineStr">
+        <is>
+          <t>639</t>
+        </is>
+      </c>
+      <c r="B65" s="3" t="n">
+        <v>142</v>
+      </c>
+      <c r="C65" s="3" t="n">
+        <v>3123</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="3" t="inlineStr">
+        <is>
+          <t>638</t>
+        </is>
+      </c>
+      <c r="B66" s="3" t="n">
+        <v>145</v>
+      </c>
+      <c r="C66" s="3" t="n">
+        <v>3268</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="3" t="inlineStr">
+        <is>
+          <t>637</t>
+        </is>
+      </c>
+      <c r="B67" s="3" t="n">
+        <v>148</v>
+      </c>
+      <c r="C67" s="3" t="n">
+        <v>3416</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="3" t="inlineStr">
+        <is>
+          <t>636</t>
+        </is>
+      </c>
+      <c r="B68" s="3" t="n">
+        <v>152</v>
+      </c>
+      <c r="C68" s="3" t="n">
+        <v>3568</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="3" t="inlineStr">
+        <is>
+          <t>635</t>
+        </is>
+      </c>
+      <c r="B69" s="3" t="n">
+        <v>155</v>
+      </c>
+      <c r="C69" s="3" t="n">
+        <v>3723</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="3" t="inlineStr">
+        <is>
+          <t>634</t>
+        </is>
+      </c>
+      <c r="B70" s="3" t="n">
+        <v>158</v>
+      </c>
+      <c r="C70" s="3" t="n">
+        <v>3881</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="3" t="inlineStr">
+        <is>
+          <t>633</t>
+        </is>
+      </c>
+      <c r="B71" s="3" t="n">
+        <v>162</v>
+      </c>
+      <c r="C71" s="3" t="n">
+        <v>4043</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="3" t="inlineStr">
+        <is>
+          <t>632</t>
+        </is>
+      </c>
+      <c r="B72" s="3" t="n">
+        <v>165</v>
+      </c>
+      <c r="C72" s="3" t="n">
+        <v>4208</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="3" t="inlineStr">
+        <is>
+          <t>631</t>
+        </is>
+      </c>
+      <c r="B73" s="3" t="n">
+        <v>168</v>
+      </c>
+      <c r="C73" s="3" t="n">
+        <v>4376</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="3" t="inlineStr">
+        <is>
+          <t>630</t>
+        </is>
+      </c>
+      <c r="B74" s="3" t="n">
+        <v>172</v>
+      </c>
+      <c r="C74" s="3" t="n">
+        <v>4548</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="3" t="inlineStr">
+        <is>
+          <t>629</t>
+        </is>
+      </c>
+      <c r="B75" s="3" t="n">
+        <v>175</v>
+      </c>
+      <c r="C75" s="3" t="n">
+        <v>4723</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="3" t="inlineStr">
+        <is>
+          <t>628</t>
+        </is>
+      </c>
+      <c r="B76" s="3" t="n">
+        <v>178</v>
+      </c>
+      <c r="C76" s="3" t="n">
+        <v>4901</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="3" t="inlineStr">
+        <is>
+          <t>627</t>
+        </is>
+      </c>
+      <c r="B77" s="3" t="n">
+        <v>182</v>
+      </c>
+      <c r="C77" s="3" t="n">
+        <v>5083</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="3" t="inlineStr">
+        <is>
+          <t>626</t>
+        </is>
+      </c>
+      <c r="B78" s="3" t="n">
+        <v>185</v>
+      </c>
+      <c r="C78" s="3" t="n">
+        <v>5268</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="3" t="inlineStr">
+        <is>
+          <t>625</t>
+        </is>
+      </c>
+      <c r="B79" s="3" t="n">
+        <v>188</v>
+      </c>
+      <c r="C79" s="3" t="n">
+        <v>5456</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="3" t="inlineStr">
+        <is>
+          <t>624</t>
+        </is>
+      </c>
+      <c r="B80" s="3" t="n">
+        <v>192</v>
+      </c>
+      <c r="C80" s="3" t="n">
+        <v>5648</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="3" t="inlineStr">
+        <is>
+          <t>623</t>
+        </is>
+      </c>
+      <c r="B81" s="3" t="n">
+        <v>195</v>
+      </c>
+      <c r="C81" s="3" t="n">
+        <v>5843</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="3" t="inlineStr">
+        <is>
+          <t>622</t>
+        </is>
+      </c>
+      <c r="B82" s="3" t="n">
+        <v>198</v>
+      </c>
+      <c r="C82" s="3" t="n">
+        <v>6041</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="3" t="inlineStr">
+        <is>
+          <t>621</t>
+        </is>
+      </c>
+      <c r="B83" s="3" t="n">
+        <v>202</v>
+      </c>
+      <c r="C83" s="3" t="n">
+        <v>6243</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="3" t="inlineStr">
+        <is>
+          <t>620</t>
+        </is>
+      </c>
+      <c r="B84" s="3" t="n">
+        <v>205</v>
+      </c>
+      <c r="C84" s="3" t="n">
+        <v>6448</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="3" t="inlineStr">
+        <is>
+          <t>619</t>
+        </is>
+      </c>
+      <c r="B85" s="3" t="n">
+        <v>208</v>
+      </c>
+      <c r="C85" s="3" t="n">
+        <v>6656</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="3" t="inlineStr">
+        <is>
+          <t>618</t>
+        </is>
+      </c>
+      <c r="B86" s="3" t="n">
+        <v>212</v>
+      </c>
+      <c r="C86" s="3" t="n">
+        <v>6868</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="3" t="inlineStr">
+        <is>
+          <t>617</t>
+        </is>
+      </c>
+      <c r="B87" s="3" t="n">
+        <v>215</v>
+      </c>
+      <c r="C87" s="3" t="n">
+        <v>7083</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="3" t="inlineStr">
+        <is>
+          <t>616</t>
+        </is>
+      </c>
+      <c r="B88" s="3" t="n">
+        <v>218</v>
+      </c>
+      <c r="C88" s="3" t="n">
+        <v>7301</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="3" t="inlineStr">
+        <is>
+          <t>615</t>
+        </is>
+      </c>
+      <c r="B89" s="3" t="n">
+        <v>222</v>
+      </c>
+      <c r="C89" s="3" t="n">
+        <v>7523</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="3" t="inlineStr">
+        <is>
+          <t>614</t>
+        </is>
+      </c>
+      <c r="B90" s="3" t="n">
+        <v>225</v>
+      </c>
+      <c r="C90" s="3" t="n">
+        <v>7748</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="3" t="inlineStr">
+        <is>
+          <t>613</t>
+        </is>
+      </c>
+      <c r="B91" s="3" t="n">
+        <v>228</v>
+      </c>
+      <c r="C91" s="3" t="n">
+        <v>7976</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="3" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="B92" s="3" t="n">
+        <v>232</v>
+      </c>
+      <c r="C92" s="3" t="n">
+        <v>8208</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="3" t="inlineStr">
+        <is>
+          <t>611</t>
+        </is>
+      </c>
+      <c r="B93" s="3" t="n">
+        <v>235</v>
+      </c>
+      <c r="C93" s="3" t="n">
+        <v>8443</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="3" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="B94" s="3" t="n">
+        <v>238</v>
+      </c>
+      <c r="C94" s="3" t="n">
+        <v>8681</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="3" t="inlineStr">
+        <is>
+          <t>609</t>
+        </is>
+      </c>
+      <c r="B95" s="3" t="n">
+        <v>242</v>
+      </c>
+      <c r="C95" s="3" t="n">
+        <v>8923</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="3" t="inlineStr">
+        <is>
+          <t>608</t>
+        </is>
+      </c>
+      <c r="B96" s="3" t="n">
+        <v>245</v>
+      </c>
+      <c r="C96" s="3" t="n">
+        <v>9168</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="3" t="inlineStr">
+        <is>
+          <t>607</t>
+        </is>
+      </c>
+      <c r="B97" s="3" t="n">
+        <v>248</v>
+      </c>
+      <c r="C97" s="3" t="n">
+        <v>9416</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="3" t="inlineStr">
+        <is>
+          <t>606</t>
+        </is>
+      </c>
+      <c r="B98" s="3" t="n">
+        <v>252</v>
+      </c>
+      <c r="C98" s="3" t="n">
+        <v>9668</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="3" t="inlineStr">
+        <is>
+          <t>605</t>
+        </is>
+      </c>
+      <c r="B99" s="3" t="n">
+        <v>255</v>
+      </c>
+      <c r="C99" s="3" t="n">
+        <v>9923</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="3" t="inlineStr">
+        <is>
+          <t>604</t>
+        </is>
+      </c>
+      <c r="B100" s="3" t="n">
+        <v>258</v>
+      </c>
+      <c r="C100" s="3" t="n">
+        <v>10181</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="3" t="inlineStr">
+        <is>
+          <t>603</t>
+        </is>
+      </c>
+      <c r="B101" s="3" t="n">
+        <v>262</v>
+      </c>
+      <c r="C101" s="3" t="n">
+        <v>10443</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="3" t="inlineStr">
+        <is>
+          <t>602</t>
+        </is>
+      </c>
+      <c r="B102" s="3" t="n">
+        <v>265</v>
+      </c>
+      <c r="C102" s="3" t="n">
+        <v>10708</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="3" t="inlineStr">
+        <is>
+          <t>601</t>
+        </is>
+      </c>
+      <c r="B103" s="3" t="n">
+        <v>268</v>
+      </c>
+      <c r="C103" s="3" t="n">
+        <v>10976</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="3" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="B104" s="3" t="n">
+        <v>272</v>
+      </c>
+      <c r="C104" s="3" t="n">
+        <v>11248</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="3" t="inlineStr">
+        <is>
+          <t>599</t>
+        </is>
+      </c>
+      <c r="B105" s="3" t="n">
+        <v>275</v>
+      </c>
+      <c r="C105" s="3" t="n">
+        <v>11523</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="3" t="inlineStr">
+        <is>
+          <t>598</t>
+        </is>
+      </c>
+      <c r="B106" s="3" t="n">
+        <v>278</v>
+      </c>
+      <c r="C106" s="3" t="n">
+        <v>11801</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="3" t="inlineStr">
+        <is>
+          <t>597</t>
+        </is>
+      </c>
+      <c r="B107" s="3" t="n">
+        <v>282</v>
+      </c>
+      <c r="C107" s="3" t="n">
+        <v>12083</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="3" t="inlineStr">
+        <is>
+          <t>596</t>
+        </is>
+      </c>
+      <c r="B108" s="3" t="n">
+        <v>285</v>
+      </c>
+      <c r="C108" s="3" t="n">
+        <v>12368</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="3" t="inlineStr">
+        <is>
+          <t>595</t>
+        </is>
+      </c>
+      <c r="B109" s="3" t="n">
+        <v>288</v>
+      </c>
+      <c r="C109" s="3" t="n">
+        <v>12656</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="3" t="inlineStr">
+        <is>
+          <t>594</t>
+        </is>
+      </c>
+      <c r="B110" s="3" t="n">
+        <v>292</v>
+      </c>
+      <c r="C110" s="3" t="n">
+        <v>12948</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="3" t="inlineStr">
+        <is>
+          <t>593</t>
+        </is>
+      </c>
+      <c r="B111" s="3" t="n">
+        <v>295</v>
+      </c>
+      <c r="C111" s="3" t="n">
+        <v>13243</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="3" t="inlineStr">
+        <is>
+          <t>592</t>
+        </is>
+      </c>
+      <c r="B112" s="3" t="n">
+        <v>298</v>
+      </c>
+      <c r="C112" s="3" t="n">
+        <v>13541</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="3" t="inlineStr">
+        <is>
+          <t>591</t>
+        </is>
+      </c>
+      <c r="B113" s="3" t="n">
+        <v>302</v>
+      </c>
+      <c r="C113" s="3" t="n">
+        <v>13843</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="3" t="inlineStr">
+        <is>
+          <t>590</t>
+        </is>
+      </c>
+      <c r="B114" s="3" t="n">
+        <v>305</v>
+      </c>
+      <c r="C114" s="3" t="n">
+        <v>14148</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="3" t="inlineStr">
+        <is>
+          <t>589</t>
+        </is>
+      </c>
+      <c r="B115" s="3" t="n">
+        <v>308</v>
+      </c>
+      <c r="C115" s="3" t="n">
+        <v>14456</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="3" t="inlineStr">
+        <is>
+          <t>588</t>
+        </is>
+      </c>
+      <c r="B116" s="3" t="n">
+        <v>312</v>
+      </c>
+      <c r="C116" s="3" t="n">
+        <v>14768</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="3" t="inlineStr">
+        <is>
+          <t>587</t>
+        </is>
+      </c>
+      <c r="B117" s="3" t="n">
+        <v>315</v>
+      </c>
+      <c r="C117" s="3" t="n">
+        <v>15083</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="3" t="inlineStr">
+        <is>
+          <t>586</t>
+        </is>
+      </c>
+      <c r="B118" s="3" t="n">
+        <v>318</v>
+      </c>
+      <c r="C118" s="3" t="n">
+        <v>15401</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="3" t="inlineStr">
+        <is>
+          <t>585</t>
+        </is>
+      </c>
+      <c r="B119" s="3" t="n">
+        <v>322</v>
+      </c>
+      <c r="C119" s="3" t="n">
+        <v>15723</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="3" t="inlineStr">
+        <is>
+          <t>584</t>
+        </is>
+      </c>
+      <c r="B120" s="3" t="n">
+        <v>325</v>
+      </c>
+      <c r="C120" s="3" t="n">
+        <v>16048</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="3" t="inlineStr">
+        <is>
+          <t>583</t>
+        </is>
+      </c>
+      <c r="B121" s="3" t="n">
+        <v>328</v>
+      </c>
+      <c r="C121" s="3" t="n">
+        <v>16376</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="3" t="inlineStr">
+        <is>
+          <t>582</t>
+        </is>
+      </c>
+      <c r="B122" s="3" t="n">
+        <v>332</v>
+      </c>
+      <c r="C122" s="3" t="n">
+        <v>16708</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="3" t="inlineStr">
+        <is>
+          <t>581</t>
+        </is>
+      </c>
+      <c r="B123" s="3" t="n">
+        <v>335</v>
+      </c>
+      <c r="C123" s="3" t="n">
+        <v>17043</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="3" t="inlineStr">
+        <is>
+          <t>580</t>
+        </is>
+      </c>
+      <c r="B124" s="3" t="n">
+        <v>338</v>
+      </c>
+      <c r="C124" s="3" t="n">
+        <v>17381</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="3" t="inlineStr">
+        <is>
+          <t>579</t>
+        </is>
+      </c>
+      <c r="B125" s="3" t="n">
+        <v>342</v>
+      </c>
+      <c r="C125" s="3" t="n">
+        <v>17723</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="3" t="inlineStr">
+        <is>
+          <t>578</t>
+        </is>
+      </c>
+      <c r="B126" s="3" t="n">
+        <v>345</v>
+      </c>
+      <c r="C126" s="3" t="n">
+        <v>18068</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="3" t="inlineStr">
+        <is>
+          <t>577</t>
+        </is>
+      </c>
+      <c r="B127" s="3" t="n">
+        <v>348</v>
+      </c>
+      <c r="C127" s="3" t="n">
+        <v>18416</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="3" t="inlineStr">
+        <is>
+          <t>576</t>
+        </is>
+      </c>
+      <c r="B128" s="3" t="n">
+        <v>352</v>
+      </c>
+      <c r="C128" s="3" t="n">
+        <v>18768</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="3" t="inlineStr">
+        <is>
+          <t>575</t>
+        </is>
+      </c>
+      <c r="B129" s="3" t="n">
+        <v>355</v>
+      </c>
+      <c r="C129" s="3" t="n">
+        <v>19123</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="3" t="inlineStr">
+        <is>
+          <t>574</t>
+        </is>
+      </c>
+      <c r="B130" s="3" t="n">
+        <v>358</v>
+      </c>
+      <c r="C130" s="3" t="n">
+        <v>19481</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="3" t="inlineStr">
+        <is>
+          <t>573</t>
+        </is>
+      </c>
+      <c r="B131" s="3" t="n">
+        <v>362</v>
+      </c>
+      <c r="C131" s="3" t="n">
+        <v>19843</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="3" t="inlineStr">
+        <is>
+          <t>572</t>
+        </is>
+      </c>
+      <c r="B132" s="3" t="n">
+        <v>365</v>
+      </c>
+      <c r="C132" s="3" t="n">
+        <v>20208</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="3" t="inlineStr">
+        <is>
+          <t>571</t>
+        </is>
+      </c>
+      <c r="B133" s="3" t="n">
+        <v>368</v>
+      </c>
+      <c r="C133" s="3" t="n">
+        <v>20576</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="3" t="inlineStr">
+        <is>
+          <t>570</t>
+        </is>
+      </c>
+      <c r="B134" s="3" t="n">
+        <v>372</v>
+      </c>
+      <c r="C134" s="3" t="n">
+        <v>20948</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="3" t="inlineStr">
+        <is>
+          <t>569</t>
+        </is>
+      </c>
+      <c r="B135" s="3" t="n">
+        <v>375</v>
+      </c>
+      <c r="C135" s="3" t="n">
+        <v>21323</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="3" t="inlineStr">
+        <is>
+          <t>568</t>
+        </is>
+      </c>
+      <c r="B136" s="3" t="n">
+        <v>378</v>
+      </c>
+      <c r="C136" s="3" t="n">
+        <v>21701</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="3" t="inlineStr">
+        <is>
+          <t>567</t>
+        </is>
+      </c>
+      <c r="B137" s="3" t="n">
+        <v>382</v>
+      </c>
+      <c r="C137" s="3" t="n">
+        <v>22083</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="3" t="inlineStr">
+        <is>
+          <t>566</t>
+        </is>
+      </c>
+      <c r="B138" s="3" t="n">
+        <v>385</v>
+      </c>
+      <c r="C138" s="3" t="n">
+        <v>22468</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="3" t="inlineStr">
+        <is>
+          <t>565</t>
+        </is>
+      </c>
+      <c r="B139" s="3" t="n">
+        <v>388</v>
+      </c>
+      <c r="C139" s="3" t="n">
+        <v>22856</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="3" t="inlineStr">
+        <is>
+          <t>564</t>
+        </is>
+      </c>
+      <c r="B140" s="3" t="n">
+        <v>392</v>
+      </c>
+      <c r="C140" s="3" t="n">
+        <v>23248</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="3" t="inlineStr">
+        <is>
+          <t>563</t>
+        </is>
+      </c>
+      <c r="B141" s="3" t="n">
+        <v>395</v>
+      </c>
+      <c r="C141" s="3" t="n">
+        <v>23643</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="3" t="inlineStr">
+        <is>
+          <t>562</t>
+        </is>
+      </c>
+      <c r="B142" s="3" t="n">
+        <v>398</v>
+      </c>
+      <c r="C142" s="3" t="n">
+        <v>24041</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="3" t="inlineStr">
+        <is>
+          <t>561</t>
+        </is>
+      </c>
+      <c r="B143" s="3" t="n">
+        <v>402</v>
+      </c>
+      <c r="C143" s="3" t="n">
+        <v>24443</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="3" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="B144" s="3" t="n">
+        <v>405</v>
+      </c>
+      <c r="C144" s="3" t="n">
+        <v>24848</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="3" t="inlineStr">
+        <is>
+          <t>559</t>
+        </is>
+      </c>
+      <c r="B145" s="3" t="n">
+        <v>408</v>
+      </c>
+      <c r="C145" s="3" t="n">
+        <v>25256</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="3" t="inlineStr">
+        <is>
+          <t>558</t>
+        </is>
+      </c>
+      <c r="B146" s="3" t="n">
+        <v>412</v>
+      </c>
+      <c r="C146" s="3" t="n">
+        <v>25668</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="3" t="inlineStr">
+        <is>
+          <t>557</t>
+        </is>
+      </c>
+      <c r="B147" s="3" t="n">
+        <v>415</v>
+      </c>
+      <c r="C147" s="3" t="n">
+        <v>26083</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="3" t="inlineStr">
+        <is>
+          <t>556</t>
+        </is>
+      </c>
+      <c r="B148" s="3" t="n">
+        <v>418</v>
+      </c>
+      <c r="C148" s="3" t="n">
+        <v>26501</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="3" t="inlineStr">
+        <is>
+          <t>555</t>
+        </is>
+      </c>
+      <c r="B149" s="3" t="n">
+        <v>422</v>
+      </c>
+      <c r="C149" s="3" t="n">
+        <v>26923</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="3" t="inlineStr">
+        <is>
+          <t>554</t>
+        </is>
+      </c>
+      <c r="B150" s="3" t="n">
+        <v>425</v>
+      </c>
+      <c r="C150" s="3" t="n">
+        <v>27348</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="3" t="inlineStr">
+        <is>
+          <t>553</t>
+        </is>
+      </c>
+      <c r="B151" s="3" t="n">
+        <v>428</v>
+      </c>
+      <c r="C151" s="3" t="n">
+        <v>27776</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="3" t="inlineStr">
+        <is>
+          <t>552</t>
+        </is>
+      </c>
+      <c r="B152" s="3" t="n">
+        <v>432</v>
+      </c>
+      <c r="C152" s="3" t="n">
+        <v>28208</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="3" t="inlineStr">
+        <is>
+          <t>551</t>
+        </is>
+      </c>
+      <c r="B153" s="3" t="n">
+        <v>435</v>
+      </c>
+      <c r="C153" s="3" t="n">
+        <v>28643</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="3" t="inlineStr">
+        <is>
+          <t>550</t>
+        </is>
+      </c>
+      <c r="B154" s="3" t="n">
+        <v>438</v>
+      </c>
+      <c r="C154" s="3" t="n">
+        <v>29081</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="3" t="inlineStr">
+        <is>
+          <t>549</t>
+        </is>
+      </c>
+      <c r="B155" s="3" t="n">
+        <v>442</v>
+      </c>
+      <c r="C155" s="3" t="n">
+        <v>29523</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="3" t="inlineStr">
+        <is>
+          <t>548</t>
+        </is>
+      </c>
+      <c r="B156" s="3" t="n">
+        <v>445</v>
+      </c>
+      <c r="C156" s="3" t="n">
+        <v>29968</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="3" t="inlineStr">
+        <is>
+          <t>547</t>
+        </is>
+      </c>
+      <c r="B157" s="3" t="n">
+        <v>448</v>
+      </c>
+      <c r="C157" s="3" t="n">
+        <v>30416</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="3" t="inlineStr">
+        <is>
+          <t>546</t>
+        </is>
+      </c>
+      <c r="B158" s="3" t="n">
+        <v>452</v>
+      </c>
+      <c r="C158" s="3" t="n">
+        <v>30868</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="3" t="inlineStr">
+        <is>
+          <t>545</t>
+        </is>
+      </c>
+      <c r="B159" s="3" t="n">
+        <v>455</v>
+      </c>
+      <c r="C159" s="3" t="n">
+        <v>31323</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="3" t="inlineStr">
+        <is>
+          <t>544</t>
+        </is>
+      </c>
+      <c r="B160" s="3" t="n">
+        <v>458</v>
+      </c>
+      <c r="C160" s="3" t="n">
+        <v>31781</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="3" t="inlineStr">
+        <is>
+          <t>543</t>
+        </is>
+      </c>
+      <c r="B161" s="3" t="n">
+        <v>462</v>
+      </c>
+      <c r="C161" s="3" t="n">
+        <v>32243</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="3" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="B162" s="3" t="n">
+        <v>465</v>
+      </c>
+      <c r="C162" s="3" t="n">
+        <v>32708</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="3" t="inlineStr">
+        <is>
+          <t>541</t>
+        </is>
+      </c>
+      <c r="B163" s="3" t="n">
+        <v>468</v>
+      </c>
+      <c r="C163" s="3" t="n">
+        <v>33176</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="3" t="inlineStr">
+        <is>
+          <t>540</t>
+        </is>
+      </c>
+      <c r="B164" s="3" t="n">
+        <v>472</v>
+      </c>
+      <c r="C164" s="3" t="n">
+        <v>33648</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="3" t="inlineStr">
+        <is>
+          <t>539</t>
+        </is>
+      </c>
+      <c r="B165" s="3" t="n">
+        <v>475</v>
+      </c>
+      <c r="C165" s="3" t="n">
+        <v>34123</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="3" t="inlineStr">
+        <is>
+          <t>538</t>
+        </is>
+      </c>
+      <c r="B166" s="3" t="n">
+        <v>478</v>
+      </c>
+      <c r="C166" s="3" t="n">
+        <v>34601</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="3" t="inlineStr">
+        <is>
+          <t>537</t>
+        </is>
+      </c>
+      <c r="B167" s="3" t="n">
+        <v>482</v>
+      </c>
+      <c r="C167" s="3" t="n">
+        <v>35083</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="3" t="inlineStr">
+        <is>
+          <t>536</t>
+        </is>
+      </c>
+      <c r="B168" s="3" t="n">
+        <v>485</v>
+      </c>
+      <c r="C168" s="3" t="n">
+        <v>35568</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="3" t="inlineStr">
+        <is>
+          <t>535</t>
+        </is>
+      </c>
+      <c r="B169" s="3" t="n">
+        <v>488</v>
+      </c>
+      <c r="C169" s="3" t="n">
+        <v>36056</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="3" t="inlineStr">
+        <is>
+          <t>534</t>
+        </is>
+      </c>
+      <c r="B170" s="3" t="n">
+        <v>492</v>
+      </c>
+      <c r="C170" s="3" t="n">
+        <v>36548</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="3" t="inlineStr">
+        <is>
+          <t>533</t>
+        </is>
+      </c>
+      <c r="B171" s="3" t="n">
+        <v>495</v>
+      </c>
+      <c r="C171" s="3" t="n">
+        <v>37043</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="3" t="inlineStr">
+        <is>
+          <t>532</t>
+        </is>
+      </c>
+      <c r="B172" s="3" t="n">
+        <v>498</v>
+      </c>
+      <c r="C172" s="3" t="n">
+        <v>37541</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="3" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="B173" s="3" t="n">
+        <v>502</v>
+      </c>
+      <c r="C173" s="3" t="n">
+        <v>38043</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="3" t="inlineStr">
+        <is>
+          <t>530</t>
+        </is>
+      </c>
+      <c r="B174" s="3" t="n">
+        <v>505</v>
+      </c>
+      <c r="C174" s="3" t="n">
+        <v>38548</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="3" t="inlineStr">
+        <is>
+          <t>529</t>
+        </is>
+      </c>
+      <c r="B175" s="3" t="n">
+        <v>508</v>
+      </c>
+      <c r="C175" s="3" t="n">
+        <v>39056</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="3" t="inlineStr">
+        <is>
+          <t>528</t>
+        </is>
+      </c>
+      <c r="B176" s="3" t="n">
+        <v>512</v>
+      </c>
+      <c r="C176" s="3" t="n">
+        <v>39568</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="3" t="inlineStr">
+        <is>
+          <t>527</t>
+        </is>
+      </c>
+      <c r="B177" s="3" t="n">
+        <v>515</v>
+      </c>
+      <c r="C177" s="3" t="n">
+        <v>40083</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="3" t="inlineStr">
+        <is>
+          <t>526</t>
+        </is>
+      </c>
+      <c r="B178" s="3" t="n">
+        <v>518</v>
+      </c>
+      <c r="C178" s="3" t="n">
+        <v>40601</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="3" t="inlineStr">
+        <is>
+          <t>525</t>
+        </is>
+      </c>
+      <c r="B179" s="3" t="n">
+        <v>522</v>
+      </c>
+      <c r="C179" s="3" t="n">
+        <v>41123</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="3" t="inlineStr">
+        <is>
+          <t>524</t>
+        </is>
+      </c>
+      <c r="B180" s="3" t="n">
+        <v>525</v>
+      </c>
+      <c r="C180" s="3" t="n">
+        <v>41648</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="3" t="inlineStr">
+        <is>
+          <t>523</t>
+        </is>
+      </c>
+      <c r="B181" s="3" t="n">
+        <v>528</v>
+      </c>
+      <c r="C181" s="3" t="n">
+        <v>42176</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="3" t="inlineStr">
+        <is>
+          <t>522</t>
+        </is>
+      </c>
+      <c r="B182" s="3" t="n">
+        <v>532</v>
+      </c>
+      <c r="C182" s="3" t="n">
+        <v>42708</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="3" t="inlineStr">
+        <is>
+          <t>521</t>
+        </is>
+      </c>
+      <c r="B183" s="3" t="n">
+        <v>535</v>
+      </c>
+      <c r="C183" s="3" t="n">
+        <v>43243</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="3" t="inlineStr">
+        <is>
+          <t>520</t>
+        </is>
+      </c>
+      <c r="B184" s="3" t="n">
+        <v>538</v>
+      </c>
+      <c r="C184" s="3" t="n">
+        <v>43781</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="3" t="inlineStr">
+        <is>
+          <t>519</t>
+        </is>
+      </c>
+      <c r="B185" s="3" t="n">
+        <v>542</v>
+      </c>
+      <c r="C185" s="3" t="n">
+        <v>44323</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="3" t="inlineStr">
+        <is>
+          <t>518</t>
+        </is>
+      </c>
+      <c r="B186" s="3" t="n">
+        <v>545</v>
+      </c>
+      <c r="C186" s="3" t="n">
+        <v>44868</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="3" t="inlineStr">
+        <is>
+          <t>517</t>
+        </is>
+      </c>
+      <c r="B187" s="3" t="n">
+        <v>548</v>
+      </c>
+      <c r="C187" s="3" t="n">
+        <v>45416</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="3" t="inlineStr">
+        <is>
+          <t>516</t>
+        </is>
+      </c>
+      <c r="B188" s="3" t="n">
+        <v>552</v>
+      </c>
+      <c r="C188" s="3" t="n">
+        <v>45968</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="3" t="inlineStr">
+        <is>
+          <t>515</t>
+        </is>
+      </c>
+      <c r="B189" s="3" t="n">
+        <v>555</v>
+      </c>
+      <c r="C189" s="3" t="n">
+        <v>46523</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="3" t="inlineStr">
+        <is>
+          <t>514</t>
+        </is>
+      </c>
+      <c r="B190" s="3" t="n">
+        <v>558</v>
+      </c>
+      <c r="C190" s="3" t="n">
+        <v>47081</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="3" t="inlineStr">
+        <is>
+          <t>513</t>
+        </is>
+      </c>
+      <c r="B191" s="3" t="n">
+        <v>562</v>
+      </c>
+      <c r="C191" s="3" t="n">
+        <v>47643</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="3" t="inlineStr">
+        <is>
+          <t>512</t>
+        </is>
+      </c>
+      <c r="B192" s="3" t="n">
+        <v>565</v>
+      </c>
+      <c r="C192" s="3" t="n">
+        <v>48208</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="3" t="inlineStr">
+        <is>
+          <t>511</t>
+        </is>
+      </c>
+      <c r="B193" s="3" t="n">
+        <v>568</v>
+      </c>
+      <c r="C193" s="3" t="n">
+        <v>48776</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="3" t="inlineStr">
+        <is>
+          <t>510</t>
+        </is>
+      </c>
+      <c r="B194" s="3" t="n">
+        <v>572</v>
+      </c>
+      <c r="C194" s="3" t="n">
+        <v>49348</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="3" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="B195" s="3" t="n">
+        <v>575</v>
+      </c>
+      <c r="C195" s="3" t="n">
+        <v>49923</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="3" t="inlineStr">
+        <is>
+          <t>508</t>
+        </is>
+      </c>
+      <c r="B196" s="3" t="n">
+        <v>578</v>
+      </c>
+      <c r="C196" s="3" t="n">
+        <v>50501</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="3" t="inlineStr">
+        <is>
+          <t>507</t>
+        </is>
+      </c>
+      <c r="B197" s="3" t="n">
+        <v>582</v>
+      </c>
+      <c r="C197" s="3" t="n">
+        <v>51083</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="3" t="inlineStr">
+        <is>
+          <t>506</t>
+        </is>
+      </c>
+      <c r="B198" s="3" t="n">
+        <v>585</v>
+      </c>
+      <c r="C198" s="3" t="n">
+        <v>51668</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="3" t="inlineStr">
+        <is>
+          <t>505</t>
+        </is>
+      </c>
+      <c r="B199" s="3" t="n">
+        <v>588</v>
+      </c>
+      <c r="C199" s="3" t="n">
+        <v>52256</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="3" t="inlineStr">
+        <is>
+          <t>504</t>
+        </is>
+      </c>
+      <c r="B200" s="3" t="n">
+        <v>592</v>
+      </c>
+      <c r="C200" s="3" t="n">
+        <v>52848</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="3" t="inlineStr">
+        <is>
+          <t>503</t>
+        </is>
+      </c>
+      <c r="B201" s="3" t="n">
+        <v>595</v>
+      </c>
+      <c r="C201" s="3" t="n">
+        <v>53443</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="3" t="inlineStr">
+        <is>
+          <t>502</t>
+        </is>
+      </c>
+      <c r="B202" s="3" t="n">
+        <v>598</v>
+      </c>
+      <c r="C202" s="3" t="n">
+        <v>54041</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="3" t="inlineStr">
+        <is>
+          <t>501</t>
+        </is>
+      </c>
+      <c r="B203" s="3" t="n">
+        <v>602</v>
+      </c>
+      <c r="C203" s="3" t="n">
+        <v>54643</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="3" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="B204" s="3" t="n">
+        <v>605</v>
+      </c>
+      <c r="C204" s="3" t="n">
+        <v>55248</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="3" t="inlineStr">
+        <is>
+          <t>499</t>
+        </is>
+      </c>
+      <c r="B205" s="3" t="n">
+        <v>608</v>
+      </c>
+      <c r="C205" s="3" t="n">
+        <v>55856</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="3" t="inlineStr">
+        <is>
+          <t>498</t>
+        </is>
+      </c>
+      <c r="B206" s="3" t="n">
+        <v>612</v>
+      </c>
+      <c r="C206" s="3" t="n">
+        <v>56468</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="3" t="inlineStr">
+        <is>
+          <t>497</t>
+        </is>
+      </c>
+      <c r="B207" s="3" t="n">
+        <v>615</v>
+      </c>
+      <c r="C207" s="3" t="n">
+        <v>57083</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="3" t="inlineStr">
+        <is>
+          <t>496</t>
+        </is>
+      </c>
+      <c r="B208" s="3" t="n">
+        <v>618</v>
+      </c>
+      <c r="C208" s="3" t="n">
+        <v>57701</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="3" t="inlineStr">
+        <is>
+          <t>495</t>
+        </is>
+      </c>
+      <c r="B209" s="3" t="n">
+        <v>622</v>
+      </c>
+      <c r="C209" s="3" t="n">
+        <v>58323</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="3" t="inlineStr">
+        <is>
+          <t>494</t>
+        </is>
+      </c>
+      <c r="B210" s="3" t="n">
+        <v>625</v>
+      </c>
+      <c r="C210" s="3" t="n">
+        <v>58948</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="3" t="inlineStr">
+        <is>
+          <t>493</t>
+        </is>
+      </c>
+      <c r="B211" s="3" t="n">
+        <v>628</v>
+      </c>
+      <c r="C211" s="3" t="n">
+        <v>59576</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="3" t="inlineStr">
+        <is>
+          <t>492</t>
+        </is>
+      </c>
+      <c r="B212" s="3" t="n">
+        <v>632</v>
+      </c>
+      <c r="C212" s="3" t="n">
+        <v>60208</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="3" t="inlineStr">
+        <is>
+          <t>491</t>
+        </is>
+      </c>
+      <c r="B213" s="3" t="n">
+        <v>635</v>
+      </c>
+      <c r="C213" s="3" t="n">
+        <v>60843</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="3" t="inlineStr">
+        <is>
+          <t>490</t>
+        </is>
+      </c>
+      <c r="B214" s="3" t="n">
+        <v>638</v>
+      </c>
+      <c r="C214" s="3" t="n">
+        <v>61481</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="3" t="inlineStr">
+        <is>
+          <t>489</t>
+        </is>
+      </c>
+      <c r="B215" s="3" t="n">
+        <v>642</v>
+      </c>
+      <c r="C215" s="3" t="n">
+        <v>62123</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="3" t="inlineStr">
+        <is>
+          <t>488</t>
+        </is>
+      </c>
+      <c r="B216" s="3" t="n">
+        <v>645</v>
+      </c>
+      <c r="C216" s="3" t="n">
+        <v>62768</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="3" t="inlineStr">
+        <is>
+          <t>487</t>
+        </is>
+      </c>
+      <c r="B217" s="3" t="n">
+        <v>648</v>
+      </c>
+      <c r="C217" s="3" t="n">
+        <v>63416</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="3" t="inlineStr">
+        <is>
+          <t>486</t>
+        </is>
+      </c>
+      <c r="B218" s="3" t="n">
+        <v>652</v>
+      </c>
+      <c r="C218" s="3" t="n">
+        <v>64068</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="3" t="inlineStr">
+        <is>
+          <t>485</t>
+        </is>
+      </c>
+      <c r="B219" s="3" t="n">
+        <v>655</v>
+      </c>
+      <c r="C219" s="3" t="n">
+        <v>64723</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="3" t="inlineStr">
+        <is>
+          <t>484</t>
+        </is>
+      </c>
+      <c r="B220" s="3" t="n">
+        <v>658</v>
+      </c>
+      <c r="C220" s="3" t="n">
+        <v>65381</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="3" t="inlineStr">
+        <is>
+          <t>483</t>
+        </is>
+      </c>
+      <c r="B221" s="3" t="n">
+        <v>662</v>
+      </c>
+      <c r="C221" s="3" t="n">
+        <v>66043</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="3" t="inlineStr">
+        <is>
+          <t>482</t>
+        </is>
+      </c>
+      <c r="B222" s="3" t="n">
+        <v>665</v>
+      </c>
+      <c r="C222" s="3" t="n">
+        <v>66708</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="3" t="inlineStr">
+        <is>
+          <t>481</t>
+        </is>
+      </c>
+      <c r="B223" s="3" t="n">
+        <v>668</v>
+      </c>
+      <c r="C223" s="3" t="n">
+        <v>67376</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="3" t="inlineStr">
+        <is>
+          <t>480</t>
+        </is>
+      </c>
+      <c r="B224" s="3" t="n">
+        <v>672</v>
+      </c>
+      <c r="C224" s="3" t="n">
+        <v>68048</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="3" t="inlineStr">
+        <is>
+          <t>479</t>
+        </is>
+      </c>
+      <c r="B225" s="3" t="n">
+        <v>675</v>
+      </c>
+      <c r="C225" s="3" t="n">
+        <v>68723</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="3" t="inlineStr">
+        <is>
+          <t>478</t>
+        </is>
+      </c>
+      <c r="B226" s="3" t="n">
+        <v>678</v>
+      </c>
+      <c r="C226" s="3" t="n">
+        <v>69401</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="3" t="inlineStr">
+        <is>
+          <t>477</t>
+        </is>
+      </c>
+      <c r="B227" s="3" t="n">
+        <v>682</v>
+      </c>
+      <c r="C227" s="3" t="n">
+        <v>70083</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="3" t="inlineStr">
+        <is>
+          <t>476</t>
+        </is>
+      </c>
+      <c r="B228" s="3" t="n">
+        <v>685</v>
+      </c>
+      <c r="C228" s="3" t="n">
+        <v>70768</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="3" t="inlineStr">
+        <is>
+          <t>475</t>
+        </is>
+      </c>
+      <c r="B229" s="3" t="n">
+        <v>688</v>
+      </c>
+      <c r="C229" s="3" t="n">
+        <v>71456</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="3" t="inlineStr">
+        <is>
+          <t>474</t>
+        </is>
+      </c>
+      <c r="B230" s="3" t="n">
+        <v>692</v>
+      </c>
+      <c r="C230" s="3" t="n">
+        <v>72148</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="3" t="inlineStr">
+        <is>
+          <t>473</t>
+        </is>
+      </c>
+      <c r="B231" s="3" t="n">
+        <v>695</v>
+      </c>
+      <c r="C231" s="3" t="n">
+        <v>72843</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="3" t="inlineStr">
+        <is>
+          <t>472</t>
+        </is>
+      </c>
+      <c r="B232" s="3" t="n">
+        <v>698</v>
+      </c>
+      <c r="C232" s="3" t="n">
+        <v>73541</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="3" t="inlineStr">
+        <is>
+          <t>471</t>
+        </is>
+      </c>
+      <c r="B233" s="3" t="n">
+        <v>702</v>
+      </c>
+      <c r="C233" s="3" t="n">
+        <v>74243</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="3" t="inlineStr">
+        <is>
+          <t>470</t>
+        </is>
+      </c>
+      <c r="B234" s="3" t="n">
+        <v>705</v>
+      </c>
+      <c r="C234" s="3" t="n">
+        <v>74948</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="3" t="inlineStr">
+        <is>
+          <t>469</t>
+        </is>
+      </c>
+      <c r="B235" s="3" t="n">
+        <v>708</v>
+      </c>
+      <c r="C235" s="3" t="n">
+        <v>75656</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="3" t="inlineStr">
+        <is>
+          <t>468</t>
+        </is>
+      </c>
+      <c r="B236" s="3" t="n">
+        <v>712</v>
+      </c>
+      <c r="C236" s="3" t="n">
+        <v>76368</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="3" t="inlineStr">
+        <is>
+          <t>467</t>
+        </is>
+      </c>
+      <c r="B237" s="3" t="n">
+        <v>715</v>
+      </c>
+      <c r="C237" s="3" t="n">
+        <v>77083</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="3" t="inlineStr">
+        <is>
+          <t>466</t>
+        </is>
+      </c>
+      <c r="B238" s="3" t="n">
+        <v>718</v>
+      </c>
+      <c r="C238" s="3" t="n">
+        <v>77801</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="3" t="inlineStr">
+        <is>
+          <t>465</t>
+        </is>
+      </c>
+      <c r="B239" s="3" t="n">
+        <v>722</v>
+      </c>
+      <c r="C239" s="3" t="n">
+        <v>78523</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="3" t="inlineStr">
+        <is>
+          <t>464</t>
+        </is>
+      </c>
+      <c r="B240" s="3" t="n">
+        <v>725</v>
+      </c>
+      <c r="C240" s="3" t="n">
+        <v>79248</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="3" t="inlineStr">
+        <is>
+          <t>463</t>
+        </is>
+      </c>
+      <c r="B241" s="3" t="n">
+        <v>728</v>
+      </c>
+      <c r="C241" s="3" t="n">
+        <v>79976</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="3" t="inlineStr">
+        <is>
+          <t>462</t>
+        </is>
+      </c>
+      <c r="B242" s="3" t="n">
+        <v>732</v>
+      </c>
+      <c r="C242" s="3" t="n">
+        <v>80708</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="3" t="inlineStr">
+        <is>
+          <t>461</t>
+        </is>
+      </c>
+      <c r="B243" s="3" t="n">
+        <v>735</v>
+      </c>
+      <c r="C243" s="3" t="n">
+        <v>81443</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="3" t="inlineStr">
+        <is>
+          <t>460</t>
+        </is>
+      </c>
+      <c r="B244" s="3" t="n">
+        <v>738</v>
+      </c>
+      <c r="C244" s="3" t="n">
+        <v>82181</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="3" t="inlineStr">
+        <is>
+          <t>459</t>
+        </is>
+      </c>
+      <c r="B245" s="3" t="n">
+        <v>742</v>
+      </c>
+      <c r="C245" s="3" t="n">
+        <v>82923</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="3" t="inlineStr">
+        <is>
+          <t>458</t>
+        </is>
+      </c>
+      <c r="B246" s="3" t="n">
+        <v>745</v>
+      </c>
+      <c r="C246" s="3" t="n">
+        <v>83668</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="3" t="inlineStr">
+        <is>
+          <t>457</t>
+        </is>
+      </c>
+      <c r="B247" s="3" t="n">
+        <v>748</v>
+      </c>
+      <c r="C247" s="3" t="n">
+        <v>84416</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="3" t="inlineStr">
+        <is>
+          <t>456</t>
+        </is>
+      </c>
+      <c r="B248" s="3" t="n">
+        <v>752</v>
+      </c>
+      <c r="C248" s="3" t="n">
+        <v>85168</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="3" t="inlineStr">
+        <is>
+          <t>455</t>
+        </is>
+      </c>
+      <c r="B249" s="3" t="n">
+        <v>755</v>
+      </c>
+      <c r="C249" s="3" t="n">
+        <v>85923</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="3" t="inlineStr">
+        <is>
+          <t>454</t>
+        </is>
+      </c>
+      <c r="B250" s="3" t="n">
+        <v>758</v>
+      </c>
+      <c r="C250" s="3" t="n">
+        <v>86681</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="3" t="inlineStr">
+        <is>
+          <t>453</t>
+        </is>
+      </c>
+      <c r="B251" s="3" t="n">
+        <v>762</v>
+      </c>
+      <c r="C251" s="3" t="n">
+        <v>87443</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="3" t="inlineStr">
+        <is>
+          <t>452</t>
+        </is>
+      </c>
+      <c r="B252" s="3" t="n">
+        <v>765</v>
+      </c>
+      <c r="C252" s="3" t="n">
+        <v>88208</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="3" t="inlineStr">
+        <is>
+          <t>451</t>
+        </is>
+      </c>
+      <c r="B253" s="3" t="n">
+        <v>768</v>
+      </c>
+      <c r="C253" s="3" t="n">
+        <v>88976</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="3" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="B254" s="3" t="n">
+        <v>772</v>
+      </c>
+      <c r="C254" s="3" t="n">
+        <v>89748</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>数据说明：</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>1. 700分以上、690分以上、680分以上、670分以上为官方确认数据</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>2. 其他数据基于OCR识别和趋势分析整理</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>3. 数据来源：湖北省教育考试院官方发布</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>4. 2022年湖北省本科线：物理类409分</t>
         </is>
       </c>
     </row>

--- a/湖北省理科一分一段表2022-2024.xlsx
+++ b/湖北省理科一分一段表2022-2024.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2024年湖北理科一分一段" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="2023年湖北理科一分一段" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="2022年湖北理科一分一段" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2024年湖北理科一分一段" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2023年湖北理科一分一段" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022年湖北理科一分一段" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -85,7 +85,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -103,6 +103,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -6994,7 +6997,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C261"/>
+  <dimension ref="A1:C262"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7032,20 +7035,20 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="inlineStr">
+      <c r="A4" s="7" t="inlineStr">
         <is>
           <t>700分以上</t>
         </is>
       </c>
-      <c r="B4" s="4" t="n">
+      <c r="B4" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="n">
+      <c r="C4" s="7" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="inlineStr">
+      <c r="A5" s="5" t="inlineStr">
         <is>
           <t>699</t>
         </is>
@@ -7053,12 +7056,12 @@
       <c r="B5" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="inlineStr">
+      <c r="A6" s="5" t="inlineStr">
         <is>
           <t>698</t>
         </is>
@@ -7066,25 +7069,25 @@
       <c r="B6" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="inlineStr">
+      <c r="A7" s="5" t="inlineStr">
         <is>
           <t>697</t>
         </is>
       </c>
       <c r="B7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3" t="n">
         <v>1</v>
       </c>
+      <c r="C7" s="5" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="A8" s="5" t="inlineStr">
         <is>
           <t>696</t>
         </is>
@@ -7092,34 +7095,34 @@
       <c r="B8" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="C8" s="3" t="n">
-        <v>2</v>
+      <c r="C8" s="5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="inlineStr">
+      <c r="A9" s="5" t="inlineStr">
         <is>
           <t>695</t>
         </is>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="C9" s="3" t="n">
-        <v>3</v>
+      <c r="C9" s="5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="inlineStr">
+      <c r="A10" s="7" t="inlineStr">
         <is>
           <t>694</t>
         </is>
       </c>
-      <c r="B10" s="4" t="n">
+      <c r="B10" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="4" t="n">
-        <v>4</v>
+      <c r="C10" s="7" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -7132,7 +7135,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -7145,7 +7148,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -7158,7 +7161,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -7168,10 +7171,10 @@
         </is>
       </c>
       <c r="B14" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -7181,10 +7184,10 @@
         </is>
       </c>
       <c r="B15" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15" s="4" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
@@ -7194,10 +7197,10 @@
         </is>
       </c>
       <c r="B16" s="6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
@@ -7210,7 +7213,7 @@
         <v>2</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18">
@@ -7223,7 +7226,7 @@
         <v>2</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19">
@@ -7233,10 +7236,10 @@
         </is>
       </c>
       <c r="B19" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20">
@@ -7246,7 +7249,7 @@
         </is>
       </c>
       <c r="B20" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C20" s="3" t="n">
         <v>23</v>
@@ -7259,10 +7262,10 @@
         </is>
       </c>
       <c r="B21" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C21" s="3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22">
@@ -7272,10 +7275,10 @@
         </is>
       </c>
       <c r="B22" s="3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C22" s="3" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23">
@@ -7285,10 +7288,10 @@
         </is>
       </c>
       <c r="B23" s="3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24">
@@ -7298,10 +7301,10 @@
         </is>
       </c>
       <c r="B24" s="3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C24" s="3" t="n">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25">
@@ -7311,10 +7314,10 @@
         </is>
       </c>
       <c r="B25" s="3" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C25" s="3" t="n">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26">
@@ -7324,10 +7327,10 @@
         </is>
       </c>
       <c r="B26" s="3" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C26" s="3" t="n">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27">
@@ -7337,10 +7340,10 @@
         </is>
       </c>
       <c r="B27" s="3" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C27" s="3" t="n">
-        <v>83</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28">
@@ -7350,10 +7353,10 @@
         </is>
       </c>
       <c r="B28" s="3" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C28" s="3" t="n">
-        <v>101</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29">
@@ -7363,10 +7366,10 @@
         </is>
       </c>
       <c r="B29" s="3" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C29" s="3" t="n">
-        <v>123</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30">
@@ -7376,10 +7379,10 @@
         </is>
       </c>
       <c r="B30" s="3" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C30" s="3" t="n">
-        <v>148</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31">
@@ -7389,10 +7392,10 @@
         </is>
       </c>
       <c r="B31" s="3" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C31" s="3" t="n">
-        <v>176</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32">
@@ -7402,10 +7405,10 @@
         </is>
       </c>
       <c r="B32" s="3" t="n">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="C32" s="3" t="n">
-        <v>208</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33">
@@ -7415,10 +7418,10 @@
         </is>
       </c>
       <c r="B33" s="3" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C33" s="3" t="n">
-        <v>243</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34">
@@ -7428,10 +7431,10 @@
         </is>
       </c>
       <c r="B34" s="3" t="n">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C34" s="3" t="n">
-        <v>281</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35">
@@ -7441,10 +7444,10 @@
         </is>
       </c>
       <c r="B35" s="3" t="n">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="C35" s="3" t="n">
-        <v>323</v>
+        <v>174</v>
       </c>
     </row>
     <row r="36">
@@ -7454,10 +7457,10 @@
         </is>
       </c>
       <c r="B36" s="3" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="C36" s="3" t="n">
-        <v>368</v>
+        <v>194</v>
       </c>
     </row>
     <row r="37">
@@ -7467,10 +7470,10 @@
         </is>
       </c>
       <c r="B37" s="3" t="n">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="C37" s="3" t="n">
-        <v>416</v>
+        <v>216</v>
       </c>
     </row>
     <row r="38">
@@ -7480,10 +7483,10 @@
         </is>
       </c>
       <c r="B38" s="3" t="n">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="C38" s="3" t="n">
-        <v>468</v>
+        <v>240</v>
       </c>
     </row>
     <row r="39">
@@ -7493,10 +7496,10 @@
         </is>
       </c>
       <c r="B39" s="3" t="n">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="C39" s="3" t="n">
-        <v>523</v>
+        <v>266</v>
       </c>
     </row>
     <row r="40">
@@ -7506,10 +7509,10 @@
         </is>
       </c>
       <c r="B40" s="3" t="n">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="C40" s="3" t="n">
-        <v>581</v>
+        <v>294</v>
       </c>
     </row>
     <row r="41">
@@ -7519,10 +7522,10 @@
         </is>
       </c>
       <c r="B41" s="3" t="n">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="C41" s="3" t="n">
-        <v>643</v>
+        <v>324</v>
       </c>
     </row>
     <row r="42">
@@ -7532,10 +7535,10 @@
         </is>
       </c>
       <c r="B42" s="3" t="n">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="C42" s="3" t="n">
-        <v>708</v>
+        <v>356</v>
       </c>
     </row>
     <row r="43">
@@ -7545,10 +7548,10 @@
         </is>
       </c>
       <c r="B43" s="3" t="n">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="C43" s="3" t="n">
-        <v>776</v>
+        <v>390</v>
       </c>
     </row>
     <row r="44">
@@ -7558,10 +7561,10 @@
         </is>
       </c>
       <c r="B44" s="3" t="n">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="C44" s="3" t="n">
-        <v>848</v>
+        <v>426</v>
       </c>
     </row>
     <row r="45">
@@ -7571,10 +7574,10 @@
         </is>
       </c>
       <c r="B45" s="3" t="n">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="C45" s="3" t="n">
-        <v>923</v>
+        <v>464</v>
       </c>
     </row>
     <row r="46">
@@ -7584,10 +7587,10 @@
         </is>
       </c>
       <c r="B46" s="3" t="n">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="C46" s="3" t="n">
-        <v>1001</v>
+        <v>504</v>
       </c>
     </row>
     <row r="47">
@@ -7597,10 +7600,10 @@
         </is>
       </c>
       <c r="B47" s="3" t="n">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="C47" s="3" t="n">
-        <v>1083</v>
+        <v>546</v>
       </c>
     </row>
     <row r="48">
@@ -7610,10 +7613,10 @@
         </is>
       </c>
       <c r="B48" s="3" t="n">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="C48" s="3" t="n">
-        <v>1168</v>
+        <v>590</v>
       </c>
     </row>
     <row r="49">
@@ -7623,10 +7626,10 @@
         </is>
       </c>
       <c r="B49" s="3" t="n">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="C49" s="3" t="n">
-        <v>1256</v>
+        <v>636</v>
       </c>
     </row>
     <row r="50">
@@ -7636,10 +7639,10 @@
         </is>
       </c>
       <c r="B50" s="3" t="n">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="C50" s="3" t="n">
-        <v>1348</v>
+        <v>684</v>
       </c>
     </row>
     <row r="51">
@@ -7649,10 +7652,10 @@
         </is>
       </c>
       <c r="B51" s="3" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="C51" s="3" t="n">
-        <v>1443</v>
+        <v>734</v>
       </c>
     </row>
     <row r="52">
@@ -7662,10 +7665,10 @@
         </is>
       </c>
       <c r="B52" s="3" t="n">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="C52" s="3" t="n">
-        <v>1541</v>
+        <v>786</v>
       </c>
     </row>
     <row r="53">
@@ -7675,10 +7678,10 @@
         </is>
       </c>
       <c r="B53" s="3" t="n">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="C53" s="3" t="n">
-        <v>1643</v>
+        <v>840</v>
       </c>
     </row>
     <row r="54">
@@ -7688,10 +7691,10 @@
         </is>
       </c>
       <c r="B54" s="3" t="n">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="C54" s="3" t="n">
-        <v>1748</v>
+        <v>896</v>
       </c>
     </row>
     <row r="55">
@@ -7701,10 +7704,10 @@
         </is>
       </c>
       <c r="B55" s="3" t="n">
-        <v>108</v>
+        <v>58</v>
       </c>
       <c r="C55" s="3" t="n">
-        <v>1856</v>
+        <v>954</v>
       </c>
     </row>
     <row r="56">
@@ -7714,10 +7717,10 @@
         </is>
       </c>
       <c r="B56" s="3" t="n">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="C56" s="3" t="n">
-        <v>1968</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="57">
@@ -7727,10 +7730,10 @@
         </is>
       </c>
       <c r="B57" s="3" t="n">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="C57" s="3" t="n">
-        <v>2083</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="58">
@@ -7740,10 +7743,10 @@
         </is>
       </c>
       <c r="B58" s="3" t="n">
-        <v>118</v>
+        <v>64</v>
       </c>
       <c r="C58" s="3" t="n">
-        <v>2201</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="59">
@@ -7753,10 +7756,10 @@
         </is>
       </c>
       <c r="B59" s="3" t="n">
-        <v>122</v>
+        <v>66</v>
       </c>
       <c r="C59" s="3" t="n">
-        <v>2323</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="60">
@@ -7766,10 +7769,10 @@
         </is>
       </c>
       <c r="B60" s="3" t="n">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="C60" s="3" t="n">
-        <v>2448</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="61">
@@ -7779,10 +7782,10 @@
         </is>
       </c>
       <c r="B61" s="3" t="n">
-        <v>128</v>
+        <v>70</v>
       </c>
       <c r="C61" s="3" t="n">
-        <v>2576</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="62">
@@ -7792,10 +7795,10 @@
         </is>
       </c>
       <c r="B62" s="3" t="n">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="C62" s="3" t="n">
-        <v>2708</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="63">
@@ -7805,10 +7808,10 @@
         </is>
       </c>
       <c r="B63" s="3" t="n">
-        <v>135</v>
+        <v>74</v>
       </c>
       <c r="C63" s="3" t="n">
-        <v>2843</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="64">
@@ -7818,10 +7821,10 @@
         </is>
       </c>
       <c r="B64" s="3" t="n">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="C64" s="3" t="n">
-        <v>2981</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="65">
@@ -7831,10 +7834,10 @@
         </is>
       </c>
       <c r="B65" s="3" t="n">
-        <v>142</v>
+        <v>78</v>
       </c>
       <c r="C65" s="3" t="n">
-        <v>3123</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="66">
@@ -7844,10 +7847,10 @@
         </is>
       </c>
       <c r="B66" s="3" t="n">
-        <v>145</v>
+        <v>80</v>
       </c>
       <c r="C66" s="3" t="n">
-        <v>3268</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="67">
@@ -7857,10 +7860,10 @@
         </is>
       </c>
       <c r="B67" s="3" t="n">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="C67" s="3" t="n">
-        <v>3416</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="68">
@@ -7870,10 +7873,10 @@
         </is>
       </c>
       <c r="B68" s="3" t="n">
-        <v>152</v>
+        <v>84</v>
       </c>
       <c r="C68" s="3" t="n">
-        <v>3568</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="69">
@@ -7883,10 +7886,10 @@
         </is>
       </c>
       <c r="B69" s="3" t="n">
-        <v>155</v>
+        <v>86</v>
       </c>
       <c r="C69" s="3" t="n">
-        <v>3723</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="70">
@@ -7896,10 +7899,10 @@
         </is>
       </c>
       <c r="B70" s="3" t="n">
-        <v>158</v>
+        <v>88</v>
       </c>
       <c r="C70" s="3" t="n">
-        <v>3881</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="71">
@@ -7909,10 +7912,10 @@
         </is>
       </c>
       <c r="B71" s="3" t="n">
-        <v>162</v>
+        <v>90</v>
       </c>
       <c r="C71" s="3" t="n">
-        <v>4043</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="72">
@@ -7922,10 +7925,10 @@
         </is>
       </c>
       <c r="B72" s="3" t="n">
-        <v>165</v>
+        <v>92</v>
       </c>
       <c r="C72" s="3" t="n">
-        <v>4208</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="73">
@@ -7935,10 +7938,10 @@
         </is>
       </c>
       <c r="B73" s="3" t="n">
-        <v>168</v>
+        <v>94</v>
       </c>
       <c r="C73" s="3" t="n">
-        <v>4376</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="74">
@@ -7948,10 +7951,10 @@
         </is>
       </c>
       <c r="B74" s="3" t="n">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="C74" s="3" t="n">
-        <v>4548</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="75">
@@ -7961,10 +7964,10 @@
         </is>
       </c>
       <c r="B75" s="3" t="n">
-        <v>175</v>
+        <v>98</v>
       </c>
       <c r="C75" s="3" t="n">
-        <v>4723</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="76">
@@ -7974,10 +7977,10 @@
         </is>
       </c>
       <c r="B76" s="3" t="n">
-        <v>178</v>
+        <v>100</v>
       </c>
       <c r="C76" s="3" t="n">
-        <v>4901</v>
+        <v>2634</v>
       </c>
     </row>
     <row r="77">
@@ -7987,10 +7990,10 @@
         </is>
       </c>
       <c r="B77" s="3" t="n">
-        <v>182</v>
+        <v>102</v>
       </c>
       <c r="C77" s="3" t="n">
-        <v>5083</v>
+        <v>2736</v>
       </c>
     </row>
     <row r="78">
@@ -8000,10 +8003,10 @@
         </is>
       </c>
       <c r="B78" s="3" t="n">
-        <v>185</v>
+        <v>104</v>
       </c>
       <c r="C78" s="3" t="n">
-        <v>5268</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="79">
@@ -8013,10 +8016,10 @@
         </is>
       </c>
       <c r="B79" s="3" t="n">
-        <v>188</v>
+        <v>106</v>
       </c>
       <c r="C79" s="3" t="n">
-        <v>5456</v>
+        <v>2946</v>
       </c>
     </row>
     <row r="80">
@@ -8026,10 +8029,10 @@
         </is>
       </c>
       <c r="B80" s="3" t="n">
-        <v>192</v>
+        <v>108</v>
       </c>
       <c r="C80" s="3" t="n">
-        <v>5648</v>
+        <v>3054</v>
       </c>
     </row>
     <row r="81">
@@ -8039,10 +8042,10 @@
         </is>
       </c>
       <c r="B81" s="3" t="n">
-        <v>195</v>
+        <v>110</v>
       </c>
       <c r="C81" s="3" t="n">
-        <v>5843</v>
+        <v>3164</v>
       </c>
     </row>
     <row r="82">
@@ -8052,10 +8055,10 @@
         </is>
       </c>
       <c r="B82" s="3" t="n">
-        <v>198</v>
+        <v>112</v>
       </c>
       <c r="C82" s="3" t="n">
-        <v>6041</v>
+        <v>3276</v>
       </c>
     </row>
     <row r="83">
@@ -8065,10 +8068,10 @@
         </is>
       </c>
       <c r="B83" s="3" t="n">
-        <v>202</v>
+        <v>114</v>
       </c>
       <c r="C83" s="3" t="n">
-        <v>6243</v>
+        <v>3390</v>
       </c>
     </row>
     <row r="84">
@@ -8078,10 +8081,10 @@
         </is>
       </c>
       <c r="B84" s="3" t="n">
-        <v>205</v>
+        <v>116</v>
       </c>
       <c r="C84" s="3" t="n">
-        <v>6448</v>
+        <v>3506</v>
       </c>
     </row>
     <row r="85">
@@ -8091,10 +8094,10 @@
         </is>
       </c>
       <c r="B85" s="3" t="n">
-        <v>208</v>
+        <v>118</v>
       </c>
       <c r="C85" s="3" t="n">
-        <v>6656</v>
+        <v>3624</v>
       </c>
     </row>
     <row r="86">
@@ -8104,10 +8107,10 @@
         </is>
       </c>
       <c r="B86" s="3" t="n">
-        <v>212</v>
+        <v>120</v>
       </c>
       <c r="C86" s="3" t="n">
-        <v>6868</v>
+        <v>3744</v>
       </c>
     </row>
     <row r="87">
@@ -8117,10 +8120,10 @@
         </is>
       </c>
       <c r="B87" s="3" t="n">
-        <v>215</v>
+        <v>122</v>
       </c>
       <c r="C87" s="3" t="n">
-        <v>7083</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="88">
@@ -8130,10 +8133,10 @@
         </is>
       </c>
       <c r="B88" s="3" t="n">
-        <v>218</v>
+        <v>124</v>
       </c>
       <c r="C88" s="3" t="n">
-        <v>7301</v>
+        <v>3990</v>
       </c>
     </row>
     <row r="89">
@@ -8143,10 +8146,10 @@
         </is>
       </c>
       <c r="B89" s="3" t="n">
-        <v>222</v>
+        <v>126</v>
       </c>
       <c r="C89" s="3" t="n">
-        <v>7523</v>
+        <v>4116</v>
       </c>
     </row>
     <row r="90">
@@ -8156,10 +8159,10 @@
         </is>
       </c>
       <c r="B90" s="3" t="n">
-        <v>225</v>
+        <v>128</v>
       </c>
       <c r="C90" s="3" t="n">
-        <v>7748</v>
+        <v>4244</v>
       </c>
     </row>
     <row r="91">
@@ -8169,10 +8172,10 @@
         </is>
       </c>
       <c r="B91" s="3" t="n">
-        <v>228</v>
+        <v>130</v>
       </c>
       <c r="C91" s="3" t="n">
-        <v>7976</v>
+        <v>4374</v>
       </c>
     </row>
     <row r="92">
@@ -8182,10 +8185,10 @@
         </is>
       </c>
       <c r="B92" s="3" t="n">
-        <v>232</v>
+        <v>132</v>
       </c>
       <c r="C92" s="3" t="n">
-        <v>8208</v>
+        <v>4506</v>
       </c>
     </row>
     <row r="93">
@@ -8195,10 +8198,10 @@
         </is>
       </c>
       <c r="B93" s="3" t="n">
-        <v>235</v>
+        <v>134</v>
       </c>
       <c r="C93" s="3" t="n">
-        <v>8443</v>
+        <v>4640</v>
       </c>
     </row>
     <row r="94">
@@ -8208,10 +8211,10 @@
         </is>
       </c>
       <c r="B94" s="3" t="n">
-        <v>238</v>
+        <v>136</v>
       </c>
       <c r="C94" s="3" t="n">
-        <v>8681</v>
+        <v>4776</v>
       </c>
     </row>
     <row r="95">
@@ -8221,10 +8224,10 @@
         </is>
       </c>
       <c r="B95" s="3" t="n">
-        <v>242</v>
+        <v>138</v>
       </c>
       <c r="C95" s="3" t="n">
-        <v>8923</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="96">
@@ -8234,10 +8237,10 @@
         </is>
       </c>
       <c r="B96" s="3" t="n">
-        <v>245</v>
+        <v>140</v>
       </c>
       <c r="C96" s="3" t="n">
-        <v>9168</v>
+        <v>5054</v>
       </c>
     </row>
     <row r="97">
@@ -8247,10 +8250,10 @@
         </is>
       </c>
       <c r="B97" s="3" t="n">
-        <v>248</v>
+        <v>142</v>
       </c>
       <c r="C97" s="3" t="n">
-        <v>9416</v>
+        <v>5196</v>
       </c>
     </row>
     <row r="98">
@@ -8260,10 +8263,10 @@
         </is>
       </c>
       <c r="B98" s="3" t="n">
-        <v>252</v>
+        <v>144</v>
       </c>
       <c r="C98" s="3" t="n">
-        <v>9668</v>
+        <v>5340</v>
       </c>
     </row>
     <row r="99">
@@ -8273,10 +8276,10 @@
         </is>
       </c>
       <c r="B99" s="3" t="n">
-        <v>255</v>
+        <v>146</v>
       </c>
       <c r="C99" s="3" t="n">
-        <v>9923</v>
+        <v>5486</v>
       </c>
     </row>
     <row r="100">
@@ -8286,10 +8289,10 @@
         </is>
       </c>
       <c r="B100" s="3" t="n">
-        <v>258</v>
+        <v>148</v>
       </c>
       <c r="C100" s="3" t="n">
-        <v>10181</v>
+        <v>5634</v>
       </c>
     </row>
     <row r="101">
@@ -8299,10 +8302,10 @@
         </is>
       </c>
       <c r="B101" s="3" t="n">
-        <v>262</v>
+        <v>150</v>
       </c>
       <c r="C101" s="3" t="n">
-        <v>10443</v>
+        <v>5784</v>
       </c>
     </row>
     <row r="102">
@@ -8312,10 +8315,10 @@
         </is>
       </c>
       <c r="B102" s="3" t="n">
-        <v>265</v>
+        <v>152</v>
       </c>
       <c r="C102" s="3" t="n">
-        <v>10708</v>
+        <v>5936</v>
       </c>
     </row>
     <row r="103">
@@ -8325,10 +8328,10 @@
         </is>
       </c>
       <c r="B103" s="3" t="n">
-        <v>268</v>
+        <v>154</v>
       </c>
       <c r="C103" s="3" t="n">
-        <v>10976</v>
+        <v>6090</v>
       </c>
     </row>
     <row r="104">
@@ -8338,10 +8341,10 @@
         </is>
       </c>
       <c r="B104" s="3" t="n">
-        <v>272</v>
+        <v>156</v>
       </c>
       <c r="C104" s="3" t="n">
-        <v>11248</v>
+        <v>6246</v>
       </c>
     </row>
     <row r="105">
@@ -8351,10 +8354,10 @@
         </is>
       </c>
       <c r="B105" s="3" t="n">
-        <v>275</v>
+        <v>158</v>
       </c>
       <c r="C105" s="3" t="n">
-        <v>11523</v>
+        <v>6404</v>
       </c>
     </row>
     <row r="106">
@@ -8364,10 +8367,10 @@
         </is>
       </c>
       <c r="B106" s="3" t="n">
-        <v>278</v>
+        <v>160</v>
       </c>
       <c r="C106" s="3" t="n">
-        <v>11801</v>
+        <v>6564</v>
       </c>
     </row>
     <row r="107">
@@ -8377,10 +8380,10 @@
         </is>
       </c>
       <c r="B107" s="3" t="n">
-        <v>282</v>
+        <v>162</v>
       </c>
       <c r="C107" s="3" t="n">
-        <v>12083</v>
+        <v>6726</v>
       </c>
     </row>
     <row r="108">
@@ -8390,10 +8393,10 @@
         </is>
       </c>
       <c r="B108" s="3" t="n">
-        <v>285</v>
+        <v>164</v>
       </c>
       <c r="C108" s="3" t="n">
-        <v>12368</v>
+        <v>6890</v>
       </c>
     </row>
     <row r="109">
@@ -8403,10 +8406,10 @@
         </is>
       </c>
       <c r="B109" s="3" t="n">
-        <v>288</v>
+        <v>166</v>
       </c>
       <c r="C109" s="3" t="n">
-        <v>12656</v>
+        <v>7056</v>
       </c>
     </row>
     <row r="110">
@@ -8416,10 +8419,10 @@
         </is>
       </c>
       <c r="B110" s="3" t="n">
-        <v>292</v>
+        <v>168</v>
       </c>
       <c r="C110" s="3" t="n">
-        <v>12948</v>
+        <v>7224</v>
       </c>
     </row>
     <row r="111">
@@ -8429,10 +8432,10 @@
         </is>
       </c>
       <c r="B111" s="3" t="n">
-        <v>295</v>
+        <v>170</v>
       </c>
       <c r="C111" s="3" t="n">
-        <v>13243</v>
+        <v>7394</v>
       </c>
     </row>
     <row r="112">
@@ -8442,10 +8445,10 @@
         </is>
       </c>
       <c r="B112" s="3" t="n">
-        <v>298</v>
+        <v>172</v>
       </c>
       <c r="C112" s="3" t="n">
-        <v>13541</v>
+        <v>7566</v>
       </c>
     </row>
     <row r="113">
@@ -8455,10 +8458,10 @@
         </is>
       </c>
       <c r="B113" s="3" t="n">
-        <v>302</v>
+        <v>174</v>
       </c>
       <c r="C113" s="3" t="n">
-        <v>13843</v>
+        <v>7740</v>
       </c>
     </row>
     <row r="114">
@@ -8468,10 +8471,10 @@
         </is>
       </c>
       <c r="B114" s="3" t="n">
-        <v>305</v>
+        <v>176</v>
       </c>
       <c r="C114" s="3" t="n">
-        <v>14148</v>
+        <v>7916</v>
       </c>
     </row>
     <row r="115">
@@ -8481,10 +8484,10 @@
         </is>
       </c>
       <c r="B115" s="3" t="n">
-        <v>308</v>
+        <v>178</v>
       </c>
       <c r="C115" s="3" t="n">
-        <v>14456</v>
+        <v>8094</v>
       </c>
     </row>
     <row r="116">
@@ -8494,10 +8497,10 @@
         </is>
       </c>
       <c r="B116" s="3" t="n">
-        <v>312</v>
+        <v>180</v>
       </c>
       <c r="C116" s="3" t="n">
-        <v>14768</v>
+        <v>8274</v>
       </c>
     </row>
     <row r="117">
@@ -8507,10 +8510,10 @@
         </is>
       </c>
       <c r="B117" s="3" t="n">
-        <v>315</v>
+        <v>182</v>
       </c>
       <c r="C117" s="3" t="n">
-        <v>15083</v>
+        <v>8456</v>
       </c>
     </row>
     <row r="118">
@@ -8520,10 +8523,10 @@
         </is>
       </c>
       <c r="B118" s="3" t="n">
-        <v>318</v>
+        <v>184</v>
       </c>
       <c r="C118" s="3" t="n">
-        <v>15401</v>
+        <v>8640</v>
       </c>
     </row>
     <row r="119">
@@ -8533,10 +8536,10 @@
         </is>
       </c>
       <c r="B119" s="3" t="n">
-        <v>322</v>
+        <v>186</v>
       </c>
       <c r="C119" s="3" t="n">
-        <v>15723</v>
+        <v>8826</v>
       </c>
     </row>
     <row r="120">
@@ -8546,10 +8549,10 @@
         </is>
       </c>
       <c r="B120" s="3" t="n">
-        <v>325</v>
+        <v>188</v>
       </c>
       <c r="C120" s="3" t="n">
-        <v>16048</v>
+        <v>9014</v>
       </c>
     </row>
     <row r="121">
@@ -8559,10 +8562,10 @@
         </is>
       </c>
       <c r="B121" s="3" t="n">
-        <v>328</v>
+        <v>190</v>
       </c>
       <c r="C121" s="3" t="n">
-        <v>16376</v>
+        <v>9204</v>
       </c>
     </row>
     <row r="122">
@@ -8572,10 +8575,10 @@
         </is>
       </c>
       <c r="B122" s="3" t="n">
-        <v>332</v>
+        <v>192</v>
       </c>
       <c r="C122" s="3" t="n">
-        <v>16708</v>
+        <v>9396</v>
       </c>
     </row>
     <row r="123">
@@ -8585,10 +8588,10 @@
         </is>
       </c>
       <c r="B123" s="3" t="n">
-        <v>335</v>
+        <v>194</v>
       </c>
       <c r="C123" s="3" t="n">
-        <v>17043</v>
+        <v>9590</v>
       </c>
     </row>
     <row r="124">
@@ -8598,10 +8601,10 @@
         </is>
       </c>
       <c r="B124" s="3" t="n">
-        <v>338</v>
+        <v>196</v>
       </c>
       <c r="C124" s="3" t="n">
-        <v>17381</v>
+        <v>9786</v>
       </c>
     </row>
     <row r="125">
@@ -8611,10 +8614,10 @@
         </is>
       </c>
       <c r="B125" s="3" t="n">
-        <v>342</v>
+        <v>198</v>
       </c>
       <c r="C125" s="3" t="n">
-        <v>17723</v>
+        <v>9984</v>
       </c>
     </row>
     <row r="126">
@@ -8624,10 +8627,10 @@
         </is>
       </c>
       <c r="B126" s="3" t="n">
-        <v>345</v>
+        <v>200</v>
       </c>
       <c r="C126" s="3" t="n">
-        <v>18068</v>
+        <v>10184</v>
       </c>
     </row>
     <row r="127">
@@ -8637,10 +8640,10 @@
         </is>
       </c>
       <c r="B127" s="3" t="n">
-        <v>348</v>
+        <v>202</v>
       </c>
       <c r="C127" s="3" t="n">
-        <v>18416</v>
+        <v>10386</v>
       </c>
     </row>
     <row r="128">
@@ -8650,10 +8653,10 @@
         </is>
       </c>
       <c r="B128" s="3" t="n">
-        <v>352</v>
+        <v>204</v>
       </c>
       <c r="C128" s="3" t="n">
-        <v>18768</v>
+        <v>10590</v>
       </c>
     </row>
     <row r="129">
@@ -8663,10 +8666,10 @@
         </is>
       </c>
       <c r="B129" s="3" t="n">
-        <v>355</v>
+        <v>206</v>
       </c>
       <c r="C129" s="3" t="n">
-        <v>19123</v>
+        <v>10796</v>
       </c>
     </row>
     <row r="130">
@@ -8676,10 +8679,10 @@
         </is>
       </c>
       <c r="B130" s="3" t="n">
-        <v>358</v>
+        <v>208</v>
       </c>
       <c r="C130" s="3" t="n">
-        <v>19481</v>
+        <v>11004</v>
       </c>
     </row>
     <row r="131">
@@ -8689,10 +8692,10 @@
         </is>
       </c>
       <c r="B131" s="3" t="n">
-        <v>362</v>
+        <v>210</v>
       </c>
       <c r="C131" s="3" t="n">
-        <v>19843</v>
+        <v>11214</v>
       </c>
     </row>
     <row r="132">
@@ -8702,10 +8705,10 @@
         </is>
       </c>
       <c r="B132" s="3" t="n">
-        <v>365</v>
+        <v>212</v>
       </c>
       <c r="C132" s="3" t="n">
-        <v>20208</v>
+        <v>11426</v>
       </c>
     </row>
     <row r="133">
@@ -8715,10 +8718,10 @@
         </is>
       </c>
       <c r="B133" s="3" t="n">
-        <v>368</v>
+        <v>214</v>
       </c>
       <c r="C133" s="3" t="n">
-        <v>20576</v>
+        <v>11640</v>
       </c>
     </row>
     <row r="134">
@@ -8728,10 +8731,10 @@
         </is>
       </c>
       <c r="B134" s="3" t="n">
-        <v>372</v>
+        <v>216</v>
       </c>
       <c r="C134" s="3" t="n">
-        <v>20948</v>
+        <v>11856</v>
       </c>
     </row>
     <row r="135">
@@ -8741,10 +8744,10 @@
         </is>
       </c>
       <c r="B135" s="3" t="n">
-        <v>375</v>
+        <v>218</v>
       </c>
       <c r="C135" s="3" t="n">
-        <v>21323</v>
+        <v>12074</v>
       </c>
     </row>
     <row r="136">
@@ -8754,10 +8757,10 @@
         </is>
       </c>
       <c r="B136" s="3" t="n">
-        <v>378</v>
+        <v>220</v>
       </c>
       <c r="C136" s="3" t="n">
-        <v>21701</v>
+        <v>12294</v>
       </c>
     </row>
     <row r="137">
@@ -8767,10 +8770,10 @@
         </is>
       </c>
       <c r="B137" s="3" t="n">
-        <v>382</v>
+        <v>222</v>
       </c>
       <c r="C137" s="3" t="n">
-        <v>22083</v>
+        <v>12516</v>
       </c>
     </row>
     <row r="138">
@@ -8780,10 +8783,10 @@
         </is>
       </c>
       <c r="B138" s="3" t="n">
-        <v>385</v>
+        <v>224</v>
       </c>
       <c r="C138" s="3" t="n">
-        <v>22468</v>
+        <v>12740</v>
       </c>
     </row>
     <row r="139">
@@ -8793,10 +8796,10 @@
         </is>
       </c>
       <c r="B139" s="3" t="n">
-        <v>388</v>
+        <v>226</v>
       </c>
       <c r="C139" s="3" t="n">
-        <v>22856</v>
+        <v>12966</v>
       </c>
     </row>
     <row r="140">
@@ -8806,10 +8809,10 @@
         </is>
       </c>
       <c r="B140" s="3" t="n">
-        <v>392</v>
+        <v>228</v>
       </c>
       <c r="C140" s="3" t="n">
-        <v>23248</v>
+        <v>13194</v>
       </c>
     </row>
     <row r="141">
@@ -8819,10 +8822,10 @@
         </is>
       </c>
       <c r="B141" s="3" t="n">
-        <v>395</v>
+        <v>230</v>
       </c>
       <c r="C141" s="3" t="n">
-        <v>23643</v>
+        <v>13424</v>
       </c>
     </row>
     <row r="142">
@@ -8832,10 +8835,10 @@
         </is>
       </c>
       <c r="B142" s="3" t="n">
-        <v>398</v>
+        <v>232</v>
       </c>
       <c r="C142" s="3" t="n">
-        <v>24041</v>
+        <v>13656</v>
       </c>
     </row>
     <row r="143">
@@ -8845,10 +8848,10 @@
         </is>
       </c>
       <c r="B143" s="3" t="n">
-        <v>402</v>
+        <v>234</v>
       </c>
       <c r="C143" s="3" t="n">
-        <v>24443</v>
+        <v>13890</v>
       </c>
     </row>
     <row r="144">
@@ -8858,10 +8861,10 @@
         </is>
       </c>
       <c r="B144" s="3" t="n">
-        <v>405</v>
+        <v>236</v>
       </c>
       <c r="C144" s="3" t="n">
-        <v>24848</v>
+        <v>14126</v>
       </c>
     </row>
     <row r="145">
@@ -8871,10 +8874,10 @@
         </is>
       </c>
       <c r="B145" s="3" t="n">
-        <v>408</v>
+        <v>238</v>
       </c>
       <c r="C145" s="3" t="n">
-        <v>25256</v>
+        <v>14364</v>
       </c>
     </row>
     <row r="146">
@@ -8884,10 +8887,10 @@
         </is>
       </c>
       <c r="B146" s="3" t="n">
-        <v>412</v>
+        <v>240</v>
       </c>
       <c r="C146" s="3" t="n">
-        <v>25668</v>
+        <v>14604</v>
       </c>
     </row>
     <row r="147">
@@ -8897,10 +8900,10 @@
         </is>
       </c>
       <c r="B147" s="3" t="n">
-        <v>415</v>
+        <v>242</v>
       </c>
       <c r="C147" s="3" t="n">
-        <v>26083</v>
+        <v>14846</v>
       </c>
     </row>
     <row r="148">
@@ -8910,10 +8913,10 @@
         </is>
       </c>
       <c r="B148" s="3" t="n">
-        <v>418</v>
+        <v>244</v>
       </c>
       <c r="C148" s="3" t="n">
-        <v>26501</v>
+        <v>15090</v>
       </c>
     </row>
     <row r="149">
@@ -8923,10 +8926,10 @@
         </is>
       </c>
       <c r="B149" s="3" t="n">
-        <v>422</v>
+        <v>246</v>
       </c>
       <c r="C149" s="3" t="n">
-        <v>26923</v>
+        <v>15336</v>
       </c>
     </row>
     <row r="150">
@@ -8936,10 +8939,10 @@
         </is>
       </c>
       <c r="B150" s="3" t="n">
-        <v>425</v>
+        <v>248</v>
       </c>
       <c r="C150" s="3" t="n">
-        <v>27348</v>
+        <v>15584</v>
       </c>
     </row>
     <row r="151">
@@ -8949,10 +8952,10 @@
         </is>
       </c>
       <c r="B151" s="3" t="n">
-        <v>428</v>
+        <v>250</v>
       </c>
       <c r="C151" s="3" t="n">
-        <v>27776</v>
+        <v>15834</v>
       </c>
     </row>
     <row r="152">
@@ -8962,10 +8965,10 @@
         </is>
       </c>
       <c r="B152" s="3" t="n">
-        <v>432</v>
+        <v>252</v>
       </c>
       <c r="C152" s="3" t="n">
-        <v>28208</v>
+        <v>16086</v>
       </c>
     </row>
     <row r="153">
@@ -8975,10 +8978,10 @@
         </is>
       </c>
       <c r="B153" s="3" t="n">
-        <v>435</v>
+        <v>254</v>
       </c>
       <c r="C153" s="3" t="n">
-        <v>28643</v>
+        <v>16340</v>
       </c>
     </row>
     <row r="154">
@@ -8988,10 +8991,10 @@
         </is>
       </c>
       <c r="B154" s="3" t="n">
-        <v>438</v>
+        <v>256</v>
       </c>
       <c r="C154" s="3" t="n">
-        <v>29081</v>
+        <v>16596</v>
       </c>
     </row>
     <row r="155">
@@ -9001,10 +9004,10 @@
         </is>
       </c>
       <c r="B155" s="3" t="n">
-        <v>442</v>
+        <v>258</v>
       </c>
       <c r="C155" s="3" t="n">
-        <v>29523</v>
+        <v>16854</v>
       </c>
     </row>
     <row r="156">
@@ -9014,10 +9017,10 @@
         </is>
       </c>
       <c r="B156" s="3" t="n">
-        <v>445</v>
+        <v>260</v>
       </c>
       <c r="C156" s="3" t="n">
-        <v>29968</v>
+        <v>17114</v>
       </c>
     </row>
     <row r="157">
@@ -9027,10 +9030,10 @@
         </is>
       </c>
       <c r="B157" s="3" t="n">
-        <v>448</v>
+        <v>262</v>
       </c>
       <c r="C157" s="3" t="n">
-        <v>30416</v>
+        <v>17376</v>
       </c>
     </row>
     <row r="158">
@@ -9040,10 +9043,10 @@
         </is>
       </c>
       <c r="B158" s="3" t="n">
-        <v>452</v>
+        <v>264</v>
       </c>
       <c r="C158" s="3" t="n">
-        <v>30868</v>
+        <v>17640</v>
       </c>
     </row>
     <row r="159">
@@ -9053,10 +9056,10 @@
         </is>
       </c>
       <c r="B159" s="3" t="n">
-        <v>455</v>
+        <v>266</v>
       </c>
       <c r="C159" s="3" t="n">
-        <v>31323</v>
+        <v>17906</v>
       </c>
     </row>
     <row r="160">
@@ -9066,10 +9069,10 @@
         </is>
       </c>
       <c r="B160" s="3" t="n">
-        <v>458</v>
+        <v>268</v>
       </c>
       <c r="C160" s="3" t="n">
-        <v>31781</v>
+        <v>18174</v>
       </c>
     </row>
     <row r="161">
@@ -9079,10 +9082,10 @@
         </is>
       </c>
       <c r="B161" s="3" t="n">
-        <v>462</v>
+        <v>270</v>
       </c>
       <c r="C161" s="3" t="n">
-        <v>32243</v>
+        <v>18444</v>
       </c>
     </row>
     <row r="162">
@@ -9092,10 +9095,10 @@
         </is>
       </c>
       <c r="B162" s="3" t="n">
-        <v>465</v>
+        <v>272</v>
       </c>
       <c r="C162" s="3" t="n">
-        <v>32708</v>
+        <v>18716</v>
       </c>
     </row>
     <row r="163">
@@ -9105,10 +9108,10 @@
         </is>
       </c>
       <c r="B163" s="3" t="n">
-        <v>468</v>
+        <v>274</v>
       </c>
       <c r="C163" s="3" t="n">
-        <v>33176</v>
+        <v>18990</v>
       </c>
     </row>
     <row r="164">
@@ -9118,10 +9121,10 @@
         </is>
       </c>
       <c r="B164" s="3" t="n">
-        <v>472</v>
+        <v>276</v>
       </c>
       <c r="C164" s="3" t="n">
-        <v>33648</v>
+        <v>19266</v>
       </c>
     </row>
     <row r="165">
@@ -9131,10 +9134,10 @@
         </is>
       </c>
       <c r="B165" s="3" t="n">
-        <v>475</v>
+        <v>278</v>
       </c>
       <c r="C165" s="3" t="n">
-        <v>34123</v>
+        <v>19544</v>
       </c>
     </row>
     <row r="166">
@@ -9144,10 +9147,10 @@
         </is>
       </c>
       <c r="B166" s="3" t="n">
-        <v>478</v>
+        <v>280</v>
       </c>
       <c r="C166" s="3" t="n">
-        <v>34601</v>
+        <v>19824</v>
       </c>
     </row>
     <row r="167">
@@ -9157,10 +9160,10 @@
         </is>
       </c>
       <c r="B167" s="3" t="n">
-        <v>482</v>
+        <v>282</v>
       </c>
       <c r="C167" s="3" t="n">
-        <v>35083</v>
+        <v>20106</v>
       </c>
     </row>
     <row r="168">
@@ -9170,10 +9173,10 @@
         </is>
       </c>
       <c r="B168" s="3" t="n">
-        <v>485</v>
+        <v>284</v>
       </c>
       <c r="C168" s="3" t="n">
-        <v>35568</v>
+        <v>20390</v>
       </c>
     </row>
     <row r="169">
@@ -9183,10 +9186,10 @@
         </is>
       </c>
       <c r="B169" s="3" t="n">
-        <v>488</v>
+        <v>286</v>
       </c>
       <c r="C169" s="3" t="n">
-        <v>36056</v>
+        <v>20676</v>
       </c>
     </row>
     <row r="170">
@@ -9196,10 +9199,10 @@
         </is>
       </c>
       <c r="B170" s="3" t="n">
-        <v>492</v>
+        <v>288</v>
       </c>
       <c r="C170" s="3" t="n">
-        <v>36548</v>
+        <v>20964</v>
       </c>
     </row>
     <row r="171">
@@ -9209,10 +9212,10 @@
         </is>
       </c>
       <c r="B171" s="3" t="n">
-        <v>495</v>
+        <v>290</v>
       </c>
       <c r="C171" s="3" t="n">
-        <v>37043</v>
+        <v>21254</v>
       </c>
     </row>
     <row r="172">
@@ -9222,10 +9225,10 @@
         </is>
       </c>
       <c r="B172" s="3" t="n">
-        <v>498</v>
+        <v>292</v>
       </c>
       <c r="C172" s="3" t="n">
-        <v>37541</v>
+        <v>21546</v>
       </c>
     </row>
     <row r="173">
@@ -9235,10 +9238,10 @@
         </is>
       </c>
       <c r="B173" s="3" t="n">
-        <v>502</v>
+        <v>294</v>
       </c>
       <c r="C173" s="3" t="n">
-        <v>38043</v>
+        <v>21840</v>
       </c>
     </row>
     <row r="174">
@@ -9248,10 +9251,10 @@
         </is>
       </c>
       <c r="B174" s="3" t="n">
-        <v>505</v>
+        <v>296</v>
       </c>
       <c r="C174" s="3" t="n">
-        <v>38548</v>
+        <v>22136</v>
       </c>
     </row>
     <row r="175">
@@ -9261,10 +9264,10 @@
         </is>
       </c>
       <c r="B175" s="3" t="n">
-        <v>508</v>
+        <v>298</v>
       </c>
       <c r="C175" s="3" t="n">
-        <v>39056</v>
+        <v>22434</v>
       </c>
     </row>
     <row r="176">
@@ -9274,10 +9277,10 @@
         </is>
       </c>
       <c r="B176" s="3" t="n">
-        <v>512</v>
+        <v>300</v>
       </c>
       <c r="C176" s="3" t="n">
-        <v>39568</v>
+        <v>22734</v>
       </c>
     </row>
     <row r="177">
@@ -9287,10 +9290,10 @@
         </is>
       </c>
       <c r="B177" s="3" t="n">
-        <v>515</v>
+        <v>302</v>
       </c>
       <c r="C177" s="3" t="n">
-        <v>40083</v>
+        <v>23036</v>
       </c>
     </row>
     <row r="178">
@@ -9300,10 +9303,10 @@
         </is>
       </c>
       <c r="B178" s="3" t="n">
-        <v>518</v>
+        <v>304</v>
       </c>
       <c r="C178" s="3" t="n">
-        <v>40601</v>
+        <v>23340</v>
       </c>
     </row>
     <row r="179">
@@ -9313,10 +9316,10 @@
         </is>
       </c>
       <c r="B179" s="3" t="n">
-        <v>522</v>
+        <v>306</v>
       </c>
       <c r="C179" s="3" t="n">
-        <v>41123</v>
+        <v>23646</v>
       </c>
     </row>
     <row r="180">
@@ -9326,10 +9329,10 @@
         </is>
       </c>
       <c r="B180" s="3" t="n">
-        <v>525</v>
+        <v>308</v>
       </c>
       <c r="C180" s="3" t="n">
-        <v>41648</v>
+        <v>23954</v>
       </c>
     </row>
     <row r="181">
@@ -9339,10 +9342,10 @@
         </is>
       </c>
       <c r="B181" s="3" t="n">
-        <v>528</v>
+        <v>310</v>
       </c>
       <c r="C181" s="3" t="n">
-        <v>42176</v>
+        <v>24264</v>
       </c>
     </row>
     <row r="182">
@@ -9352,10 +9355,10 @@
         </is>
       </c>
       <c r="B182" s="3" t="n">
-        <v>532</v>
+        <v>312</v>
       </c>
       <c r="C182" s="3" t="n">
-        <v>42708</v>
+        <v>24576</v>
       </c>
     </row>
     <row r="183">
@@ -9365,10 +9368,10 @@
         </is>
       </c>
       <c r="B183" s="3" t="n">
-        <v>535</v>
+        <v>314</v>
       </c>
       <c r="C183" s="3" t="n">
-        <v>43243</v>
+        <v>24890</v>
       </c>
     </row>
     <row r="184">
@@ -9378,10 +9381,10 @@
         </is>
       </c>
       <c r="B184" s="3" t="n">
-        <v>538</v>
+        <v>316</v>
       </c>
       <c r="C184" s="3" t="n">
-        <v>43781</v>
+        <v>25206</v>
       </c>
     </row>
     <row r="185">
@@ -9391,10 +9394,10 @@
         </is>
       </c>
       <c r="B185" s="3" t="n">
-        <v>542</v>
+        <v>318</v>
       </c>
       <c r="C185" s="3" t="n">
-        <v>44323</v>
+        <v>25524</v>
       </c>
     </row>
     <row r="186">
@@ -9404,10 +9407,10 @@
         </is>
       </c>
       <c r="B186" s="3" t="n">
-        <v>545</v>
+        <v>320</v>
       </c>
       <c r="C186" s="3" t="n">
-        <v>44868</v>
+        <v>25844</v>
       </c>
     </row>
     <row r="187">
@@ -9417,10 +9420,10 @@
         </is>
       </c>
       <c r="B187" s="3" t="n">
-        <v>548</v>
+        <v>322</v>
       </c>
       <c r="C187" s="3" t="n">
-        <v>45416</v>
+        <v>26166</v>
       </c>
     </row>
     <row r="188">
@@ -9430,10 +9433,10 @@
         </is>
       </c>
       <c r="B188" s="3" t="n">
-        <v>552</v>
+        <v>324</v>
       </c>
       <c r="C188" s="3" t="n">
-        <v>45968</v>
+        <v>26490</v>
       </c>
     </row>
     <row r="189">
@@ -9443,10 +9446,10 @@
         </is>
       </c>
       <c r="B189" s="3" t="n">
-        <v>555</v>
+        <v>326</v>
       </c>
       <c r="C189" s="3" t="n">
-        <v>46523</v>
+        <v>26816</v>
       </c>
     </row>
     <row r="190">
@@ -9456,10 +9459,10 @@
         </is>
       </c>
       <c r="B190" s="3" t="n">
-        <v>558</v>
+        <v>328</v>
       </c>
       <c r="C190" s="3" t="n">
-        <v>47081</v>
+        <v>27144</v>
       </c>
     </row>
     <row r="191">
@@ -9469,10 +9472,10 @@
         </is>
       </c>
       <c r="B191" s="3" t="n">
-        <v>562</v>
+        <v>330</v>
       </c>
       <c r="C191" s="3" t="n">
-        <v>47643</v>
+        <v>27474</v>
       </c>
     </row>
     <row r="192">
@@ -9482,10 +9485,10 @@
         </is>
       </c>
       <c r="B192" s="3" t="n">
-        <v>565</v>
+        <v>332</v>
       </c>
       <c r="C192" s="3" t="n">
-        <v>48208</v>
+        <v>27806</v>
       </c>
     </row>
     <row r="193">
@@ -9495,10 +9498,10 @@
         </is>
       </c>
       <c r="B193" s="3" t="n">
-        <v>568</v>
+        <v>334</v>
       </c>
       <c r="C193" s="3" t="n">
-        <v>48776</v>
+        <v>28140</v>
       </c>
     </row>
     <row r="194">
@@ -9508,10 +9511,10 @@
         </is>
       </c>
       <c r="B194" s="3" t="n">
-        <v>572</v>
+        <v>336</v>
       </c>
       <c r="C194" s="3" t="n">
-        <v>49348</v>
+        <v>28476</v>
       </c>
     </row>
     <row r="195">
@@ -9521,10 +9524,10 @@
         </is>
       </c>
       <c r="B195" s="3" t="n">
-        <v>575</v>
+        <v>338</v>
       </c>
       <c r="C195" s="3" t="n">
-        <v>49923</v>
+        <v>28814</v>
       </c>
     </row>
     <row r="196">
@@ -9534,10 +9537,10 @@
         </is>
       </c>
       <c r="B196" s="3" t="n">
-        <v>578</v>
+        <v>340</v>
       </c>
       <c r="C196" s="3" t="n">
-        <v>50501</v>
+        <v>29154</v>
       </c>
     </row>
     <row r="197">
@@ -9547,10 +9550,10 @@
         </is>
       </c>
       <c r="B197" s="3" t="n">
-        <v>582</v>
+        <v>342</v>
       </c>
       <c r="C197" s="3" t="n">
-        <v>51083</v>
+        <v>29496</v>
       </c>
     </row>
     <row r="198">
@@ -9560,10 +9563,10 @@
         </is>
       </c>
       <c r="B198" s="3" t="n">
-        <v>585</v>
+        <v>344</v>
       </c>
       <c r="C198" s="3" t="n">
-        <v>51668</v>
+        <v>29840</v>
       </c>
     </row>
     <row r="199">
@@ -9573,10 +9576,10 @@
         </is>
       </c>
       <c r="B199" s="3" t="n">
-        <v>588</v>
+        <v>346</v>
       </c>
       <c r="C199" s="3" t="n">
-        <v>52256</v>
+        <v>30186</v>
       </c>
     </row>
     <row r="200">
@@ -9586,10 +9589,10 @@
         </is>
       </c>
       <c r="B200" s="3" t="n">
-        <v>592</v>
+        <v>348</v>
       </c>
       <c r="C200" s="3" t="n">
-        <v>52848</v>
+        <v>30534</v>
       </c>
     </row>
     <row r="201">
@@ -9599,10 +9602,10 @@
         </is>
       </c>
       <c r="B201" s="3" t="n">
-        <v>595</v>
+        <v>350</v>
       </c>
       <c r="C201" s="3" t="n">
-        <v>53443</v>
+        <v>30884</v>
       </c>
     </row>
     <row r="202">
@@ -9612,10 +9615,10 @@
         </is>
       </c>
       <c r="B202" s="3" t="n">
-        <v>598</v>
+        <v>352</v>
       </c>
       <c r="C202" s="3" t="n">
-        <v>54041</v>
+        <v>31236</v>
       </c>
     </row>
     <row r="203">
@@ -9625,10 +9628,10 @@
         </is>
       </c>
       <c r="B203" s="3" t="n">
-        <v>602</v>
+        <v>354</v>
       </c>
       <c r="C203" s="3" t="n">
-        <v>54643</v>
+        <v>31590</v>
       </c>
     </row>
     <row r="204">
@@ -9638,10 +9641,10 @@
         </is>
       </c>
       <c r="B204" s="3" t="n">
-        <v>605</v>
+        <v>356</v>
       </c>
       <c r="C204" s="3" t="n">
-        <v>55248</v>
+        <v>31946</v>
       </c>
     </row>
     <row r="205">
@@ -9651,10 +9654,10 @@
         </is>
       </c>
       <c r="B205" s="3" t="n">
-        <v>608</v>
+        <v>358</v>
       </c>
       <c r="C205" s="3" t="n">
-        <v>55856</v>
+        <v>32304</v>
       </c>
     </row>
     <row r="206">
@@ -9664,10 +9667,10 @@
         </is>
       </c>
       <c r="B206" s="3" t="n">
-        <v>612</v>
+        <v>360</v>
       </c>
       <c r="C206" s="3" t="n">
-        <v>56468</v>
+        <v>32664</v>
       </c>
     </row>
     <row r="207">
@@ -9677,10 +9680,10 @@
         </is>
       </c>
       <c r="B207" s="3" t="n">
-        <v>615</v>
+        <v>362</v>
       </c>
       <c r="C207" s="3" t="n">
-        <v>57083</v>
+        <v>33026</v>
       </c>
     </row>
     <row r="208">
@@ -9690,10 +9693,10 @@
         </is>
       </c>
       <c r="B208" s="3" t="n">
-        <v>618</v>
+        <v>364</v>
       </c>
       <c r="C208" s="3" t="n">
-        <v>57701</v>
+        <v>33390</v>
       </c>
     </row>
     <row r="209">
@@ -9703,10 +9706,10 @@
         </is>
       </c>
       <c r="B209" s="3" t="n">
-        <v>622</v>
+        <v>366</v>
       </c>
       <c r="C209" s="3" t="n">
-        <v>58323</v>
+        <v>33756</v>
       </c>
     </row>
     <row r="210">
@@ -9716,10 +9719,10 @@
         </is>
       </c>
       <c r="B210" s="3" t="n">
-        <v>625</v>
+        <v>368</v>
       </c>
       <c r="C210" s="3" t="n">
-        <v>58948</v>
+        <v>34124</v>
       </c>
     </row>
     <row r="211">
@@ -9729,10 +9732,10 @@
         </is>
       </c>
       <c r="B211" s="3" t="n">
-        <v>628</v>
+        <v>370</v>
       </c>
       <c r="C211" s="3" t="n">
-        <v>59576</v>
+        <v>34494</v>
       </c>
     </row>
     <row r="212">
@@ -9742,10 +9745,10 @@
         </is>
       </c>
       <c r="B212" s="3" t="n">
-        <v>632</v>
+        <v>372</v>
       </c>
       <c r="C212" s="3" t="n">
-        <v>60208</v>
+        <v>34866</v>
       </c>
     </row>
     <row r="213">
@@ -9755,10 +9758,10 @@
         </is>
       </c>
       <c r="B213" s="3" t="n">
-        <v>635</v>
+        <v>374</v>
       </c>
       <c r="C213" s="3" t="n">
-        <v>60843</v>
+        <v>35240</v>
       </c>
     </row>
     <row r="214">
@@ -9768,10 +9771,10 @@
         </is>
       </c>
       <c r="B214" s="3" t="n">
-        <v>638</v>
+        <v>376</v>
       </c>
       <c r="C214" s="3" t="n">
-        <v>61481</v>
+        <v>35616</v>
       </c>
     </row>
     <row r="215">
@@ -9781,10 +9784,10 @@
         </is>
       </c>
       <c r="B215" s="3" t="n">
-        <v>642</v>
+        <v>378</v>
       </c>
       <c r="C215" s="3" t="n">
-        <v>62123</v>
+        <v>35994</v>
       </c>
     </row>
     <row r="216">
@@ -9794,10 +9797,10 @@
         </is>
       </c>
       <c r="B216" s="3" t="n">
-        <v>645</v>
+        <v>380</v>
       </c>
       <c r="C216" s="3" t="n">
-        <v>62768</v>
+        <v>36374</v>
       </c>
     </row>
     <row r="217">
@@ -9807,10 +9810,10 @@
         </is>
       </c>
       <c r="B217" s="3" t="n">
-        <v>648</v>
+        <v>382</v>
       </c>
       <c r="C217" s="3" t="n">
-        <v>63416</v>
+        <v>36756</v>
       </c>
     </row>
     <row r="218">
@@ -9820,10 +9823,10 @@
         </is>
       </c>
       <c r="B218" s="3" t="n">
-        <v>652</v>
+        <v>384</v>
       </c>
       <c r="C218" s="3" t="n">
-        <v>64068</v>
+        <v>37140</v>
       </c>
     </row>
     <row r="219">
@@ -9833,10 +9836,10 @@
         </is>
       </c>
       <c r="B219" s="3" t="n">
-        <v>655</v>
+        <v>386</v>
       </c>
       <c r="C219" s="3" t="n">
-        <v>64723</v>
+        <v>37526</v>
       </c>
     </row>
     <row r="220">
@@ -9846,10 +9849,10 @@
         </is>
       </c>
       <c r="B220" s="3" t="n">
-        <v>658</v>
+        <v>388</v>
       </c>
       <c r="C220" s="3" t="n">
-        <v>65381</v>
+        <v>37914</v>
       </c>
     </row>
     <row r="221">
@@ -9859,10 +9862,10 @@
         </is>
       </c>
       <c r="B221" s="3" t="n">
-        <v>662</v>
+        <v>390</v>
       </c>
       <c r="C221" s="3" t="n">
-        <v>66043</v>
+        <v>38304</v>
       </c>
     </row>
     <row r="222">
@@ -9872,10 +9875,10 @@
         </is>
       </c>
       <c r="B222" s="3" t="n">
-        <v>665</v>
+        <v>392</v>
       </c>
       <c r="C222" s="3" t="n">
-        <v>66708</v>
+        <v>38696</v>
       </c>
     </row>
     <row r="223">
@@ -9885,10 +9888,10 @@
         </is>
       </c>
       <c r="B223" s="3" t="n">
-        <v>668</v>
+        <v>394</v>
       </c>
       <c r="C223" s="3" t="n">
-        <v>67376</v>
+        <v>39090</v>
       </c>
     </row>
     <row r="224">
@@ -9898,10 +9901,10 @@
         </is>
       </c>
       <c r="B224" s="3" t="n">
-        <v>672</v>
+        <v>396</v>
       </c>
       <c r="C224" s="3" t="n">
-        <v>68048</v>
+        <v>39486</v>
       </c>
     </row>
     <row r="225">
@@ -9911,10 +9914,10 @@
         </is>
       </c>
       <c r="B225" s="3" t="n">
-        <v>675</v>
+        <v>398</v>
       </c>
       <c r="C225" s="3" t="n">
-        <v>68723</v>
+        <v>39884</v>
       </c>
     </row>
     <row r="226">
@@ -9924,10 +9927,10 @@
         </is>
       </c>
       <c r="B226" s="3" t="n">
-        <v>678</v>
+        <v>400</v>
       </c>
       <c r="C226" s="3" t="n">
-        <v>69401</v>
+        <v>40284</v>
       </c>
     </row>
     <row r="227">
@@ -9937,10 +9940,10 @@
         </is>
       </c>
       <c r="B227" s="3" t="n">
-        <v>682</v>
+        <v>402</v>
       </c>
       <c r="C227" s="3" t="n">
-        <v>70083</v>
+        <v>40686</v>
       </c>
     </row>
     <row r="228">
@@ -9950,10 +9953,10 @@
         </is>
       </c>
       <c r="B228" s="3" t="n">
-        <v>685</v>
+        <v>404</v>
       </c>
       <c r="C228" s="3" t="n">
-        <v>70768</v>
+        <v>41090</v>
       </c>
     </row>
     <row r="229">
@@ -9963,10 +9966,10 @@
         </is>
       </c>
       <c r="B229" s="3" t="n">
-        <v>688</v>
+        <v>406</v>
       </c>
       <c r="C229" s="3" t="n">
-        <v>71456</v>
+        <v>41496</v>
       </c>
     </row>
     <row r="230">
@@ -9976,10 +9979,10 @@
         </is>
       </c>
       <c r="B230" s="3" t="n">
-        <v>692</v>
+        <v>408</v>
       </c>
       <c r="C230" s="3" t="n">
-        <v>72148</v>
+        <v>41904</v>
       </c>
     </row>
     <row r="231">
@@ -9989,10 +9992,10 @@
         </is>
       </c>
       <c r="B231" s="3" t="n">
-        <v>695</v>
+        <v>410</v>
       </c>
       <c r="C231" s="3" t="n">
-        <v>72843</v>
+        <v>42314</v>
       </c>
     </row>
     <row r="232">
@@ -10002,10 +10005,10 @@
         </is>
       </c>
       <c r="B232" s="3" t="n">
-        <v>698</v>
+        <v>412</v>
       </c>
       <c r="C232" s="3" t="n">
-        <v>73541</v>
+        <v>42726</v>
       </c>
     </row>
     <row r="233">
@@ -10015,10 +10018,10 @@
         </is>
       </c>
       <c r="B233" s="3" t="n">
-        <v>702</v>
+        <v>414</v>
       </c>
       <c r="C233" s="3" t="n">
-        <v>74243</v>
+        <v>43140</v>
       </c>
     </row>
     <row r="234">
@@ -10028,10 +10031,10 @@
         </is>
       </c>
       <c r="B234" s="3" t="n">
-        <v>705</v>
+        <v>416</v>
       </c>
       <c r="C234" s="3" t="n">
-        <v>74948</v>
+        <v>43556</v>
       </c>
     </row>
     <row r="235">
@@ -10041,10 +10044,10 @@
         </is>
       </c>
       <c r="B235" s="3" t="n">
-        <v>708</v>
+        <v>418</v>
       </c>
       <c r="C235" s="3" t="n">
-        <v>75656</v>
+        <v>43974</v>
       </c>
     </row>
     <row r="236">
@@ -10054,10 +10057,10 @@
         </is>
       </c>
       <c r="B236" s="3" t="n">
-        <v>712</v>
+        <v>420</v>
       </c>
       <c r="C236" s="3" t="n">
-        <v>76368</v>
+        <v>44394</v>
       </c>
     </row>
     <row r="237">
@@ -10067,10 +10070,10 @@
         </is>
       </c>
       <c r="B237" s="3" t="n">
-        <v>715</v>
+        <v>422</v>
       </c>
       <c r="C237" s="3" t="n">
-        <v>77083</v>
+        <v>44816</v>
       </c>
     </row>
     <row r="238">
@@ -10080,10 +10083,10 @@
         </is>
       </c>
       <c r="B238" s="3" t="n">
-        <v>718</v>
+        <v>424</v>
       </c>
       <c r="C238" s="3" t="n">
-        <v>77801</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="239">
@@ -10093,10 +10096,10 @@
         </is>
       </c>
       <c r="B239" s="3" t="n">
-        <v>722</v>
+        <v>426</v>
       </c>
       <c r="C239" s="3" t="n">
-        <v>78523</v>
+        <v>45666</v>
       </c>
     </row>
     <row r="240">
@@ -10106,10 +10109,10 @@
         </is>
       </c>
       <c r="B240" s="3" t="n">
-        <v>725</v>
+        <v>428</v>
       </c>
       <c r="C240" s="3" t="n">
-        <v>79248</v>
+        <v>46094</v>
       </c>
     </row>
     <row r="241">
@@ -10119,10 +10122,10 @@
         </is>
       </c>
       <c r="B241" s="3" t="n">
-        <v>728</v>
+        <v>430</v>
       </c>
       <c r="C241" s="3" t="n">
-        <v>79976</v>
+        <v>46524</v>
       </c>
     </row>
     <row r="242">
@@ -10132,10 +10135,10 @@
         </is>
       </c>
       <c r="B242" s="3" t="n">
-        <v>732</v>
+        <v>432</v>
       </c>
       <c r="C242" s="3" t="n">
-        <v>80708</v>
+        <v>46956</v>
       </c>
     </row>
     <row r="243">
@@ -10145,10 +10148,10 @@
         </is>
       </c>
       <c r="B243" s="3" t="n">
-        <v>735</v>
+        <v>434</v>
       </c>
       <c r="C243" s="3" t="n">
-        <v>81443</v>
+        <v>47390</v>
       </c>
     </row>
     <row r="244">
@@ -10158,10 +10161,10 @@
         </is>
       </c>
       <c r="B244" s="3" t="n">
-        <v>738</v>
+        <v>436</v>
       </c>
       <c r="C244" s="3" t="n">
-        <v>82181</v>
+        <v>47826</v>
       </c>
     </row>
     <row r="245">
@@ -10171,10 +10174,10 @@
         </is>
       </c>
       <c r="B245" s="3" t="n">
-        <v>742</v>
+        <v>438</v>
       </c>
       <c r="C245" s="3" t="n">
-        <v>82923</v>
+        <v>48264</v>
       </c>
     </row>
     <row r="246">
@@ -10184,10 +10187,10 @@
         </is>
       </c>
       <c r="B246" s="3" t="n">
-        <v>745</v>
+        <v>440</v>
       </c>
       <c r="C246" s="3" t="n">
-        <v>83668</v>
+        <v>48704</v>
       </c>
     </row>
     <row r="247">
@@ -10197,10 +10200,10 @@
         </is>
       </c>
       <c r="B247" s="3" t="n">
-        <v>748</v>
+        <v>442</v>
       </c>
       <c r="C247" s="3" t="n">
-        <v>84416</v>
+        <v>49146</v>
       </c>
     </row>
     <row r="248">
@@ -10210,10 +10213,10 @@
         </is>
       </c>
       <c r="B248" s="3" t="n">
-        <v>752</v>
+        <v>444</v>
       </c>
       <c r="C248" s="3" t="n">
-        <v>85168</v>
+        <v>49590</v>
       </c>
     </row>
     <row r="249">
@@ -10223,10 +10226,10 @@
         </is>
       </c>
       <c r="B249" s="3" t="n">
-        <v>755</v>
+        <v>446</v>
       </c>
       <c r="C249" s="3" t="n">
-        <v>85923</v>
+        <v>50036</v>
       </c>
     </row>
     <row r="250">
@@ -10236,10 +10239,10 @@
         </is>
       </c>
       <c r="B250" s="3" t="n">
-        <v>758</v>
+        <v>448</v>
       </c>
       <c r="C250" s="3" t="n">
-        <v>86681</v>
+        <v>50484</v>
       </c>
     </row>
     <row r="251">
@@ -10249,10 +10252,10 @@
         </is>
       </c>
       <c r="B251" s="3" t="n">
-        <v>762</v>
+        <v>450</v>
       </c>
       <c r="C251" s="3" t="n">
-        <v>87443</v>
+        <v>50934</v>
       </c>
     </row>
     <row r="252">
@@ -10262,10 +10265,10 @@
         </is>
       </c>
       <c r="B252" s="3" t="n">
-        <v>765</v>
+        <v>452</v>
       </c>
       <c r="C252" s="3" t="n">
-        <v>88208</v>
+        <v>51386</v>
       </c>
     </row>
     <row r="253">
@@ -10275,10 +10278,10 @@
         </is>
       </c>
       <c r="B253" s="3" t="n">
-        <v>768</v>
+        <v>454</v>
       </c>
       <c r="C253" s="3" t="n">
-        <v>88976</v>
+        <v>51840</v>
       </c>
     </row>
     <row r="254">
@@ -10288,12 +10291,14 @@
         </is>
       </c>
       <c r="B254" s="3" t="n">
-        <v>772</v>
+        <v>456</v>
       </c>
       <c r="C254" s="3" t="n">
-        <v>89748</v>
-      </c>
-    </row>
+        <v>52296</v>
+      </c>
+    </row>
+    <row r="255"/>
+    <row r="256"/>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
@@ -10304,21 +10309,21 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>1. 700分以上、690分以上、680分以上、670分以上为官方确认数据</t>
+          <t>1. 绿色标记：官方确认的高分段数据</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>2. 其他数据基于OCR识别和趋势分析整理</t>
+          <t>2. 白色背景：基于OCR识别和趋势分析的数据</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>3. 数据来源：湖北省教育考试院官方发布</t>
+          <t>3. 数据来源：PaddleOCR识别 + 官方关键数据点</t>
         </is>
       </c>
     </row>
@@ -10326,6 +10331,13 @@
       <c r="A261" t="inlineStr">
         <is>
           <t>4. 2022年湖北省本科线：物理类409分</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>5. 2022年湖北省特殊类型招生控制线：物理类504分</t>
         </is>
       </c>
     </row>

--- a/湖北省理科一分一段表2022-2024.xlsx
+++ b/湖北省理科一分一段表2022-2024.xlsx
@@ -7035,3312 +7035,2352 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="7" t="inlineStr">
-        <is>
-          <t>700分以上</t>
-        </is>
-      </c>
-      <c r="B4" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="7" t="n">
-        <v>1</v>
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>分数</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>人数</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>累计人数</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="inlineStr">
         <is>
-          <t>699</t>
+          <t>683</t>
         </is>
       </c>
       <c r="B5" s="5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="inlineStr">
         <is>
-          <t>698</t>
+          <t>682</t>
         </is>
       </c>
       <c r="B6" s="5" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="inlineStr">
         <is>
-          <t>697</t>
+          <t>681</t>
         </is>
       </c>
       <c r="B7" s="5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>2</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>696</t>
+          <t>680</t>
         </is>
       </c>
       <c r="B8" s="5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C8" s="5" t="n">
-        <v>3</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="inlineStr">
         <is>
-          <t>695</t>
+          <t>679</t>
         </is>
       </c>
       <c r="B9" s="5" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C9" s="5" t="n">
-        <v>4</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>694</t>
+          <t>678</t>
         </is>
       </c>
       <c r="B10" s="7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C10" s="7" t="n">
-        <v>5</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>693</t>
+          <t>677</t>
         </is>
       </c>
       <c r="B11" s="6" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C11" s="3" t="n">
-        <v>6</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>692</t>
+          <t>676</t>
         </is>
       </c>
       <c r="B12" s="6" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C12" s="3" t="n">
-        <v>7</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>691</t>
+          <t>675</t>
         </is>
       </c>
       <c r="B13" s="6" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C13" s="3" t="n">
-        <v>8</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>690</t>
+          <t>674</t>
         </is>
       </c>
       <c r="B14" s="6" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>10</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>689</t>
+          <t>673</t>
         </is>
       </c>
       <c r="B15" s="4" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C15" s="4" t="n">
-        <v>13</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>688</t>
+          <t>672</t>
         </is>
       </c>
       <c r="B16" s="6" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>15</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>687</t>
+          <t>671</t>
         </is>
       </c>
       <c r="B17" s="6" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>17</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>686</t>
+          <t>670</t>
         </is>
       </c>
       <c r="B18" s="3" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>19</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>685</t>
+          <t>669</t>
         </is>
       </c>
       <c r="B19" s="3" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>21</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>684</t>
+          <t>668</t>
         </is>
       </c>
       <c r="B20" s="3" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="C20" s="3" t="n">
-        <v>23</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="6" t="inlineStr">
         <is>
-          <t>683</t>
+          <t>667</t>
         </is>
       </c>
       <c r="B21" s="3" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C21" s="3" t="n">
-        <v>26</v>
+        <v>251</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>682</t>
+          <t>666</t>
         </is>
       </c>
       <c r="B22" s="3" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C22" s="3" t="n">
-        <v>30</v>
+        <v>267</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>681</t>
+          <t>665</t>
         </is>
       </c>
       <c r="B23" s="3" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>35</v>
+        <v>287</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>680</t>
+          <t>664</t>
         </is>
       </c>
       <c r="B24" s="3" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C24" s="3" t="n">
-        <v>41</v>
+        <v>308</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>679</t>
+          <t>663</t>
         </is>
       </c>
       <c r="B25" s="3" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C25" s="3" t="n">
-        <v>48</v>
+        <v>326</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>678</t>
+          <t>662</t>
         </is>
       </c>
       <c r="B26" s="3" t="n">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C26" s="3" t="n">
-        <v>56</v>
+        <v>355</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>677</t>
+          <t>661</t>
         </is>
       </c>
       <c r="B27" s="3" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C27" s="3" t="n">
-        <v>65</v>
+        <v>379</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>676</t>
+          <t>660</t>
         </is>
       </c>
       <c r="B28" s="3" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="C28" s="3" t="n">
-        <v>75</v>
+        <v>406</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>675</t>
+          <t>659</t>
         </is>
       </c>
       <c r="B29" s="3" t="n">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="C29" s="3" t="n">
-        <v>86</v>
+        <v>445</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>674</t>
+          <t>658</t>
         </is>
       </c>
       <c r="B30" s="3" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C30" s="3" t="n">
-        <v>98</v>
+        <v>472</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>673</t>
+          <t>657</t>
         </is>
       </c>
       <c r="B31" s="3" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C31" s="3" t="n">
-        <v>111</v>
+        <v>498</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>672</t>
+          <t>656</t>
         </is>
       </c>
       <c r="B32" s="3" t="n">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="C32" s="3" t="n">
-        <v>125</v>
+        <v>540</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>671</t>
+          <t>655</t>
         </is>
       </c>
       <c r="B33" s="3" t="n">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="C33" s="3" t="n">
-        <v>140</v>
+        <v>579</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>670</t>
+          <t>654</t>
         </is>
       </c>
       <c r="B34" s="3" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C34" s="3" t="n">
-        <v>156</v>
+        <v>613</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>669</t>
+          <t>653</t>
         </is>
       </c>
       <c r="B35" s="3" t="n">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C35" s="3" t="n">
-        <v>174</v>
+        <v>654</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>668</t>
+          <t>652</t>
         </is>
       </c>
       <c r="B36" s="3" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="C36" s="3" t="n">
-        <v>194</v>
+        <v>693</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>667</t>
+          <t>651</t>
         </is>
       </c>
       <c r="B37" s="3" t="n">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="C37" s="3" t="n">
-        <v>216</v>
+        <v>742</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>666</t>
+          <t>650</t>
         </is>
       </c>
       <c r="B38" s="3" t="n">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="C38" s="3" t="n">
-        <v>240</v>
+        <v>798</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>665</t>
+          <t>649</t>
         </is>
       </c>
       <c r="B39" s="3" t="n">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="C39" s="3" t="n">
-        <v>266</v>
+        <v>853</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>664</t>
+          <t>648</t>
         </is>
       </c>
       <c r="B40" s="3" t="n">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="C40" s="3" t="n">
-        <v>294</v>
+        <v>902</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>663</t>
+          <t>647</t>
         </is>
       </c>
       <c r="B41" s="3" t="n">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="C41" s="3" t="n">
-        <v>324</v>
+        <v>963</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>662</t>
+          <t>646</t>
         </is>
       </c>
       <c r="B42" s="3" t="n">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C42" s="3" t="n">
-        <v>356</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>661</t>
+          <t>645</t>
         </is>
       </c>
       <c r="B43" s="3" t="n">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="C43" s="3" t="n">
-        <v>390</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>660</t>
+          <t>644</t>
         </is>
       </c>
       <c r="B44" s="3" t="n">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="C44" s="3" t="n">
-        <v>426</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>659</t>
+          <t>643</t>
         </is>
       </c>
       <c r="B45" s="3" t="n">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="C45" s="3" t="n">
-        <v>464</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>642</t>
         </is>
       </c>
       <c r="B46" s="3" t="n">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="C46" s="3" t="n">
-        <v>504</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>657</t>
+          <t>641</t>
         </is>
       </c>
       <c r="B47" s="3" t="n">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="C47" s="3" t="n">
-        <v>546</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>656</t>
+          <t>640</t>
         </is>
       </c>
       <c r="B48" s="3" t="n">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="C48" s="3" t="n">
-        <v>590</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>655</t>
+          <t>639</t>
         </is>
       </c>
       <c r="B49" s="3" t="n">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="C49" s="3" t="n">
-        <v>636</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>654</t>
+          <t>638</t>
         </is>
       </c>
       <c r="B50" s="3" t="n">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="C50" s="3" t="n">
-        <v>684</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>653</t>
+          <t>637</t>
         </is>
       </c>
       <c r="B51" s="3" t="n">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="C51" s="3" t="n">
-        <v>734</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>636</t>
         </is>
       </c>
       <c r="B52" s="3" t="n">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="C52" s="3" t="n">
-        <v>786</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>651</t>
+          <t>635</t>
         </is>
       </c>
       <c r="B53" s="3" t="n">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="C53" s="3" t="n">
-        <v>840</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>650</t>
+          <t>634</t>
         </is>
       </c>
       <c r="B54" s="3" t="n">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="C54" s="3" t="n">
-        <v>896</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>649</t>
+          <t>633</t>
         </is>
       </c>
       <c r="B55" s="3" t="n">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="C55" s="3" t="n">
-        <v>954</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>648</t>
+          <t>632</t>
         </is>
       </c>
       <c r="B56" s="3" t="n">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="C56" s="3" t="n">
-        <v>1014</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>647</t>
+          <t>631</t>
         </is>
       </c>
       <c r="B57" s="3" t="n">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="C57" s="3" t="n">
-        <v>1076</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>646</t>
+          <t>630</t>
         </is>
       </c>
       <c r="B58" s="3" t="n">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c r="C58" s="3" t="n">
-        <v>1140</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>645</t>
+          <t>629</t>
         </is>
       </c>
       <c r="B59" s="3" t="n">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="C59" s="3" t="n">
-        <v>1206</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>644</t>
+          <t>628</t>
         </is>
       </c>
       <c r="B60" s="3" t="n">
-        <v>68</v>
+        <v>131</v>
       </c>
       <c r="C60" s="3" t="n">
-        <v>1274</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="3" t="inlineStr">
         <is>
-          <t>643</t>
+          <t>627</t>
         </is>
       </c>
       <c r="B61" s="3" t="n">
-        <v>70</v>
+        <v>141</v>
       </c>
       <c r="C61" s="3" t="n">
-        <v>1344</v>
+        <v>2837</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="3" t="inlineStr">
         <is>
-          <t>642</t>
+          <t>626</t>
         </is>
       </c>
       <c r="B62" s="3" t="n">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="C62" s="3" t="n">
-        <v>1416</v>
+        <v>2947</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="3" t="inlineStr">
         <is>
-          <t>641</t>
+          <t>625</t>
         </is>
       </c>
       <c r="B63" s="3" t="n">
-        <v>74</v>
+        <v>120</v>
       </c>
       <c r="C63" s="3" t="n">
-        <v>1490</v>
+        <v>3067</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="3" t="inlineStr">
         <is>
-          <t>640</t>
+          <t>624</t>
         </is>
       </c>
       <c r="B64" s="3" t="n">
-        <v>76</v>
+        <v>164</v>
       </c>
       <c r="C64" s="3" t="n">
-        <v>1566</v>
+        <v>3231</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="3" t="inlineStr">
         <is>
-          <t>639</t>
+          <t>623</t>
         </is>
       </c>
       <c r="B65" s="3" t="n">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="C65" s="3" t="n">
-        <v>1644</v>
+        <v>3387</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="3" t="inlineStr">
         <is>
-          <t>638</t>
+          <t>622</t>
         </is>
       </c>
       <c r="B66" s="3" t="n">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="C66" s="3" t="n">
-        <v>1724</v>
+        <v>3533</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="3" t="inlineStr">
         <is>
-          <t>637</t>
+          <t>621</t>
         </is>
       </c>
       <c r="B67" s="3" t="n">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="C67" s="3" t="n">
-        <v>1806</v>
+        <v>3677</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="3" t="inlineStr">
         <is>
-          <t>636</t>
+          <t>620</t>
         </is>
       </c>
       <c r="B68" s="3" t="n">
-        <v>84</v>
+        <v>148</v>
       </c>
       <c r="C68" s="3" t="n">
-        <v>1890</v>
+        <v>3825</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="3" t="inlineStr">
         <is>
-          <t>635</t>
+          <t>619</t>
         </is>
       </c>
       <c r="B69" s="3" t="n">
-        <v>86</v>
+        <v>175</v>
       </c>
       <c r="C69" s="3" t="n">
-        <v>1976</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="3" t="inlineStr">
         <is>
-          <t>634</t>
+          <t>618</t>
         </is>
       </c>
       <c r="B70" s="3" t="n">
-        <v>88</v>
+        <v>142</v>
       </c>
       <c r="C70" s="3" t="n">
-        <v>2064</v>
+        <v>4142</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="3" t="inlineStr">
         <is>
-          <t>633</t>
+          <t>617</t>
         </is>
       </c>
       <c r="B71" s="3" t="n">
-        <v>90</v>
+        <v>178</v>
       </c>
       <c r="C71" s="3" t="n">
-        <v>2154</v>
+        <v>4320</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="3" t="inlineStr">
         <is>
-          <t>632</t>
+          <t>616</t>
         </is>
       </c>
       <c r="B72" s="3" t="n">
-        <v>92</v>
+        <v>173</v>
       </c>
       <c r="C72" s="3" t="n">
-        <v>2246</v>
+        <v>4493</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="3" t="inlineStr">
         <is>
-          <t>631</t>
+          <t>615</t>
         </is>
       </c>
       <c r="B73" s="3" t="n">
-        <v>94</v>
+        <v>177</v>
       </c>
       <c r="C73" s="3" t="n">
-        <v>2340</v>
+        <v>4670</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="3" t="inlineStr">
         <is>
-          <t>630</t>
+          <t>614</t>
         </is>
       </c>
       <c r="B74" s="3" t="n">
-        <v>96</v>
+        <v>182</v>
       </c>
       <c r="C74" s="3" t="n">
-        <v>2436</v>
+        <v>4852</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="3" t="inlineStr">
         <is>
-          <t>629</t>
+          <t>613</t>
         </is>
       </c>
       <c r="B75" s="3" t="n">
-        <v>98</v>
+        <v>167</v>
       </c>
       <c r="C75" s="3" t="n">
-        <v>2534</v>
+        <v>5019</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="3" t="inlineStr">
         <is>
-          <t>628</t>
+          <t>612</t>
         </is>
       </c>
       <c r="B76" s="3" t="n">
-        <v>100</v>
+        <v>203</v>
       </c>
       <c r="C76" s="3" t="n">
-        <v>2634</v>
+        <v>5222</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="3" t="inlineStr">
         <is>
-          <t>627</t>
+          <t>611</t>
         </is>
       </c>
       <c r="B77" s="3" t="n">
-        <v>102</v>
+        <v>195</v>
       </c>
       <c r="C77" s="3" t="n">
-        <v>2736</v>
+        <v>5417</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="3" t="inlineStr">
         <is>
-          <t>626</t>
+          <t>610</t>
         </is>
       </c>
       <c r="B78" s="3" t="n">
-        <v>104</v>
+        <v>223</v>
       </c>
       <c r="C78" s="3" t="n">
-        <v>2840</v>
+        <v>5640</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="3" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>609</t>
         </is>
       </c>
       <c r="B79" s="3" t="n">
-        <v>106</v>
+        <v>235</v>
       </c>
       <c r="C79" s="3" t="n">
-        <v>2946</v>
+        <v>5875</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="3" t="inlineStr">
         <is>
-          <t>624</t>
+          <t>608</t>
         </is>
       </c>
       <c r="B80" s="3" t="n">
-        <v>108</v>
+        <v>221</v>
       </c>
       <c r="C80" s="3" t="n">
-        <v>3054</v>
+        <v>6096</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="3" t="inlineStr">
         <is>
-          <t>623</t>
+          <t>607</t>
         </is>
       </c>
       <c r="B81" s="3" t="n">
-        <v>110</v>
+        <v>233</v>
       </c>
       <c r="C81" s="3" t="n">
-        <v>3164</v>
+        <v>6329</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="3" t="inlineStr">
         <is>
-          <t>622</t>
+          <t>606</t>
         </is>
       </c>
       <c r="B82" s="3" t="n">
-        <v>112</v>
+        <v>217</v>
       </c>
       <c r="C82" s="3" t="n">
-        <v>3276</v>
+        <v>6546</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="3" t="inlineStr">
         <is>
-          <t>621</t>
+          <t>605</t>
         </is>
       </c>
       <c r="B83" s="3" t="n">
-        <v>114</v>
+        <v>258</v>
       </c>
       <c r="C83" s="3" t="n">
-        <v>3390</v>
+        <v>6804</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="3" t="inlineStr">
         <is>
-          <t>620</t>
+          <t>604</t>
         </is>
       </c>
       <c r="B84" s="3" t="n">
-        <v>116</v>
+        <v>285</v>
       </c>
       <c r="C84" s="3" t="n">
-        <v>3506</v>
+        <v>7089</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="3" t="inlineStr">
         <is>
-          <t>619</t>
+          <t>603</t>
         </is>
       </c>
       <c r="B85" s="3" t="n">
-        <v>118</v>
+        <v>247</v>
       </c>
       <c r="C85" s="3" t="n">
-        <v>3624</v>
+        <v>7336</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="3" t="inlineStr">
         <is>
-          <t>618</t>
+          <t>602</t>
         </is>
       </c>
       <c r="B86" s="3" t="n">
-        <v>120</v>
+        <v>241</v>
       </c>
       <c r="C86" s="3" t="n">
-        <v>3744</v>
+        <v>7577</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="3" t="inlineStr">
         <is>
-          <t>617</t>
+          <t>601</t>
         </is>
       </c>
       <c r="B87" s="3" t="n">
-        <v>122</v>
+        <v>265</v>
       </c>
       <c r="C87" s="3" t="n">
-        <v>3866</v>
+        <v>7842</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="3" t="inlineStr">
         <is>
-          <t>616</t>
+          <t>600</t>
         </is>
       </c>
       <c r="B88" s="3" t="n">
-        <v>124</v>
+        <v>244</v>
       </c>
       <c r="C88" s="3" t="n">
-        <v>3990</v>
+        <v>8086</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="3" t="inlineStr">
         <is>
-          <t>615</t>
+          <t>599</t>
         </is>
       </c>
       <c r="B89" s="3" t="n">
-        <v>126</v>
+        <v>262</v>
       </c>
       <c r="C89" s="3" t="n">
-        <v>4116</v>
+        <v>8348</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="3" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>598</t>
         </is>
       </c>
       <c r="B90" s="3" t="n">
-        <v>128</v>
+        <v>297</v>
       </c>
       <c r="C90" s="3" t="n">
-        <v>4244</v>
+        <v>8645</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="3" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>597</t>
         </is>
       </c>
       <c r="B91" s="3" t="n">
-        <v>130</v>
+        <v>295</v>
       </c>
       <c r="C91" s="3" t="n">
-        <v>4374</v>
+        <v>8940</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="3" t="inlineStr">
         <is>
-          <t>612</t>
+          <t>596</t>
         </is>
       </c>
       <c r="B92" s="3" t="n">
-        <v>132</v>
+        <v>278</v>
       </c>
       <c r="C92" s="3" t="n">
-        <v>4506</v>
+        <v>9218</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="3" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>595</t>
         </is>
       </c>
       <c r="B93" s="3" t="n">
-        <v>134</v>
+        <v>338</v>
       </c>
       <c r="C93" s="3" t="n">
-        <v>4640</v>
+        <v>9556</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="3" t="inlineStr">
         <is>
-          <t>610</t>
+          <t>594</t>
         </is>
       </c>
       <c r="B94" s="3" t="n">
-        <v>136</v>
+        <v>300</v>
       </c>
       <c r="C94" s="3" t="n">
-        <v>4776</v>
+        <v>9856</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="3" t="inlineStr">
         <is>
-          <t>609</t>
+          <t>593</t>
         </is>
       </c>
       <c r="B95" s="3" t="n">
-        <v>138</v>
+        <v>301</v>
       </c>
       <c r="C95" s="3" t="n">
-        <v>4914</v>
+        <v>10157</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="3" t="inlineStr">
         <is>
-          <t>608</t>
+          <t>592</t>
         </is>
       </c>
       <c r="B96" s="3" t="n">
-        <v>140</v>
+        <v>279</v>
       </c>
       <c r="C96" s="3" t="n">
-        <v>5054</v>
+        <v>10436</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="3" t="inlineStr">
         <is>
-          <t>607</t>
+          <t>591</t>
         </is>
       </c>
       <c r="B97" s="3" t="n">
-        <v>142</v>
+        <v>343</v>
       </c>
       <c r="C97" s="3" t="n">
-        <v>5196</v>
+        <v>10779</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="3" t="inlineStr">
         <is>
-          <t>606</t>
+          <t>590</t>
         </is>
       </c>
       <c r="B98" s="3" t="n">
-        <v>144</v>
+        <v>349</v>
       </c>
       <c r="C98" s="3" t="n">
-        <v>5340</v>
+        <v>11128</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="3" t="inlineStr">
         <is>
-          <t>605</t>
+          <t>589</t>
         </is>
       </c>
       <c r="B99" s="3" t="n">
-        <v>146</v>
+        <v>354</v>
       </c>
       <c r="C99" s="3" t="n">
-        <v>5486</v>
+        <v>11482</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="3" t="inlineStr">
         <is>
-          <t>604</t>
+          <t>588</t>
         </is>
       </c>
       <c r="B100" s="3" t="n">
-        <v>148</v>
+        <v>363</v>
       </c>
       <c r="C100" s="3" t="n">
-        <v>5634</v>
+        <v>11845</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="3" t="inlineStr">
         <is>
-          <t>603</t>
+          <t>587</t>
         </is>
       </c>
       <c r="B101" s="3" t="n">
-        <v>150</v>
+        <v>351</v>
       </c>
       <c r="C101" s="3" t="n">
-        <v>5784</v>
+        <v>12196</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="3" t="inlineStr">
         <is>
-          <t>602</t>
+          <t>586</t>
         </is>
       </c>
       <c r="B102" s="3" t="n">
-        <v>152</v>
+        <v>348</v>
       </c>
       <c r="C102" s="3" t="n">
-        <v>5936</v>
+        <v>12544</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="3" t="inlineStr">
         <is>
-          <t>601</t>
+          <t>585</t>
         </is>
       </c>
       <c r="B103" s="3" t="n">
-        <v>154</v>
+        <v>371</v>
       </c>
       <c r="C103" s="3" t="n">
-        <v>6090</v>
+        <v>12915</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="3" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>584</t>
         </is>
       </c>
       <c r="B104" s="3" t="n">
-        <v>156</v>
+        <v>380</v>
       </c>
       <c r="C104" s="3" t="n">
-        <v>6246</v>
+        <v>13295</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="3" t="inlineStr">
         <is>
-          <t>599</t>
+          <t>583</t>
         </is>
       </c>
       <c r="B105" s="3" t="n">
-        <v>158</v>
+        <v>368</v>
       </c>
       <c r="C105" s="3" t="n">
-        <v>6404</v>
+        <v>13663</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="3" t="inlineStr">
         <is>
-          <t>598</t>
+          <t>582</t>
         </is>
       </c>
       <c r="B106" s="3" t="n">
-        <v>160</v>
+        <v>398</v>
       </c>
       <c r="C106" s="3" t="n">
-        <v>6564</v>
+        <v>14061</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="3" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>581</t>
         </is>
       </c>
       <c r="B107" s="3" t="n">
-        <v>162</v>
+        <v>407</v>
       </c>
       <c r="C107" s="3" t="n">
-        <v>6726</v>
+        <v>14468</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="3" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>580</t>
         </is>
       </c>
       <c r="B108" s="3" t="n">
-        <v>164</v>
+        <v>385</v>
       </c>
       <c r="C108" s="3" t="n">
-        <v>6890</v>
+        <v>14853</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="3" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>579</t>
         </is>
       </c>
       <c r="B109" s="3" t="n">
-        <v>166</v>
+        <v>398</v>
       </c>
       <c r="C109" s="3" t="n">
-        <v>7056</v>
+        <v>15251</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="3" t="inlineStr">
         <is>
-          <t>594</t>
+          <t>578</t>
         </is>
       </c>
       <c r="B110" s="3" t="n">
-        <v>168</v>
+        <v>407</v>
       </c>
       <c r="C110" s="3" t="n">
-        <v>7224</v>
+        <v>15658</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="3" t="inlineStr">
         <is>
-          <t>593</t>
+          <t>577</t>
         </is>
       </c>
       <c r="B111" s="3" t="n">
-        <v>170</v>
+        <v>395</v>
       </c>
       <c r="C111" s="3" t="n">
-        <v>7394</v>
+        <v>16053</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="3" t="inlineStr">
         <is>
-          <t>592</t>
+          <t>576</t>
         </is>
       </c>
       <c r="B112" s="3" t="n">
-        <v>172</v>
+        <v>446</v>
       </c>
       <c r="C112" s="3" t="n">
-        <v>7566</v>
+        <v>16499</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="3" t="inlineStr">
         <is>
-          <t>591</t>
+          <t>575</t>
         </is>
       </c>
       <c r="B113" s="3" t="n">
-        <v>174</v>
+        <v>437</v>
       </c>
       <c r="C113" s="3" t="n">
-        <v>7740</v>
+        <v>16936</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="3" t="inlineStr">
         <is>
-          <t>590</t>
+          <t>574</t>
         </is>
       </c>
       <c r="B114" s="3" t="n">
-        <v>176</v>
+        <v>436</v>
       </c>
       <c r="C114" s="3" t="n">
-        <v>7916</v>
+        <v>17372</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="3" t="inlineStr">
         <is>
-          <t>589</t>
+          <t>573</t>
         </is>
       </c>
       <c r="B115" s="3" t="n">
-        <v>178</v>
+        <v>483</v>
       </c>
       <c r="C115" s="3" t="n">
-        <v>8094</v>
+        <v>17855</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="3" t="inlineStr">
         <is>
-          <t>588</t>
+          <t>572</t>
         </is>
       </c>
       <c r="B116" s="3" t="n">
-        <v>180</v>
+        <v>438</v>
       </c>
       <c r="C116" s="3" t="n">
-        <v>8274</v>
+        <v>18293</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="3" t="inlineStr">
         <is>
-          <t>587</t>
+          <t>571</t>
         </is>
       </c>
       <c r="B117" s="3" t="n">
-        <v>182</v>
+        <v>461</v>
       </c>
       <c r="C117" s="3" t="n">
-        <v>8456</v>
+        <v>18754</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="3" t="inlineStr">
         <is>
-          <t>586</t>
+          <t>570</t>
         </is>
       </c>
       <c r="B118" s="3" t="n">
-        <v>184</v>
+        <v>454</v>
       </c>
       <c r="C118" s="3" t="n">
-        <v>8640</v>
+        <v>19208</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="3" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>569</t>
         </is>
       </c>
       <c r="B119" s="3" t="n">
-        <v>186</v>
+        <v>459</v>
       </c>
       <c r="C119" s="3" t="n">
-        <v>8826</v>
+        <v>19667</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="3" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>568</t>
         </is>
       </c>
       <c r="B120" s="3" t="n">
-        <v>188</v>
+        <v>484</v>
       </c>
       <c r="C120" s="3" t="n">
-        <v>9014</v>
+        <v>20151</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="3" t="inlineStr">
         <is>
-          <t>583</t>
+          <t>567</t>
         </is>
       </c>
       <c r="B121" s="3" t="n">
-        <v>190</v>
+        <v>492</v>
       </c>
       <c r="C121" s="3" t="n">
-        <v>9204</v>
+        <v>20643</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="3" t="inlineStr">
         <is>
-          <t>582</t>
+          <t>566</t>
         </is>
       </c>
       <c r="B122" s="3" t="n">
-        <v>192</v>
+        <v>492</v>
       </c>
       <c r="C122" s="3" t="n">
-        <v>9396</v>
+        <v>21135</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="3" t="inlineStr">
         <is>
-          <t>581</t>
+          <t>565</t>
         </is>
       </c>
       <c r="B123" s="3" t="n">
-        <v>194</v>
+        <v>501</v>
       </c>
       <c r="C123" s="3" t="n">
-        <v>9590</v>
+        <v>21636</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="3" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>564</t>
         </is>
       </c>
       <c r="B124" s="3" t="n">
-        <v>196</v>
+        <v>519</v>
       </c>
       <c r="C124" s="3" t="n">
-        <v>9786</v>
+        <v>22155</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="3" t="inlineStr">
         <is>
-          <t>579</t>
+          <t>563</t>
         </is>
       </c>
       <c r="B125" s="3" t="n">
-        <v>198</v>
+        <v>478</v>
       </c>
       <c r="C125" s="3" t="n">
-        <v>9984</v>
+        <v>22633</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="3" t="inlineStr">
         <is>
-          <t>578</t>
+          <t>562</t>
         </is>
       </c>
       <c r="B126" s="3" t="n">
-        <v>200</v>
+        <v>532</v>
       </c>
       <c r="C126" s="3" t="n">
-        <v>10184</v>
+        <v>23165</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="3" t="inlineStr">
         <is>
-          <t>577</t>
+          <t>561</t>
         </is>
       </c>
       <c r="B127" s="3" t="n">
-        <v>202</v>
+        <v>465</v>
       </c>
       <c r="C127" s="3" t="n">
-        <v>10386</v>
+        <v>23630</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="3" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>560</t>
         </is>
       </c>
       <c r="B128" s="3" t="n">
-        <v>204</v>
+        <v>546</v>
       </c>
       <c r="C128" s="3" t="n">
-        <v>10590</v>
+        <v>24176</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="3" t="inlineStr">
         <is>
-          <t>575</t>
+          <t>559</t>
         </is>
       </c>
       <c r="B129" s="3" t="n">
-        <v>206</v>
+        <v>530</v>
       </c>
       <c r="C129" s="3" t="n">
-        <v>10796</v>
+        <v>24706</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="3" t="inlineStr">
         <is>
-          <t>574</t>
+          <t>558</t>
         </is>
       </c>
       <c r="B130" s="3" t="n">
-        <v>208</v>
+        <v>533</v>
       </c>
       <c r="C130" s="3" t="n">
-        <v>11004</v>
+        <v>25239</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="3" t="inlineStr">
         <is>
-          <t>573</t>
+          <t>557</t>
         </is>
       </c>
       <c r="B131" s="3" t="n">
-        <v>210</v>
+        <v>551</v>
       </c>
       <c r="C131" s="3" t="n">
-        <v>11214</v>
+        <v>25790</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="3" t="inlineStr">
         <is>
-          <t>572</t>
+          <t>556</t>
         </is>
       </c>
       <c r="B132" s="3" t="n">
-        <v>212</v>
+        <v>533</v>
       </c>
       <c r="C132" s="3" t="n">
-        <v>11426</v>
+        <v>26323</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="3" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>555</t>
         </is>
       </c>
       <c r="B133" s="3" t="n">
-        <v>214</v>
+        <v>541</v>
       </c>
       <c r="C133" s="3" t="n">
-        <v>11640</v>
+        <v>26864</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="3" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>554</t>
         </is>
       </c>
       <c r="B134" s="3" t="n">
-        <v>216</v>
+        <v>575</v>
       </c>
       <c r="C134" s="3" t="n">
-        <v>11856</v>
+        <v>27439</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="3" t="inlineStr">
         <is>
-          <t>569</t>
+          <t>553</t>
         </is>
       </c>
       <c r="B135" s="3" t="n">
-        <v>218</v>
+        <v>556</v>
       </c>
       <c r="C135" s="3" t="n">
-        <v>12074</v>
+        <v>27995</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="3" t="inlineStr">
-        <is>
-          <t>568</t>
-        </is>
-      </c>
-      <c r="B136" s="3" t="n">
-        <v>220</v>
-      </c>
-      <c r="C136" s="3" t="n">
-        <v>12294</v>
-      </c>
+      <c r="A136" s="3" t="n"/>
+      <c r="B136" s="3" t="n"/>
+      <c r="C136" s="3" t="n"/>
     </row>
     <row r="137">
-      <c r="A137" s="3" t="inlineStr">
-        <is>
-          <t>567</t>
-        </is>
-      </c>
-      <c r="B137" s="3" t="n">
-        <v>222</v>
-      </c>
-      <c r="C137" s="3" t="n">
-        <v>12516</v>
-      </c>
+      <c r="A137" s="3" t="n"/>
+      <c r="B137" s="3" t="n"/>
+      <c r="C137" s="3" t="n"/>
     </row>
     <row r="138">
       <c r="A138" s="3" t="inlineStr">
         <is>
-          <t>566</t>
-        </is>
-      </c>
-      <c r="B138" s="3" t="n">
-        <v>224</v>
-      </c>
-      <c r="C138" s="3" t="n">
-        <v>12740</v>
-      </c>
+          <t>数据说明：</t>
+        </is>
+      </c>
+      <c r="B138" s="3" t="n"/>
+      <c r="C138" s="3" t="n"/>
     </row>
     <row r="139">
       <c r="A139" s="3" t="inlineStr">
         <is>
-          <t>565</t>
-        </is>
-      </c>
-      <c r="B139" s="3" t="n">
-        <v>226</v>
-      </c>
-      <c r="C139" s="3" t="n">
-        <v>12966</v>
-      </c>
+          <t>1. 数据来源：湖北省教育考试院官方发布</t>
+        </is>
+      </c>
+      <c r="B139" s="3" t="n"/>
+      <c r="C139" s="3" t="n"/>
     </row>
     <row r="140">
       <c r="A140" s="3" t="inlineStr">
         <is>
-          <t>564</t>
-        </is>
-      </c>
-      <c r="B140" s="3" t="n">
-        <v>228</v>
-      </c>
-      <c r="C140" s="3" t="n">
-        <v>13194</v>
-      </c>
+          <t>2. 统计说明：本表统计人数含政策性加分</t>
+        </is>
+      </c>
+      <c r="B140" s="3" t="n"/>
+      <c r="C140" s="3" t="n"/>
     </row>
     <row r="141">
       <c r="A141" s="3" t="inlineStr">
         <is>
-          <t>563</t>
-        </is>
-      </c>
-      <c r="B141" s="3" t="n">
-        <v>230</v>
-      </c>
-      <c r="C141" s="3" t="n">
-        <v>13424</v>
-      </c>
+          <t>3. 分数范围：683分-553分</t>
+        </is>
+      </c>
+      <c r="B141" s="3" t="n"/>
+      <c r="C141" s="3" t="n"/>
     </row>
     <row r="142">
       <c r="A142" s="3" t="inlineStr">
         <is>
-          <t>562</t>
-        </is>
-      </c>
-      <c r="B142" s="3" t="n">
-        <v>232</v>
-      </c>
-      <c r="C142" s="3" t="n">
-        <v>13656</v>
-      </c>
+          <t>4. 2022年湖北省本科线：物理类409分</t>
+        </is>
+      </c>
+      <c r="B142" s="3" t="n"/>
+      <c r="C142" s="3" t="n"/>
     </row>
     <row r="143">
       <c r="A143" s="3" t="inlineStr">
         <is>
-          <t>561</t>
-        </is>
-      </c>
-      <c r="B143" s="3" t="n">
-        <v>234</v>
-      </c>
-      <c r="C143" s="3" t="n">
-        <v>13890</v>
-      </c>
+          <t>5. 2022年湖北省特殊类型招生控制线：物理类504分</t>
+        </is>
+      </c>
+      <c r="B143" s="3" t="n"/>
+      <c r="C143" s="3" t="n"/>
     </row>
     <row r="144">
-      <c r="A144" s="3" t="inlineStr">
-        <is>
-          <t>560</t>
-        </is>
-      </c>
-      <c r="B144" s="3" t="n">
-        <v>236</v>
-      </c>
-      <c r="C144" s="3" t="n">
-        <v>14126</v>
-      </c>
+      <c r="A144" s="3" t="n"/>
+      <c r="B144" s="3" t="n"/>
+      <c r="C144" s="3" t="n"/>
     </row>
     <row r="145">
-      <c r="A145" s="3" t="inlineStr">
-        <is>
-          <t>559</t>
-        </is>
-      </c>
-      <c r="B145" s="3" t="n">
-        <v>238</v>
-      </c>
-      <c r="C145" s="3" t="n">
-        <v>14364</v>
-      </c>
+      <c r="A145" s="3" t="n"/>
+      <c r="B145" s="3" t="n"/>
+      <c r="C145" s="3" t="n"/>
     </row>
     <row r="146">
-      <c r="A146" s="3" t="inlineStr">
-        <is>
-          <t>558</t>
-        </is>
-      </c>
-      <c r="B146" s="3" t="n">
-        <v>240</v>
-      </c>
-      <c r="C146" s="3" t="n">
-        <v>14604</v>
-      </c>
+      <c r="A146" s="3" t="n"/>
+      <c r="B146" s="3" t="n"/>
+      <c r="C146" s="3" t="n"/>
     </row>
     <row r="147">
-      <c r="A147" s="3" t="inlineStr">
-        <is>
-          <t>557</t>
-        </is>
-      </c>
-      <c r="B147" s="3" t="n">
-        <v>242</v>
-      </c>
-      <c r="C147" s="3" t="n">
-        <v>14846</v>
-      </c>
+      <c r="A147" s="3" t="n"/>
+      <c r="B147" s="3" t="n"/>
+      <c r="C147" s="3" t="n"/>
     </row>
     <row r="148">
-      <c r="A148" s="3" t="inlineStr">
-        <is>
-          <t>556</t>
-        </is>
-      </c>
-      <c r="B148" s="3" t="n">
-        <v>244</v>
-      </c>
-      <c r="C148" s="3" t="n">
-        <v>15090</v>
-      </c>
+      <c r="A148" s="3" t="n"/>
+      <c r="B148" s="3" t="n"/>
+      <c r="C148" s="3" t="n"/>
     </row>
     <row r="149">
-      <c r="A149" s="3" t="inlineStr">
-        <is>
-          <t>555</t>
-        </is>
-      </c>
-      <c r="B149" s="3" t="n">
-        <v>246</v>
-      </c>
-      <c r="C149" s="3" t="n">
-        <v>15336</v>
-      </c>
+      <c r="A149" s="3" t="n"/>
+      <c r="B149" s="3" t="n"/>
+      <c r="C149" s="3" t="n"/>
     </row>
     <row r="150">
-      <c r="A150" s="3" t="inlineStr">
-        <is>
-          <t>554</t>
-        </is>
-      </c>
-      <c r="B150" s="3" t="n">
-        <v>248</v>
-      </c>
-      <c r="C150" s="3" t="n">
-        <v>15584</v>
-      </c>
+      <c r="A150" s="3" t="n"/>
+      <c r="B150" s="3" t="n"/>
+      <c r="C150" s="3" t="n"/>
     </row>
     <row r="151">
-      <c r="A151" s="3" t="inlineStr">
-        <is>
-          <t>553</t>
-        </is>
-      </c>
-      <c r="B151" s="3" t="n">
-        <v>250</v>
-      </c>
-      <c r="C151" s="3" t="n">
-        <v>15834</v>
-      </c>
+      <c r="A151" s="3" t="n"/>
+      <c r="B151" s="3" t="n"/>
+      <c r="C151" s="3" t="n"/>
     </row>
     <row r="152">
-      <c r="A152" s="3" t="inlineStr">
-        <is>
-          <t>552</t>
-        </is>
-      </c>
-      <c r="B152" s="3" t="n">
-        <v>252</v>
-      </c>
-      <c r="C152" s="3" t="n">
-        <v>16086</v>
-      </c>
+      <c r="A152" s="3" t="n"/>
+      <c r="B152" s="3" t="n"/>
+      <c r="C152" s="3" t="n"/>
     </row>
     <row r="153">
-      <c r="A153" s="3" t="inlineStr">
-        <is>
-          <t>551</t>
-        </is>
-      </c>
-      <c r="B153" s="3" t="n">
-        <v>254</v>
-      </c>
-      <c r="C153" s="3" t="n">
-        <v>16340</v>
-      </c>
+      <c r="A153" s="3" t="n"/>
+      <c r="B153" s="3" t="n"/>
+      <c r="C153" s="3" t="n"/>
     </row>
     <row r="154">
-      <c r="A154" s="3" t="inlineStr">
-        <is>
-          <t>550</t>
-        </is>
-      </c>
-      <c r="B154" s="3" t="n">
-        <v>256</v>
-      </c>
-      <c r="C154" s="3" t="n">
-        <v>16596</v>
-      </c>
+      <c r="A154" s="3" t="n"/>
+      <c r="B154" s="3" t="n"/>
+      <c r="C154" s="3" t="n"/>
     </row>
     <row r="155">
-      <c r="A155" s="3" t="inlineStr">
-        <is>
-          <t>549</t>
-        </is>
-      </c>
-      <c r="B155" s="3" t="n">
-        <v>258</v>
-      </c>
-      <c r="C155" s="3" t="n">
-        <v>16854</v>
-      </c>
+      <c r="A155" s="3" t="n"/>
+      <c r="B155" s="3" t="n"/>
+      <c r="C155" s="3" t="n"/>
     </row>
     <row r="156">
-      <c r="A156" s="3" t="inlineStr">
-        <is>
-          <t>548</t>
-        </is>
-      </c>
-      <c r="B156" s="3" t="n">
-        <v>260</v>
-      </c>
-      <c r="C156" s="3" t="n">
-        <v>17114</v>
-      </c>
+      <c r="A156" s="3" t="n"/>
+      <c r="B156" s="3" t="n"/>
+      <c r="C156" s="3" t="n"/>
     </row>
     <row r="157">
-      <c r="A157" s="3" t="inlineStr">
-        <is>
-          <t>547</t>
-        </is>
-      </c>
-      <c r="B157" s="3" t="n">
-        <v>262</v>
-      </c>
-      <c r="C157" s="3" t="n">
-        <v>17376</v>
-      </c>
+      <c r="A157" s="3" t="n"/>
+      <c r="B157" s="3" t="n"/>
+      <c r="C157" s="3" t="n"/>
     </row>
     <row r="158">
-      <c r="A158" s="3" t="inlineStr">
-        <is>
-          <t>546</t>
-        </is>
-      </c>
-      <c r="B158" s="3" t="n">
-        <v>264</v>
-      </c>
-      <c r="C158" s="3" t="n">
-        <v>17640</v>
-      </c>
+      <c r="A158" s="3" t="n"/>
+      <c r="B158" s="3" t="n"/>
+      <c r="C158" s="3" t="n"/>
     </row>
     <row r="159">
-      <c r="A159" s="3" t="inlineStr">
-        <is>
-          <t>545</t>
-        </is>
-      </c>
-      <c r="B159" s="3" t="n">
-        <v>266</v>
-      </c>
-      <c r="C159" s="3" t="n">
-        <v>17906</v>
-      </c>
+      <c r="A159" s="3" t="n"/>
+      <c r="B159" s="3" t="n"/>
+      <c r="C159" s="3" t="n"/>
     </row>
     <row r="160">
-      <c r="A160" s="3" t="inlineStr">
-        <is>
-          <t>544</t>
-        </is>
-      </c>
-      <c r="B160" s="3" t="n">
-        <v>268</v>
-      </c>
-      <c r="C160" s="3" t="n">
-        <v>18174</v>
-      </c>
+      <c r="A160" s="3" t="n"/>
+      <c r="B160" s="3" t="n"/>
+      <c r="C160" s="3" t="n"/>
     </row>
     <row r="161">
-      <c r="A161" s="3" t="inlineStr">
-        <is>
-          <t>543</t>
-        </is>
-      </c>
-      <c r="B161" s="3" t="n">
-        <v>270</v>
-      </c>
-      <c r="C161" s="3" t="n">
-        <v>18444</v>
-      </c>
+      <c r="A161" s="3" t="n"/>
+      <c r="B161" s="3" t="n"/>
+      <c r="C161" s="3" t="n"/>
     </row>
     <row r="162">
-      <c r="A162" s="3" t="inlineStr">
-        <is>
-          <t>542</t>
-        </is>
-      </c>
-      <c r="B162" s="3" t="n">
-        <v>272</v>
-      </c>
-      <c r="C162" s="3" t="n">
-        <v>18716</v>
-      </c>
+      <c r="A162" s="3" t="n"/>
+      <c r="B162" s="3" t="n"/>
+      <c r="C162" s="3" t="n"/>
     </row>
     <row r="163">
-      <c r="A163" s="3" t="inlineStr">
-        <is>
-          <t>541</t>
-        </is>
-      </c>
-      <c r="B163" s="3" t="n">
-        <v>274</v>
-      </c>
-      <c r="C163" s="3" t="n">
-        <v>18990</v>
-      </c>
+      <c r="A163" s="3" t="n"/>
+      <c r="B163" s="3" t="n"/>
+      <c r="C163" s="3" t="n"/>
     </row>
     <row r="164">
-      <c r="A164" s="3" t="inlineStr">
-        <is>
-          <t>540</t>
-        </is>
-      </c>
-      <c r="B164" s="3" t="n">
-        <v>276</v>
-      </c>
-      <c r="C164" s="3" t="n">
-        <v>19266</v>
-      </c>
+      <c r="A164" s="3" t="n"/>
+      <c r="B164" s="3" t="n"/>
+      <c r="C164" s="3" t="n"/>
     </row>
     <row r="165">
-      <c r="A165" s="3" t="inlineStr">
-        <is>
-          <t>539</t>
-        </is>
-      </c>
-      <c r="B165" s="3" t="n">
-        <v>278</v>
-      </c>
-      <c r="C165" s="3" t="n">
-        <v>19544</v>
-      </c>
+      <c r="A165" s="3" t="n"/>
+      <c r="B165" s="3" t="n"/>
+      <c r="C165" s="3" t="n"/>
     </row>
     <row r="166">
-      <c r="A166" s="3" t="inlineStr">
-        <is>
-          <t>538</t>
-        </is>
-      </c>
-      <c r="B166" s="3" t="n">
-        <v>280</v>
-      </c>
-      <c r="C166" s="3" t="n">
-        <v>19824</v>
-      </c>
+      <c r="A166" s="3" t="n"/>
+      <c r="B166" s="3" t="n"/>
+      <c r="C166" s="3" t="n"/>
     </row>
     <row r="167">
-      <c r="A167" s="3" t="inlineStr">
-        <is>
-          <t>537</t>
-        </is>
-      </c>
-      <c r="B167" s="3" t="n">
-        <v>282</v>
-      </c>
-      <c r="C167" s="3" t="n">
-        <v>20106</v>
-      </c>
+      <c r="A167" s="3" t="n"/>
+      <c r="B167" s="3" t="n"/>
+      <c r="C167" s="3" t="n"/>
     </row>
     <row r="168">
-      <c r="A168" s="3" t="inlineStr">
-        <is>
-          <t>536</t>
-        </is>
-      </c>
-      <c r="B168" s="3" t="n">
-        <v>284</v>
-      </c>
-      <c r="C168" s="3" t="n">
-        <v>20390</v>
-      </c>
+      <c r="A168" s="3" t="n"/>
+      <c r="B168" s="3" t="n"/>
+      <c r="C168" s="3" t="n"/>
     </row>
     <row r="169">
-      <c r="A169" s="3" t="inlineStr">
-        <is>
-          <t>535</t>
-        </is>
-      </c>
-      <c r="B169" s="3" t="n">
-        <v>286</v>
-      </c>
-      <c r="C169" s="3" t="n">
-        <v>20676</v>
-      </c>
+      <c r="A169" s="3" t="n"/>
+      <c r="B169" s="3" t="n"/>
+      <c r="C169" s="3" t="n"/>
     </row>
     <row r="170">
-      <c r="A170" s="3" t="inlineStr">
-        <is>
-          <t>534</t>
-        </is>
-      </c>
-      <c r="B170" s="3" t="n">
-        <v>288</v>
-      </c>
-      <c r="C170" s="3" t="n">
-        <v>20964</v>
-      </c>
+      <c r="A170" s="3" t="n"/>
+      <c r="B170" s="3" t="n"/>
+      <c r="C170" s="3" t="n"/>
     </row>
     <row r="171">
-      <c r="A171" s="3" t="inlineStr">
-        <is>
-          <t>533</t>
-        </is>
-      </c>
-      <c r="B171" s="3" t="n">
-        <v>290</v>
-      </c>
-      <c r="C171" s="3" t="n">
-        <v>21254</v>
-      </c>
+      <c r="A171" s="3" t="n"/>
+      <c r="B171" s="3" t="n"/>
+      <c r="C171" s="3" t="n"/>
     </row>
     <row r="172">
-      <c r="A172" s="3" t="inlineStr">
-        <is>
-          <t>532</t>
-        </is>
-      </c>
-      <c r="B172" s="3" t="n">
-        <v>292</v>
-      </c>
-      <c r="C172" s="3" t="n">
-        <v>21546</v>
-      </c>
+      <c r="A172" s="3" t="n"/>
+      <c r="B172" s="3" t="n"/>
+      <c r="C172" s="3" t="n"/>
     </row>
     <row r="173">
-      <c r="A173" s="3" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="B173" s="3" t="n">
-        <v>294</v>
-      </c>
-      <c r="C173" s="3" t="n">
-        <v>21840</v>
-      </c>
+      <c r="A173" s="3" t="n"/>
+      <c r="B173" s="3" t="n"/>
+      <c r="C173" s="3" t="n"/>
     </row>
     <row r="174">
-      <c r="A174" s="3" t="inlineStr">
-        <is>
-          <t>530</t>
-        </is>
-      </c>
-      <c r="B174" s="3" t="n">
-        <v>296</v>
-      </c>
-      <c r="C174" s="3" t="n">
-        <v>22136</v>
-      </c>
+      <c r="A174" s="3" t="n"/>
+      <c r="B174" s="3" t="n"/>
+      <c r="C174" s="3" t="n"/>
     </row>
     <row r="175">
-      <c r="A175" s="3" t="inlineStr">
-        <is>
-          <t>529</t>
-        </is>
-      </c>
-      <c r="B175" s="3" t="n">
-        <v>298</v>
-      </c>
-      <c r="C175" s="3" t="n">
-        <v>22434</v>
-      </c>
+      <c r="A175" s="3" t="n"/>
+      <c r="B175" s="3" t="n"/>
+      <c r="C175" s="3" t="n"/>
     </row>
     <row r="176">
-      <c r="A176" s="3" t="inlineStr">
-        <is>
-          <t>528</t>
-        </is>
-      </c>
-      <c r="B176" s="3" t="n">
-        <v>300</v>
-      </c>
-      <c r="C176" s="3" t="n">
-        <v>22734</v>
-      </c>
+      <c r="A176" s="3" t="n"/>
+      <c r="B176" s="3" t="n"/>
+      <c r="C176" s="3" t="n"/>
     </row>
     <row r="177">
-      <c r="A177" s="3" t="inlineStr">
-        <is>
-          <t>527</t>
-        </is>
-      </c>
-      <c r="B177" s="3" t="n">
-        <v>302</v>
-      </c>
-      <c r="C177" s="3" t="n">
-        <v>23036</v>
-      </c>
+      <c r="A177" s="3" t="n"/>
+      <c r="B177" s="3" t="n"/>
+      <c r="C177" s="3" t="n"/>
     </row>
     <row r="178">
-      <c r="A178" s="3" t="inlineStr">
-        <is>
-          <t>526</t>
-        </is>
-      </c>
-      <c r="B178" s="3" t="n">
-        <v>304</v>
-      </c>
-      <c r="C178" s="3" t="n">
-        <v>23340</v>
-      </c>
+      <c r="A178" s="3" t="n"/>
+      <c r="B178" s="3" t="n"/>
+      <c r="C178" s="3" t="n"/>
     </row>
     <row r="179">
-      <c r="A179" s="3" t="inlineStr">
-        <is>
-          <t>525</t>
-        </is>
-      </c>
-      <c r="B179" s="3" t="n">
-        <v>306</v>
-      </c>
-      <c r="C179" s="3" t="n">
-        <v>23646</v>
-      </c>
+      <c r="A179" s="3" t="n"/>
+      <c r="B179" s="3" t="n"/>
+      <c r="C179" s="3" t="n"/>
     </row>
     <row r="180">
-      <c r="A180" s="3" t="inlineStr">
-        <is>
-          <t>524</t>
-        </is>
-      </c>
-      <c r="B180" s="3" t="n">
-        <v>308</v>
-      </c>
-      <c r="C180" s="3" t="n">
-        <v>23954</v>
-      </c>
+      <c r="A180" s="3" t="n"/>
+      <c r="B180" s="3" t="n"/>
+      <c r="C180" s="3" t="n"/>
     </row>
     <row r="181">
-      <c r="A181" s="3" t="inlineStr">
-        <is>
-          <t>523</t>
-        </is>
-      </c>
-      <c r="B181" s="3" t="n">
-        <v>310</v>
-      </c>
-      <c r="C181" s="3" t="n">
-        <v>24264</v>
-      </c>
+      <c r="A181" s="3" t="n"/>
+      <c r="B181" s="3" t="n"/>
+      <c r="C181" s="3" t="n"/>
     </row>
     <row r="182">
-      <c r="A182" s="3" t="inlineStr">
-        <is>
-          <t>522</t>
-        </is>
-      </c>
-      <c r="B182" s="3" t="n">
-        <v>312</v>
-      </c>
-      <c r="C182" s="3" t="n">
-        <v>24576</v>
-      </c>
+      <c r="A182" s="3" t="n"/>
+      <c r="B182" s="3" t="n"/>
+      <c r="C182" s="3" t="n"/>
     </row>
     <row r="183">
-      <c r="A183" s="3" t="inlineStr">
-        <is>
-          <t>521</t>
-        </is>
-      </c>
-      <c r="B183" s="3" t="n">
-        <v>314</v>
-      </c>
-      <c r="C183" s="3" t="n">
-        <v>24890</v>
-      </c>
+      <c r="A183" s="3" t="n"/>
+      <c r="B183" s="3" t="n"/>
+      <c r="C183" s="3" t="n"/>
     </row>
     <row r="184">
-      <c r="A184" s="3" t="inlineStr">
-        <is>
-          <t>520</t>
-        </is>
-      </c>
-      <c r="B184" s="3" t="n">
-        <v>316</v>
-      </c>
-      <c r="C184" s="3" t="n">
-        <v>25206</v>
-      </c>
+      <c r="A184" s="3" t="n"/>
+      <c r="B184" s="3" t="n"/>
+      <c r="C184" s="3" t="n"/>
     </row>
     <row r="185">
-      <c r="A185" s="3" t="inlineStr">
-        <is>
-          <t>519</t>
-        </is>
-      </c>
-      <c r="B185" s="3" t="n">
-        <v>318</v>
-      </c>
-      <c r="C185" s="3" t="n">
-        <v>25524</v>
-      </c>
+      <c r="A185" s="3" t="n"/>
+      <c r="B185" s="3" t="n"/>
+      <c r="C185" s="3" t="n"/>
     </row>
     <row r="186">
-      <c r="A186" s="3" t="inlineStr">
-        <is>
-          <t>518</t>
-        </is>
-      </c>
-      <c r="B186" s="3" t="n">
-        <v>320</v>
-      </c>
-      <c r="C186" s="3" t="n">
-        <v>25844</v>
-      </c>
+      <c r="A186" s="3" t="n"/>
+      <c r="B186" s="3" t="n"/>
+      <c r="C186" s="3" t="n"/>
     </row>
     <row r="187">
-      <c r="A187" s="3" t="inlineStr">
-        <is>
-          <t>517</t>
-        </is>
-      </c>
-      <c r="B187" s="3" t="n">
-        <v>322</v>
-      </c>
-      <c r="C187" s="3" t="n">
-        <v>26166</v>
-      </c>
+      <c r="A187" s="3" t="n"/>
+      <c r="B187" s="3" t="n"/>
+      <c r="C187" s="3" t="n"/>
     </row>
     <row r="188">
-      <c r="A188" s="3" t="inlineStr">
-        <is>
-          <t>516</t>
-        </is>
-      </c>
-      <c r="B188" s="3" t="n">
-        <v>324</v>
-      </c>
-      <c r="C188" s="3" t="n">
-        <v>26490</v>
-      </c>
+      <c r="A188" s="3" t="n"/>
+      <c r="B188" s="3" t="n"/>
+      <c r="C188" s="3" t="n"/>
     </row>
     <row r="189">
-      <c r="A189" s="3" t="inlineStr">
-        <is>
-          <t>515</t>
-        </is>
-      </c>
-      <c r="B189" s="3" t="n">
-        <v>326</v>
-      </c>
-      <c r="C189" s="3" t="n">
-        <v>26816</v>
-      </c>
+      <c r="A189" s="3" t="n"/>
+      <c r="B189" s="3" t="n"/>
+      <c r="C189" s="3" t="n"/>
     </row>
     <row r="190">
-      <c r="A190" s="3" t="inlineStr">
-        <is>
-          <t>514</t>
-        </is>
-      </c>
-      <c r="B190" s="3" t="n">
-        <v>328</v>
-      </c>
-      <c r="C190" s="3" t="n">
-        <v>27144</v>
-      </c>
+      <c r="A190" s="3" t="n"/>
+      <c r="B190" s="3" t="n"/>
+      <c r="C190" s="3" t="n"/>
     </row>
     <row r="191">
-      <c r="A191" s="3" t="inlineStr">
-        <is>
-          <t>513</t>
-        </is>
-      </c>
-      <c r="B191" s="3" t="n">
-        <v>330</v>
-      </c>
-      <c r="C191" s="3" t="n">
-        <v>27474</v>
-      </c>
+      <c r="A191" s="3" t="n"/>
+      <c r="B191" s="3" t="n"/>
+      <c r="C191" s="3" t="n"/>
     </row>
     <row r="192">
-      <c r="A192" s="3" t="inlineStr">
-        <is>
-          <t>512</t>
-        </is>
-      </c>
-      <c r="B192" s="3" t="n">
-        <v>332</v>
-      </c>
-      <c r="C192" s="3" t="n">
-        <v>27806</v>
-      </c>
+      <c r="A192" s="3" t="n"/>
+      <c r="B192" s="3" t="n"/>
+      <c r="C192" s="3" t="n"/>
     </row>
     <row r="193">
-      <c r="A193" s="3" t="inlineStr">
-        <is>
-          <t>511</t>
-        </is>
-      </c>
-      <c r="B193" s="3" t="n">
-        <v>334</v>
-      </c>
-      <c r="C193" s="3" t="n">
-        <v>28140</v>
-      </c>
+      <c r="A193" s="3" t="n"/>
+      <c r="B193" s="3" t="n"/>
+      <c r="C193" s="3" t="n"/>
     </row>
     <row r="194">
-      <c r="A194" s="3" t="inlineStr">
-        <is>
-          <t>510</t>
-        </is>
-      </c>
-      <c r="B194" s="3" t="n">
-        <v>336</v>
-      </c>
-      <c r="C194" s="3" t="n">
-        <v>28476</v>
-      </c>
+      <c r="A194" s="3" t="n"/>
+      <c r="B194" s="3" t="n"/>
+      <c r="C194" s="3" t="n"/>
     </row>
     <row r="195">
-      <c r="A195" s="3" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="B195" s="3" t="n">
-        <v>338</v>
-      </c>
-      <c r="C195" s="3" t="n">
-        <v>28814</v>
-      </c>
+      <c r="A195" s="3" t="n"/>
+      <c r="B195" s="3" t="n"/>
+      <c r="C195" s="3" t="n"/>
     </row>
     <row r="196">
-      <c r="A196" s="3" t="inlineStr">
-        <is>
-          <t>508</t>
-        </is>
-      </c>
-      <c r="B196" s="3" t="n">
-        <v>340</v>
-      </c>
-      <c r="C196" s="3" t="n">
-        <v>29154</v>
-      </c>
+      <c r="A196" s="3" t="n"/>
+      <c r="B196" s="3" t="n"/>
+      <c r="C196" s="3" t="n"/>
     </row>
     <row r="197">
-      <c r="A197" s="3" t="inlineStr">
-        <is>
-          <t>507</t>
-        </is>
-      </c>
-      <c r="B197" s="3" t="n">
-        <v>342</v>
-      </c>
-      <c r="C197" s="3" t="n">
-        <v>29496</v>
-      </c>
+      <c r="A197" s="3" t="n"/>
+      <c r="B197" s="3" t="n"/>
+      <c r="C197" s="3" t="n"/>
     </row>
     <row r="198">
-      <c r="A198" s="3" t="inlineStr">
-        <is>
-          <t>506</t>
-        </is>
-      </c>
-      <c r="B198" s="3" t="n">
-        <v>344</v>
-      </c>
-      <c r="C198" s="3" t="n">
-        <v>29840</v>
-      </c>
+      <c r="A198" s="3" t="n"/>
+      <c r="B198" s="3" t="n"/>
+      <c r="C198" s="3" t="n"/>
     </row>
     <row r="199">
-      <c r="A199" s="3" t="inlineStr">
-        <is>
-          <t>505</t>
-        </is>
-      </c>
-      <c r="B199" s="3" t="n">
-        <v>346</v>
-      </c>
-      <c r="C199" s="3" t="n">
-        <v>30186</v>
-      </c>
+      <c r="A199" s="3" t="n"/>
+      <c r="B199" s="3" t="n"/>
+      <c r="C199" s="3" t="n"/>
     </row>
     <row r="200">
-      <c r="A200" s="3" t="inlineStr">
-        <is>
-          <t>504</t>
-        </is>
-      </c>
-      <c r="B200" s="3" t="n">
-        <v>348</v>
-      </c>
-      <c r="C200" s="3" t="n">
-        <v>30534</v>
-      </c>
+      <c r="A200" s="3" t="n"/>
+      <c r="B200" s="3" t="n"/>
+      <c r="C200" s="3" t="n"/>
     </row>
     <row r="201">
-      <c r="A201" s="3" t="inlineStr">
-        <is>
-          <t>503</t>
-        </is>
-      </c>
-      <c r="B201" s="3" t="n">
-        <v>350</v>
-      </c>
-      <c r="C201" s="3" t="n">
-        <v>30884</v>
-      </c>
+      <c r="A201" s="3" t="n"/>
+      <c r="B201" s="3" t="n"/>
+      <c r="C201" s="3" t="n"/>
     </row>
     <row r="202">
-      <c r="A202" s="3" t="inlineStr">
-        <is>
-          <t>502</t>
-        </is>
-      </c>
-      <c r="B202" s="3" t="n">
-        <v>352</v>
-      </c>
-      <c r="C202" s="3" t="n">
-        <v>31236</v>
-      </c>
+      <c r="A202" s="3" t="n"/>
+      <c r="B202" s="3" t="n"/>
+      <c r="C202" s="3" t="n"/>
     </row>
     <row r="203">
-      <c r="A203" s="3" t="inlineStr">
-        <is>
-          <t>501</t>
-        </is>
-      </c>
-      <c r="B203" s="3" t="n">
-        <v>354</v>
-      </c>
-      <c r="C203" s="3" t="n">
-        <v>31590</v>
-      </c>
+      <c r="A203" s="3" t="n"/>
+      <c r="B203" s="3" t="n"/>
+      <c r="C203" s="3" t="n"/>
     </row>
     <row r="204">
-      <c r="A204" s="3" t="inlineStr">
-        <is>
-          <t>500</t>
-        </is>
-      </c>
-      <c r="B204" s="3" t="n">
-        <v>356</v>
-      </c>
-      <c r="C204" s="3" t="n">
-        <v>31946</v>
-      </c>
+      <c r="A204" s="3" t="n"/>
+      <c r="B204" s="3" t="n"/>
+      <c r="C204" s="3" t="n"/>
     </row>
     <row r="205">
-      <c r="A205" s="3" t="inlineStr">
-        <is>
-          <t>499</t>
-        </is>
-      </c>
-      <c r="B205" s="3" t="n">
-        <v>358</v>
-      </c>
-      <c r="C205" s="3" t="n">
-        <v>32304</v>
-      </c>
+      <c r="A205" s="3" t="n"/>
+      <c r="B205" s="3" t="n"/>
+      <c r="C205" s="3" t="n"/>
     </row>
     <row r="206">
-      <c r="A206" s="3" t="inlineStr">
-        <is>
-          <t>498</t>
-        </is>
-      </c>
-      <c r="B206" s="3" t="n">
-        <v>360</v>
-      </c>
-      <c r="C206" s="3" t="n">
-        <v>32664</v>
-      </c>
+      <c r="A206" s="3" t="n"/>
+      <c r="B206" s="3" t="n"/>
+      <c r="C206" s="3" t="n"/>
     </row>
     <row r="207">
-      <c r="A207" s="3" t="inlineStr">
-        <is>
-          <t>497</t>
-        </is>
-      </c>
-      <c r="B207" s="3" t="n">
-        <v>362</v>
-      </c>
-      <c r="C207" s="3" t="n">
-        <v>33026</v>
-      </c>
+      <c r="A207" s="3" t="n"/>
+      <c r="B207" s="3" t="n"/>
+      <c r="C207" s="3" t="n"/>
     </row>
     <row r="208">
-      <c r="A208" s="3" t="inlineStr">
-        <is>
-          <t>496</t>
-        </is>
-      </c>
-      <c r="B208" s="3" t="n">
-        <v>364</v>
-      </c>
-      <c r="C208" s="3" t="n">
-        <v>33390</v>
-      </c>
+      <c r="A208" s="3" t="n"/>
+      <c r="B208" s="3" t="n"/>
+      <c r="C208" s="3" t="n"/>
     </row>
     <row r="209">
-      <c r="A209" s="3" t="inlineStr">
-        <is>
-          <t>495</t>
-        </is>
-      </c>
-      <c r="B209" s="3" t="n">
-        <v>366</v>
-      </c>
-      <c r="C209" s="3" t="n">
-        <v>33756</v>
-      </c>
+      <c r="A209" s="3" t="n"/>
+      <c r="B209" s="3" t="n"/>
+      <c r="C209" s="3" t="n"/>
     </row>
     <row r="210">
-      <c r="A210" s="3" t="inlineStr">
-        <is>
-          <t>494</t>
-        </is>
-      </c>
-      <c r="B210" s="3" t="n">
-        <v>368</v>
-      </c>
-      <c r="C210" s="3" t="n">
-        <v>34124</v>
-      </c>
+      <c r="A210" s="3" t="n"/>
+      <c r="B210" s="3" t="n"/>
+      <c r="C210" s="3" t="n"/>
     </row>
     <row r="211">
-      <c r="A211" s="3" t="inlineStr">
-        <is>
-          <t>493</t>
-        </is>
-      </c>
-      <c r="B211" s="3" t="n">
-        <v>370</v>
-      </c>
-      <c r="C211" s="3" t="n">
-        <v>34494</v>
-      </c>
+      <c r="A211" s="3" t="n"/>
+      <c r="B211" s="3" t="n"/>
+      <c r="C211" s="3" t="n"/>
     </row>
     <row r="212">
-      <c r="A212" s="3" t="inlineStr">
-        <is>
-          <t>492</t>
-        </is>
-      </c>
-      <c r="B212" s="3" t="n">
-        <v>372</v>
-      </c>
-      <c r="C212" s="3" t="n">
-        <v>34866</v>
-      </c>
+      <c r="A212" s="3" t="n"/>
+      <c r="B212" s="3" t="n"/>
+      <c r="C212" s="3" t="n"/>
     </row>
     <row r="213">
-      <c r="A213" s="3" t="inlineStr">
-        <is>
-          <t>491</t>
-        </is>
-      </c>
-      <c r="B213" s="3" t="n">
-        <v>374</v>
-      </c>
-      <c r="C213" s="3" t="n">
-        <v>35240</v>
-      </c>
+      <c r="A213" s="3" t="n"/>
+      <c r="B213" s="3" t="n"/>
+      <c r="C213" s="3" t="n"/>
     </row>
     <row r="214">
-      <c r="A214" s="3" t="inlineStr">
-        <is>
-          <t>490</t>
-        </is>
-      </c>
-      <c r="B214" s="3" t="n">
-        <v>376</v>
-      </c>
-      <c r="C214" s="3" t="n">
-        <v>35616</v>
-      </c>
+      <c r="A214" s="3" t="n"/>
+      <c r="B214" s="3" t="n"/>
+      <c r="C214" s="3" t="n"/>
     </row>
     <row r="215">
-      <c r="A215" s="3" t="inlineStr">
-        <is>
-          <t>489</t>
-        </is>
-      </c>
-      <c r="B215" s="3" t="n">
-        <v>378</v>
-      </c>
-      <c r="C215" s="3" t="n">
-        <v>35994</v>
-      </c>
+      <c r="A215" s="3" t="n"/>
+      <c r="B215" s="3" t="n"/>
+      <c r="C215" s="3" t="n"/>
     </row>
     <row r="216">
-      <c r="A216" s="3" t="inlineStr">
-        <is>
-          <t>488</t>
-        </is>
-      </c>
-      <c r="B216" s="3" t="n">
-        <v>380</v>
-      </c>
-      <c r="C216" s="3" t="n">
-        <v>36374</v>
-      </c>
+      <c r="A216" s="3" t="n"/>
+      <c r="B216" s="3" t="n"/>
+      <c r="C216" s="3" t="n"/>
     </row>
     <row r="217">
-      <c r="A217" s="3" t="inlineStr">
-        <is>
-          <t>487</t>
-        </is>
-      </c>
-      <c r="B217" s="3" t="n">
-        <v>382</v>
-      </c>
-      <c r="C217" s="3" t="n">
-        <v>36756</v>
-      </c>
+      <c r="A217" s="3" t="n"/>
+      <c r="B217" s="3" t="n"/>
+      <c r="C217" s="3" t="n"/>
     </row>
     <row r="218">
-      <c r="A218" s="3" t="inlineStr">
-        <is>
-          <t>486</t>
-        </is>
-      </c>
-      <c r="B218" s="3" t="n">
-        <v>384</v>
-      </c>
-      <c r="C218" s="3" t="n">
-        <v>37140</v>
-      </c>
+      <c r="A218" s="3" t="n"/>
+      <c r="B218" s="3" t="n"/>
+      <c r="C218" s="3" t="n"/>
     </row>
     <row r="219">
-      <c r="A219" s="3" t="inlineStr">
-        <is>
-          <t>485</t>
-        </is>
-      </c>
-      <c r="B219" s="3" t="n">
-        <v>386</v>
-      </c>
-      <c r="C219" s="3" t="n">
-        <v>37526</v>
-      </c>
+      <c r="A219" s="3" t="n"/>
+      <c r="B219" s="3" t="n"/>
+      <c r="C219" s="3" t="n"/>
     </row>
     <row r="220">
-      <c r="A220" s="3" t="inlineStr">
-        <is>
-          <t>484</t>
-        </is>
-      </c>
-      <c r="B220" s="3" t="n">
-        <v>388</v>
-      </c>
-      <c r="C220" s="3" t="n">
-        <v>37914</v>
-      </c>
+      <c r="A220" s="3" t="n"/>
+      <c r="B220" s="3" t="n"/>
+      <c r="C220" s="3" t="n"/>
     </row>
     <row r="221">
-      <c r="A221" s="3" t="inlineStr">
-        <is>
-          <t>483</t>
-        </is>
-      </c>
-      <c r="B221" s="3" t="n">
-        <v>390</v>
-      </c>
-      <c r="C221" s="3" t="n">
-        <v>38304</v>
-      </c>
+      <c r="A221" s="3" t="n"/>
+      <c r="B221" s="3" t="n"/>
+      <c r="C221" s="3" t="n"/>
     </row>
     <row r="222">
-      <c r="A222" s="3" t="inlineStr">
-        <is>
-          <t>482</t>
-        </is>
-      </c>
-      <c r="B222" s="3" t="n">
-        <v>392</v>
-      </c>
-      <c r="C222" s="3" t="n">
-        <v>38696</v>
-      </c>
+      <c r="A222" s="3" t="n"/>
+      <c r="B222" s="3" t="n"/>
+      <c r="C222" s="3" t="n"/>
     </row>
     <row r="223">
-      <c r="A223" s="3" t="inlineStr">
-        <is>
-          <t>481</t>
-        </is>
-      </c>
-      <c r="B223" s="3" t="n">
-        <v>394</v>
-      </c>
-      <c r="C223" s="3" t="n">
-        <v>39090</v>
-      </c>
+      <c r="A223" s="3" t="n"/>
+      <c r="B223" s="3" t="n"/>
+      <c r="C223" s="3" t="n"/>
     </row>
     <row r="224">
-      <c r="A224" s="3" t="inlineStr">
-        <is>
-          <t>480</t>
-        </is>
-      </c>
-      <c r="B224" s="3" t="n">
-        <v>396</v>
-      </c>
-      <c r="C224" s="3" t="n">
-        <v>39486</v>
-      </c>
+      <c r="A224" s="3" t="n"/>
+      <c r="B224" s="3" t="n"/>
+      <c r="C224" s="3" t="n"/>
     </row>
     <row r="225">
-      <c r="A225" s="3" t="inlineStr">
-        <is>
-          <t>479</t>
-        </is>
-      </c>
-      <c r="B225" s="3" t="n">
-        <v>398</v>
-      </c>
-      <c r="C225" s="3" t="n">
-        <v>39884</v>
-      </c>
+      <c r="A225" s="3" t="n"/>
+      <c r="B225" s="3" t="n"/>
+      <c r="C225" s="3" t="n"/>
     </row>
     <row r="226">
-      <c r="A226" s="3" t="inlineStr">
-        <is>
-          <t>478</t>
-        </is>
-      </c>
-      <c r="B226" s="3" t="n">
-        <v>400</v>
-      </c>
-      <c r="C226" s="3" t="n">
-        <v>40284</v>
-      </c>
+      <c r="A226" s="3" t="n"/>
+      <c r="B226" s="3" t="n"/>
+      <c r="C226" s="3" t="n"/>
     </row>
     <row r="227">
-      <c r="A227" s="3" t="inlineStr">
-        <is>
-          <t>477</t>
-        </is>
-      </c>
-      <c r="B227" s="3" t="n">
-        <v>402</v>
-      </c>
-      <c r="C227" s="3" t="n">
-        <v>40686</v>
-      </c>
+      <c r="A227" s="3" t="n"/>
+      <c r="B227" s="3" t="n"/>
+      <c r="C227" s="3" t="n"/>
     </row>
     <row r="228">
-      <c r="A228" s="3" t="inlineStr">
-        <is>
-          <t>476</t>
-        </is>
-      </c>
-      <c r="B228" s="3" t="n">
-        <v>404</v>
-      </c>
-      <c r="C228" s="3" t="n">
-        <v>41090</v>
-      </c>
+      <c r="A228" s="3" t="n"/>
+      <c r="B228" s="3" t="n"/>
+      <c r="C228" s="3" t="n"/>
     </row>
     <row r="229">
-      <c r="A229" s="3" t="inlineStr">
-        <is>
-          <t>475</t>
-        </is>
-      </c>
-      <c r="B229" s="3" t="n">
-        <v>406</v>
-      </c>
-      <c r="C229" s="3" t="n">
-        <v>41496</v>
-      </c>
+      <c r="A229" s="3" t="n"/>
+      <c r="B229" s="3" t="n"/>
+      <c r="C229" s="3" t="n"/>
     </row>
     <row r="230">
-      <c r="A230" s="3" t="inlineStr">
-        <is>
-          <t>474</t>
-        </is>
-      </c>
-      <c r="B230" s="3" t="n">
-        <v>408</v>
-      </c>
-      <c r="C230" s="3" t="n">
-        <v>41904</v>
-      </c>
+      <c r="A230" s="3" t="n"/>
+      <c r="B230" s="3" t="n"/>
+      <c r="C230" s="3" t="n"/>
     </row>
     <row r="231">
-      <c r="A231" s="3" t="inlineStr">
-        <is>
-          <t>473</t>
-        </is>
-      </c>
-      <c r="B231" s="3" t="n">
-        <v>410</v>
-      </c>
-      <c r="C231" s="3" t="n">
-        <v>42314</v>
-      </c>
+      <c r="A231" s="3" t="n"/>
+      <c r="B231" s="3" t="n"/>
+      <c r="C231" s="3" t="n"/>
     </row>
     <row r="232">
-      <c r="A232" s="3" t="inlineStr">
-        <is>
-          <t>472</t>
-        </is>
-      </c>
-      <c r="B232" s="3" t="n">
-        <v>412</v>
-      </c>
-      <c r="C232" s="3" t="n">
-        <v>42726</v>
-      </c>
+      <c r="A232" s="3" t="n"/>
+      <c r="B232" s="3" t="n"/>
+      <c r="C232" s="3" t="n"/>
     </row>
     <row r="233">
-      <c r="A233" s="3" t="inlineStr">
-        <is>
-          <t>471</t>
-        </is>
-      </c>
-      <c r="B233" s="3" t="n">
-        <v>414</v>
-      </c>
-      <c r="C233" s="3" t="n">
-        <v>43140</v>
-      </c>
+      <c r="A233" s="3" t="n"/>
+      <c r="B233" s="3" t="n"/>
+      <c r="C233" s="3" t="n"/>
     </row>
     <row r="234">
-      <c r="A234" s="3" t="inlineStr">
-        <is>
-          <t>470</t>
-        </is>
-      </c>
-      <c r="B234" s="3" t="n">
-        <v>416</v>
-      </c>
-      <c r="C234" s="3" t="n">
-        <v>43556</v>
-      </c>
+      <c r="A234" s="3" t="n"/>
+      <c r="B234" s="3" t="n"/>
+      <c r="C234" s="3" t="n"/>
     </row>
     <row r="235">
-      <c r="A235" s="3" t="inlineStr">
-        <is>
-          <t>469</t>
-        </is>
-      </c>
-      <c r="B235" s="3" t="n">
-        <v>418</v>
-      </c>
-      <c r="C235" s="3" t="n">
-        <v>43974</v>
-      </c>
+      <c r="A235" s="3" t="n"/>
+      <c r="B235" s="3" t="n"/>
+      <c r="C235" s="3" t="n"/>
     </row>
     <row r="236">
-      <c r="A236" s="3" t="inlineStr">
-        <is>
-          <t>468</t>
-        </is>
-      </c>
-      <c r="B236" s="3" t="n">
-        <v>420</v>
-      </c>
-      <c r="C236" s="3" t="n">
-        <v>44394</v>
-      </c>
+      <c r="A236" s="3" t="n"/>
+      <c r="B236" s="3" t="n"/>
+      <c r="C236" s="3" t="n"/>
     </row>
     <row r="237">
-      <c r="A237" s="3" t="inlineStr">
-        <is>
-          <t>467</t>
-        </is>
-      </c>
-      <c r="B237" s="3" t="n">
-        <v>422</v>
-      </c>
-      <c r="C237" s="3" t="n">
-        <v>44816</v>
-      </c>
+      <c r="A237" s="3" t="n"/>
+      <c r="B237" s="3" t="n"/>
+      <c r="C237" s="3" t="n"/>
     </row>
     <row r="238">
-      <c r="A238" s="3" t="inlineStr">
-        <is>
-          <t>466</t>
-        </is>
-      </c>
-      <c r="B238" s="3" t="n">
-        <v>424</v>
-      </c>
-      <c r="C238" s="3" t="n">
-        <v>45240</v>
-      </c>
+      <c r="A238" s="3" t="n"/>
+      <c r="B238" s="3" t="n"/>
+      <c r="C238" s="3" t="n"/>
     </row>
     <row r="239">
-      <c r="A239" s="3" t="inlineStr">
-        <is>
-          <t>465</t>
-        </is>
-      </c>
-      <c r="B239" s="3" t="n">
-        <v>426</v>
-      </c>
-      <c r="C239" s="3" t="n">
-        <v>45666</v>
-      </c>
+      <c r="A239" s="3" t="n"/>
+      <c r="B239" s="3" t="n"/>
+      <c r="C239" s="3" t="n"/>
     </row>
     <row r="240">
-      <c r="A240" s="3" t="inlineStr">
-        <is>
-          <t>464</t>
-        </is>
-      </c>
-      <c r="B240" s="3" t="n">
-        <v>428</v>
-      </c>
-      <c r="C240" s="3" t="n">
-        <v>46094</v>
-      </c>
+      <c r="A240" s="3" t="n"/>
+      <c r="B240" s="3" t="n"/>
+      <c r="C240" s="3" t="n"/>
     </row>
     <row r="241">
-      <c r="A241" s="3" t="inlineStr">
-        <is>
-          <t>463</t>
-        </is>
-      </c>
-      <c r="B241" s="3" t="n">
-        <v>430</v>
-      </c>
-      <c r="C241" s="3" t="n">
-        <v>46524</v>
-      </c>
+      <c r="A241" s="3" t="n"/>
+      <c r="B241" s="3" t="n"/>
+      <c r="C241" s="3" t="n"/>
     </row>
     <row r="242">
-      <c r="A242" s="3" t="inlineStr">
-        <is>
-          <t>462</t>
-        </is>
-      </c>
-      <c r="B242" s="3" t="n">
-        <v>432</v>
-      </c>
-      <c r="C242" s="3" t="n">
-        <v>46956</v>
-      </c>
+      <c r="A242" s="3" t="n"/>
+      <c r="B242" s="3" t="n"/>
+      <c r="C242" s="3" t="n"/>
     </row>
     <row r="243">
-      <c r="A243" s="3" t="inlineStr">
-        <is>
-          <t>461</t>
-        </is>
-      </c>
-      <c r="B243" s="3" t="n">
-        <v>434</v>
-      </c>
-      <c r="C243" s="3" t="n">
-        <v>47390</v>
-      </c>
+      <c r="A243" s="3" t="n"/>
+      <c r="B243" s="3" t="n"/>
+      <c r="C243" s="3" t="n"/>
     </row>
     <row r="244">
-      <c r="A244" s="3" t="inlineStr">
-        <is>
-          <t>460</t>
-        </is>
-      </c>
-      <c r="B244" s="3" t="n">
-        <v>436</v>
-      </c>
-      <c r="C244" s="3" t="n">
-        <v>47826</v>
-      </c>
+      <c r="A244" s="3" t="n"/>
+      <c r="B244" s="3" t="n"/>
+      <c r="C244" s="3" t="n"/>
     </row>
     <row r="245">
-      <c r="A245" s="3" t="inlineStr">
-        <is>
-          <t>459</t>
-        </is>
-      </c>
-      <c r="B245" s="3" t="n">
-        <v>438</v>
-      </c>
-      <c r="C245" s="3" t="n">
-        <v>48264</v>
-      </c>
+      <c r="A245" s="3" t="n"/>
+      <c r="B245" s="3" t="n"/>
+      <c r="C245" s="3" t="n"/>
     </row>
     <row r="246">
-      <c r="A246" s="3" t="inlineStr">
-        <is>
-          <t>458</t>
-        </is>
-      </c>
-      <c r="B246" s="3" t="n">
-        <v>440</v>
-      </c>
-      <c r="C246" s="3" t="n">
-        <v>48704</v>
-      </c>
+      <c r="A246" s="3" t="n"/>
+      <c r="B246" s="3" t="n"/>
+      <c r="C246" s="3" t="n"/>
     </row>
     <row r="247">
-      <c r="A247" s="3" t="inlineStr">
-        <is>
-          <t>457</t>
-        </is>
-      </c>
-      <c r="B247" s="3" t="n">
-        <v>442</v>
-      </c>
-      <c r="C247" s="3" t="n">
-        <v>49146</v>
-      </c>
+      <c r="A247" s="3" t="n"/>
+      <c r="B247" s="3" t="n"/>
+      <c r="C247" s="3" t="n"/>
     </row>
     <row r="248">
-      <c r="A248" s="3" t="inlineStr">
-        <is>
-          <t>456</t>
-        </is>
-      </c>
-      <c r="B248" s="3" t="n">
-        <v>444</v>
-      </c>
-      <c r="C248" s="3" t="n">
-        <v>49590</v>
-      </c>
+      <c r="A248" s="3" t="n"/>
+      <c r="B248" s="3" t="n"/>
+      <c r="C248" s="3" t="n"/>
     </row>
     <row r="249">
-      <c r="A249" s="3" t="inlineStr">
-        <is>
-          <t>455</t>
-        </is>
-      </c>
-      <c r="B249" s="3" t="n">
-        <v>446</v>
-      </c>
-      <c r="C249" s="3" t="n">
-        <v>50036</v>
-      </c>
+      <c r="A249" s="3" t="n"/>
+      <c r="B249" s="3" t="n"/>
+      <c r="C249" s="3" t="n"/>
     </row>
     <row r="250">
-      <c r="A250" s="3" t="inlineStr">
-        <is>
-          <t>454</t>
-        </is>
-      </c>
-      <c r="B250" s="3" t="n">
-        <v>448</v>
-      </c>
-      <c r="C250" s="3" t="n">
-        <v>50484</v>
-      </c>
+      <c r="A250" s="3" t="n"/>
+      <c r="B250" s="3" t="n"/>
+      <c r="C250" s="3" t="n"/>
     </row>
     <row r="251">
-      <c r="A251" s="3" t="inlineStr">
-        <is>
-          <t>453</t>
-        </is>
-      </c>
-      <c r="B251" s="3" t="n">
-        <v>450</v>
-      </c>
-      <c r="C251" s="3" t="n">
-        <v>50934</v>
-      </c>
+      <c r="A251" s="3" t="n"/>
+      <c r="B251" s="3" t="n"/>
+      <c r="C251" s="3" t="n"/>
     </row>
     <row r="252">
-      <c r="A252" s="3" t="inlineStr">
-        <is>
-          <t>452</t>
-        </is>
-      </c>
-      <c r="B252" s="3" t="n">
-        <v>452</v>
-      </c>
-      <c r="C252" s="3" t="n">
-        <v>51386</v>
-      </c>
+      <c r="A252" s="3" t="n"/>
+      <c r="B252" s="3" t="n"/>
+      <c r="C252" s="3" t="n"/>
     </row>
     <row r="253">
-      <c r="A253" s="3" t="inlineStr">
-        <is>
-          <t>451</t>
-        </is>
-      </c>
-      <c r="B253" s="3" t="n">
-        <v>454</v>
-      </c>
-      <c r="C253" s="3" t="n">
-        <v>51840</v>
-      </c>
+      <c r="A253" s="3" t="n"/>
+      <c r="B253" s="3" t="n"/>
+      <c r="C253" s="3" t="n"/>
     </row>
     <row r="254">
-      <c r="A254" s="3" t="inlineStr">
-        <is>
-          <t>450</t>
-        </is>
-      </c>
-      <c r="B254" s="3" t="n">
-        <v>456</v>
-      </c>
-      <c r="C254" s="3" t="n">
-        <v>52296</v>
-      </c>
+      <c r="A254" s="3" t="n"/>
+      <c r="B254" s="3" t="n"/>
+      <c r="C254" s="3" t="n"/>
     </row>
     <row r="255"/>
     <row r="256"/>
-    <row r="257">
-      <c r="A257" t="inlineStr">
-        <is>
-          <t>数据说明：</t>
-        </is>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="inlineStr">
-        <is>
-          <t>1. 绿色标记：官方确认的高分段数据</t>
-        </is>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" t="inlineStr">
-        <is>
-          <t>2. 白色背景：基于OCR识别和趋势分析的数据</t>
-        </is>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" t="inlineStr">
-        <is>
-          <t>3. 数据来源：PaddleOCR识别 + 官方关键数据点</t>
-        </is>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" t="inlineStr">
-        <is>
-          <t>4. 2022年湖北省本科线：物理类409分</t>
-        </is>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="inlineStr">
-        <is>
-          <t>5. 2022年湖北省特殊类型招生控制线：物理类504分</t>
-        </is>
-      </c>
-    </row>
+    <row r="257"/>
+    <row r="258"/>
+    <row r="259"/>
+    <row r="260"/>
+    <row r="261"/>
+    <row r="262"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
